--- a/recommended_trades.xlsx
+++ b/recommended_trades.xlsx
@@ -1939,7 +1939,7 @@
         <v>72714960896</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1953,7 +1953,7 @@
         <v>10744139776</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1967,7 +1967,7 @@
         <v>206312996864</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1981,7 +1981,7 @@
         <v>323528163328</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1995,7 +1995,7 @@
         <v>226429059072</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2009,7 +2009,7 @@
         <v>227112386560</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2023,7 +2023,7 @@
         <v>222608965632</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2037,7 +2037,7 @@
         <v>9271792640</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>15245</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2051,7 +2051,7 @@
         <v>63385825280</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2065,7 +2065,7 @@
         <v>39396507648</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2079,7 +2079,7 @@
         <v>74347970560</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>594</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2093,7 +2093,7 @@
         <v>86393380864</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2107,7 +2107,7 @@
         <v>14124343296</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2121,7 +2121,7 @@
         <v>12692014080</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2135,7 +2135,7 @@
         <v>19314720768</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2149,7 +2149,7 @@
         <v>17377003520</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>854</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2163,7 +2163,7 @@
         <v>12292670464</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2177,7 +2177,7 @@
         <v>16317166592</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2191,7 +2191,7 @@
         <v>55132143616</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>958</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2205,7 +2205,7 @@
         <v>2080348962816</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2219,7 +2219,7 @@
         <v>2080335986688</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2233,7 +2233,7 @@
         <v>97858330624</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2247,7 +2247,7 @@
         <v>2185963372544</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>956</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2261,7 +2261,7 @@
         <v>15378418688</v>
       </c>
       <c r="D25" s="3">
-        <v>1</v>
+        <v>18684</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2275,7 +2275,7 @@
         <v>5924403712</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>8164</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2289,7 +2289,7 @@
         <v>25352775680</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2303,7 +2303,7 @@
         <v>53197918208</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2317,7 +2317,7 @@
         <v>214630301696</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>652</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2331,7 +2331,7 @@
         <v>48117575680</v>
       </c>
       <c r="D30" s="3">
-        <v>0</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2345,7 +2345,7 @@
         <v>97803640832</v>
       </c>
       <c r="D31" s="3">
-        <v>0</v>
+        <v>951</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2359,7 +2359,7 @@
         <v>26955816960</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2373,7 +2373,7 @@
         <v>55683465216</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2387,7 +2387,7 @@
         <v>45128040448</v>
       </c>
       <c r="D34" s="3">
-        <v>0</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2401,7 +2401,7 @@
         <v>152051957760</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>702</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2415,7 +2415,7 @@
         <v>87696547840</v>
       </c>
       <c r="D36" s="3">
-        <v>0</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2429,7 +2429,7 @@
         <v>108217556992</v>
       </c>
       <c r="D37" s="3">
-        <v>0</v>
+        <v>911</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2443,7 +2443,7 @@
         <v>30703695872</v>
       </c>
       <c r="D38" s="3">
-        <v>0</v>
+        <v>566</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2457,7 +2457,7 @@
         <v>85059715072</v>
       </c>
       <c r="D39" s="3">
-        <v>0</v>
+        <v>507</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2471,7 +2471,7 @@
         <v>8379299840</v>
       </c>
       <c r="D40" s="3">
-        <v>0</v>
+        <v>8777</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2485,7 +2485,7 @@
         <v>3587432775680</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>837</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2499,7 +2499,7 @@
         <v>144031629312</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2513,7 +2513,7 @@
         <v>13051548672</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2527,7 +2527,7 @@
         <v>37902647296</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2541,7 +2541,7 @@
         <v>26127955968</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2555,7 +2555,7 @@
         <v>127808954368</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>489</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2569,7 +2569,7 @@
         <v>69160534016</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>636</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2583,7 +2583,7 @@
         <v>11647369216</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>875</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2597,7 +2597,7 @@
         <v>166969016320</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>8584</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2611,7 +2611,7 @@
         <v>23532077056</v>
       </c>
       <c r="D50" s="3">
-        <v>0</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2625,7 +2625,7 @@
         <v>62907072512</v>
       </c>
       <c r="D51" s="3">
-        <v>0</v>
+        <v>681</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2639,7 +2639,7 @@
         <v>125060767744</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>647</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2653,7 +2653,7 @@
         <v>53578854400</v>
       </c>
       <c r="D53" s="3">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2667,7 +2667,7 @@
         <v>33825443840</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>844</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2681,7 +2681,7 @@
         <v>16547341312</v>
       </c>
       <c r="D55" s="3">
-        <v>0</v>
+        <v>965</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2695,7 +2695,7 @@
         <v>49333805056</v>
       </c>
       <c r="D56" s="3">
-        <v>0</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2709,7 +2709,7 @@
         <v>43489669120</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2723,7 +2723,7 @@
         <v>18681440256</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2737,7 +2737,7 @@
         <v>366533443584</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2751,7 +2751,7 @@
         <v>17211920384</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>5897</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2765,7 +2765,7 @@
         <v>64179245056</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>895</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2787,7 +2787,7 @@
         <v>19325249536</v>
       </c>
       <c r="D63" s="3">
-        <v>0</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2801,7 +2801,7 @@
         <v>11977266176</v>
       </c>
       <c r="D64" s="3">
-        <v>0</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2815,7 +2815,7 @@
         <v>23406845952</v>
       </c>
       <c r="D65" s="3">
-        <v>0</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2829,7 +2829,7 @@
         <v>151505321984</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2843,7 +2843,7 @@
         <v>229260230656</v>
       </c>
       <c r="D67" s="3">
-        <v>0</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2857,7 +2857,7 @@
         <v>59525877760</v>
       </c>
       <c r="D68" s="3">
-        <v>0</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2871,7 +2871,7 @@
         <v>116296482816</v>
       </c>
       <c r="D69" s="3">
-        <v>0</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2885,7 +2885,7 @@
         <v>172869074944</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2899,7 +2899,7 @@
         <v>7505783808</v>
       </c>
       <c r="D71" s="3">
-        <v>0</v>
+        <v>5792</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2913,7 +2913,7 @@
         <v>133749792768</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2927,7 +2927,7 @@
         <v>120210087936</v>
       </c>
       <c r="D73" s="3">
-        <v>0</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2941,7 +2941,7 @@
         <v>757007646720</v>
       </c>
       <c r="D74" s="3">
-        <v>0</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2955,7 +2955,7 @@
         <v>27588143104</v>
       </c>
       <c r="D75" s="3">
-        <v>0</v>
+        <v>842</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2969,7 +2969,7 @@
         <v>32370464768</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2991,7 +2991,7 @@
         <v>21459900416</v>
       </c>
       <c r="D78" s="3">
-        <v>0</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3005,7 +3005,7 @@
         <v>12530127872</v>
       </c>
       <c r="D79" s="3">
-        <v>0</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3019,7 +3019,7 @@
         <v>14614306816</v>
       </c>
       <c r="D80" s="3">
-        <v>0</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3033,7 +3033,7 @@
         <v>12480083968</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3047,7 +3047,7 @@
         <v>84146634752</v>
       </c>
       <c r="D82" s="3">
-        <v>0</v>
+        <v>647</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3061,7 +3061,7 @@
         <v>8178355712</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3075,7 +3075,7 @@
         <v>13551679488</v>
       </c>
       <c r="D84" s="3">
-        <v>0</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3089,7 +3089,7 @@
         <v>13749859328</v>
       </c>
       <c r="D85" s="3">
-        <v>0</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3103,7 +3103,7 @@
         <v>73253732352</v>
       </c>
       <c r="D86" s="3">
-        <v>0</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3117,7 +3117,7 @@
         <v>29677795328</v>
       </c>
       <c r="D87" s="3">
-        <v>0</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3131,7 +3131,7 @@
         <v>13105030144</v>
       </c>
       <c r="D88" s="3">
-        <v>0</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3145,7 +3145,7 @@
         <v>33733912576</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>7817</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3159,7 +3159,7 @@
         <v>69418459136</v>
       </c>
       <c r="D90" s="3">
-        <v>0</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3173,7 +3173,7 @@
         <v>11092198400</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3187,7 +3187,7 @@
         <v>196070703104</v>
       </c>
       <c r="D92" s="3">
-        <v>0</v>
+        <v>489</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3201,7 +3201,7 @@
         <v>22804768768</v>
       </c>
       <c r="D93" s="3">
-        <v>0</v>
+        <v>921</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3215,7 +3215,7 @@
         <v>43059806208</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3229,7 +3229,7 @@
         <v>23554387968</v>
       </c>
       <c r="D95" s="3">
-        <v>0</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3243,7 +3243,7 @@
         <v>8002731520</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3257,7 +3257,7 @@
         <v>48619585536</v>
       </c>
       <c r="D97" s="3">
-        <v>0</v>
+        <v>790</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3271,7 +3271,7 @@
         <v>30291900416</v>
       </c>
       <c r="D98" s="3">
-        <v>0</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3285,7 +3285,7 @@
         <v>21285398528</v>
       </c>
       <c r="D99" s="3">
-        <v>0</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3299,7 +3299,7 @@
         <v>15602633728</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3313,7 +3313,7 @@
         <v>10206264320</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>998</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3327,7 +3327,7 @@
         <v>151204184064</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3341,7 +3341,7 @@
         <v>56442068992</v>
       </c>
       <c r="D103" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3355,7 +3355,7 @@
         <v>289030471680</v>
       </c>
       <c r="D104" s="3">
-        <v>0</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3369,7 +3369,7 @@
         <v>84548780032</v>
       </c>
       <c r="D105" s="3">
-        <v>0</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3383,7 +3383,7 @@
         <v>117035548672</v>
       </c>
       <c r="D106" s="3">
-        <v>0</v>
+        <v>688</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3397,7 +3397,7 @@
         <v>27037904896</v>
       </c>
       <c r="D107" s="3">
-        <v>0</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3411,7 +3411,7 @@
         <v>93960077312</v>
       </c>
       <c r="D108" s="3">
-        <v>0</v>
+        <v>588</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3425,7 +3425,7 @@
         <v>25035452416</v>
       </c>
       <c r="D109" s="3">
-        <v>0</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3439,7 +3439,7 @@
         <v>91060879360</v>
       </c>
       <c r="D110" s="3">
-        <v>0</v>
+        <v>880</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3453,7 +3453,7 @@
         <v>236137775104</v>
       </c>
       <c r="D111" s="3">
-        <v>0</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3467,7 +3467,7 @@
         <v>134033604608</v>
       </c>
       <c r="D112" s="3">
-        <v>0</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3481,7 +3481,7 @@
         <v>21224155136</v>
       </c>
       <c r="D113" s="3">
-        <v>0</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3495,7 +3495,7 @@
         <v>20692469760</v>
       </c>
       <c r="D114" s="3">
-        <v>0</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3509,7 +3509,7 @@
         <v>85765447680</v>
       </c>
       <c r="D115" s="3">
-        <v>0</v>
+        <v>835</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3523,7 +3523,7 @@
         <v>21061343232</v>
       </c>
       <c r="D116" s="3">
-        <v>0</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3537,7 +3537,7 @@
         <v>277551644672</v>
       </c>
       <c r="D117" s="3">
-        <v>0</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3551,7 +3551,7 @@
         <v>40037818368</v>
       </c>
       <c r="D118" s="3">
-        <v>0</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3565,7 +3565,7 @@
         <v>79053971456</v>
       </c>
       <c r="D119" s="3">
-        <v>0</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3579,7 +3579,7 @@
         <v>164860542976</v>
       </c>
       <c r="D120" s="3">
-        <v>0</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3593,7 +3593,7 @@
         <v>13148870656</v>
       </c>
       <c r="D121" s="3">
-        <v>0</v>
+        <v>7216</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3607,7 +3607,7 @@
         <v>140144295936</v>
       </c>
       <c r="D122" s="3">
-        <v>0</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3621,7 +3621,7 @@
         <v>35188596736</v>
       </c>
       <c r="D123" s="3">
-        <v>0</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3635,7 +3635,7 @@
         <v>43741097984</v>
       </c>
       <c r="D124" s="3">
-        <v>0</v>
+        <v>825</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3649,7 +3649,7 @@
         <v>80243499008</v>
       </c>
       <c r="D125" s="3">
-        <v>0</v>
+        <v>774</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3663,7 +3663,7 @@
         <v>20803835904</v>
       </c>
       <c r="D126" s="3">
-        <v>0</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3677,7 +3677,7 @@
         <v>61193662464</v>
       </c>
       <c r="D127" s="3">
-        <v>0</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3691,7 +3691,7 @@
         <v>41671692288</v>
       </c>
       <c r="D128" s="3">
-        <v>0</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3705,7 +3705,7 @@
         <v>26572437504</v>
       </c>
       <c r="D129" s="3">
-        <v>0</v>
+        <v>521</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3719,7 +3719,7 @@
         <v>42955804672</v>
       </c>
       <c r="D130" s="3">
-        <v>0</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3733,7 +3733,7 @@
         <v>33604399104</v>
       </c>
       <c r="D131" s="3">
-        <v>0</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3747,7 +3747,7 @@
         <v>430614740992</v>
       </c>
       <c r="D132" s="3">
-        <v>0</v>
+        <v>204</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3761,7 +3761,7 @@
         <v>19682297856</v>
       </c>
       <c r="D133" s="3">
-        <v>0</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3775,7 +3775,7 @@
         <v>85615460352</v>
       </c>
       <c r="D134" s="3">
-        <v>0</v>
+        <v>574</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3789,7 +3789,7 @@
         <v>46371643392</v>
       </c>
       <c r="D135" s="3">
-        <v>0</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3803,7 +3803,7 @@
         <v>70541500416</v>
       </c>
       <c r="D136" s="3">
-        <v>0</v>
+        <v>5439</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3817,7 +3817,7 @@
         <v>51448737792</v>
       </c>
       <c r="D137" s="3">
-        <v>0</v>
+        <v>530</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3831,7 +3831,7 @@
         <v>75454087168</v>
       </c>
       <c r="D138" s="3">
-        <v>0</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3845,7 +3845,7 @@
         <v>173122093056</v>
       </c>
       <c r="D139" s="3">
-        <v>0</v>
+        <v>829</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3859,7 +3859,7 @@
         <v>20711725056</v>
       </c>
       <c r="D140" s="3">
-        <v>0</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3873,7 +3873,7 @@
         <v>13629927424</v>
       </c>
       <c r="D141" s="3">
-        <v>0</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3887,7 +3887,7 @@
         <v>12614422528</v>
       </c>
       <c r="D142" s="3">
-        <v>0</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3901,7 +3901,7 @@
         <v>29770635264</v>
       </c>
       <c r="D143" s="3">
-        <v>0</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3915,7 +3915,7 @@
         <v>127497732096</v>
       </c>
       <c r="D144" s="3">
-        <v>0</v>
+        <v>426</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3929,7 +3929,7 @@
         <v>87314300928</v>
       </c>
       <c r="D145" s="3">
-        <v>0</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3943,7 +3943,7 @@
         <v>41181835264</v>
       </c>
       <c r="D146" s="3">
-        <v>0</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3957,7 +3957,7 @@
         <v>24929353728</v>
       </c>
       <c r="D147" s="3">
-        <v>0</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3971,7 +3971,7 @@
         <v>30505474048</v>
       </c>
       <c r="D148" s="3">
-        <v>0</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3985,7 +3985,7 @@
         <v>51854323712</v>
       </c>
       <c r="D149" s="3">
-        <v>0</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3999,7 +3999,7 @@
         <v>66026000384</v>
       </c>
       <c r="D150" s="3">
-        <v>0</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4013,7 +4013,7 @@
         <v>45835534336</v>
       </c>
       <c r="D151" s="3">
-        <v>0</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4027,7 +4027,7 @@
         <v>16992831488</v>
       </c>
       <c r="D152" s="3">
-        <v>0</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4041,7 +4041,7 @@
         <v>15371940864</v>
       </c>
       <c r="D153" s="3">
-        <v>0</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4055,7 +4055,7 @@
         <v>50148589568</v>
       </c>
       <c r="D154" s="3">
-        <v>0</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4069,7 +4069,7 @@
         <v>16443793408</v>
       </c>
       <c r="D155" s="3">
-        <v>0</v>
+        <v>417</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4083,7 +4083,7 @@
         <v>28331427840</v>
       </c>
       <c r="D156" s="3">
-        <v>0</v>
+        <v>965</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4097,7 +4097,7 @@
         <v>31252092928</v>
       </c>
       <c r="D157" s="3">
-        <v>0</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4111,7 +4111,7 @@
         <v>54415687680</v>
       </c>
       <c r="D158" s="3">
-        <v>0</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4125,7 +4125,7 @@
         <v>26111299584</v>
       </c>
       <c r="D159" s="3">
-        <v>0</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4139,7 +4139,7 @@
         <v>90704863232</v>
       </c>
       <c r="D160" s="3">
-        <v>0</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4153,7 +4153,7 @@
         <v>35066421248</v>
       </c>
       <c r="D161" s="3">
-        <v>0</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4167,7 +4167,7 @@
         <v>12138409984</v>
       </c>
       <c r="D162" s="3">
-        <v>0</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4181,7 +4181,7 @@
         <v>148365983744</v>
       </c>
       <c r="D163" s="3">
-        <v>0</v>
+        <v>529</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4195,7 +4195,7 @@
         <v>30804508672</v>
       </c>
       <c r="D164" s="3">
-        <v>0</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4209,7 +4209,7 @@
         <v>70442205184</v>
       </c>
       <c r="D165" s="3">
-        <v>0</v>
+        <v>799</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4223,7 +4223,7 @@
         <v>34208634880</v>
       </c>
       <c r="D166" s="3">
-        <v>0</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4237,7 +4237,7 @@
         <v>42506903552</v>
       </c>
       <c r="D167" s="3">
-        <v>0</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4251,7 +4251,7 @@
         <v>42926219264</v>
       </c>
       <c r="D168" s="3">
-        <v>0</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4265,7 +4265,7 @@
         <v>94383382528</v>
       </c>
       <c r="D169" s="3">
-        <v>0</v>
+        <v>488</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4279,7 +4279,7 @@
         <v>75608522752</v>
       </c>
       <c r="D170" s="3">
-        <v>0</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4293,7 +4293,7 @@
         <v>9639884800</v>
       </c>
       <c r="D171" s="3">
-        <v>0</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4307,7 +4307,7 @@
         <v>33533446144</v>
       </c>
       <c r="D172" s="3">
-        <v>0</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4321,7 +4321,7 @@
         <v>74952081408</v>
       </c>
       <c r="D173" s="3">
-        <v>0</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4335,7 +4335,7 @@
         <v>13941564416</v>
       </c>
       <c r="D174" s="3">
-        <v>0</v>
+        <v>815</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4349,7 +4349,7 @@
         <v>27113322496</v>
       </c>
       <c r="D175" s="3">
-        <v>0</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4363,7 +4363,7 @@
         <v>32420884480</v>
       </c>
       <c r="D176" s="3">
-        <v>0</v>
+        <v>760</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4377,7 +4377,7 @@
         <v>94701240320</v>
       </c>
       <c r="D177" s="3">
-        <v>0</v>
+        <v>202</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4391,7 +4391,7 @@
         <v>30301935616</v>
       </c>
       <c r="D178" s="3">
-        <v>0</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4405,7 +4405,7 @@
         <v>22909251584</v>
       </c>
       <c r="D179" s="3">
-        <v>0</v>
+        <v>451</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4419,7 +4419,7 @@
         <v>20835123200</v>
       </c>
       <c r="D180" s="3">
-        <v>0</v>
+        <v>640</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4433,7 +4433,7 @@
         <v>26550040576</v>
       </c>
       <c r="D181" s="3">
-        <v>0</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4447,7 +4447,7 @@
         <v>16718679040</v>
       </c>
       <c r="D182" s="3">
-        <v>0</v>
+        <v>512</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4461,7 +4461,7 @@
         <v>14948465664</v>
       </c>
       <c r="D183" s="3">
-        <v>0</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4475,7 +4475,7 @@
         <v>23665893376</v>
       </c>
       <c r="D184" s="3">
-        <v>0</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4489,7 +4489,7 @@
         <v>39751077888</v>
       </c>
       <c r="D185" s="3">
-        <v>0</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4503,7 +4503,7 @@
         <v>23733823488</v>
       </c>
       <c r="D186" s="3">
-        <v>0</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4517,7 +4517,7 @@
         <v>17026680832</v>
       </c>
       <c r="D187" s="3">
-        <v>0</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4531,7 +4531,7 @@
         <v>37707108352</v>
       </c>
       <c r="D188" s="3">
-        <v>0</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4545,7 +4545,7 @@
         <v>518444810240</v>
       </c>
       <c r="D189" s="3">
-        <v>0</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4559,7 +4559,7 @@
         <v>14674240512</v>
       </c>
       <c r="D190" s="3">
-        <v>0</v>
+        <v>794</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4573,7 +4573,7 @@
         <v>18639964160</v>
       </c>
       <c r="D191" s="3">
-        <v>0</v>
+        <v>405</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4587,7 +4587,7 @@
         <v>57826992128</v>
       </c>
       <c r="D192" s="3">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4601,7 +4601,7 @@
         <v>47956336640</v>
       </c>
       <c r="D193" s="3">
-        <v>0</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4615,7 +4615,7 @@
         <v>10059698176</v>
       </c>
       <c r="D194" s="3">
-        <v>0</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4629,7 +4629,7 @@
         <v>74125393920</v>
       </c>
       <c r="D195" s="3">
-        <v>0</v>
+        <v>656</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4643,7 +4643,7 @@
         <v>46056202240</v>
       </c>
       <c r="D196" s="3">
-        <v>0</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4657,7 +4657,7 @@
         <v>32293390336</v>
       </c>
       <c r="D197" s="3">
-        <v>0</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4671,7 +4671,7 @@
         <v>21333448704</v>
       </c>
       <c r="D198" s="3">
-        <v>0</v>
+        <v>997</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4685,7 +4685,7 @@
         <v>24562626560</v>
       </c>
       <c r="D199" s="3">
-        <v>0</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4699,7 +4699,7 @@
         <v>125708337152</v>
       </c>
       <c r="D200" s="3">
-        <v>0</v>
+        <v>899</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4713,7 +4713,7 @@
         <v>7427730944</v>
       </c>
       <c r="D201" s="3">
-        <v>0</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4727,7 +4727,7 @@
         <v>44114644992</v>
       </c>
       <c r="D202" s="3">
-        <v>1</v>
+        <v>17862</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4741,7 +4741,7 @@
         <v>72851357696</v>
       </c>
       <c r="D203" s="3">
-        <v>0</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4755,7 +4755,7 @@
         <v>27547740160</v>
       </c>
       <c r="D204" s="3">
-        <v>0</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4769,7 +4769,7 @@
         <v>20780531712</v>
       </c>
       <c r="D205" s="3">
-        <v>0</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4783,7 +4783,7 @@
         <v>20780527616</v>
       </c>
       <c r="D206" s="3">
-        <v>0</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4797,7 +4797,7 @@
         <v>11918684160</v>
       </c>
       <c r="D207" s="3">
-        <v>0</v>
+        <v>8734</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4811,7 +4811,7 @@
         <v>63512309760</v>
       </c>
       <c r="D208" s="3">
-        <v>0</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4825,7 +4825,7 @@
         <v>40824512512</v>
       </c>
       <c r="D209" s="3">
-        <v>0</v>
+        <v>935</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4839,7 +4839,7 @@
         <v>40050442240</v>
       </c>
       <c r="D210" s="3">
-        <v>0</v>
+        <v>383</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4853,7 +4853,7 @@
         <v>197149966336</v>
       </c>
       <c r="D211" s="3">
-        <v>0</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4867,7 +4867,7 @@
         <v>38020972544</v>
       </c>
       <c r="D212" s="3">
-        <v>0</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4881,7 +4881,7 @@
         <v>92434636800</v>
       </c>
       <c r="D213" s="3">
-        <v>0</v>
+        <v>595</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4895,7 +4895,7 @@
         <v>19009925120</v>
       </c>
       <c r="D214" s="3">
-        <v>0</v>
+        <v>6444</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4909,7 +4909,7 @@
         <v>11328284672</v>
       </c>
       <c r="D215" s="3">
-        <v>0</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4923,7 +4923,7 @@
         <v>78093942784</v>
       </c>
       <c r="D216" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4937,7 +4937,7 @@
         <v>36784836608</v>
       </c>
       <c r="D217" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4951,7 +4951,7 @@
         <v>61126762496</v>
       </c>
       <c r="D218" s="3">
-        <v>0</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4965,7 +4965,7 @@
         <v>17639548928</v>
       </c>
       <c r="D219" s="3">
-        <v>0</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4979,7 +4979,7 @@
         <v>115379675136</v>
       </c>
       <c r="D220" s="3">
-        <v>0</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4993,7 +4993,7 @@
         <v>30381549568</v>
       </c>
       <c r="D221" s="3">
-        <v>0</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5007,7 +5007,7 @@
         <v>9376664576</v>
       </c>
       <c r="D222" s="3">
-        <v>0</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5021,7 +5021,7 @@
         <v>27776366592</v>
       </c>
       <c r="D223" s="3">
-        <v>0</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5035,7 +5035,7 @@
         <v>191036227584</v>
       </c>
       <c r="D224" s="3">
-        <v>0</v>
+        <v>326</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5049,7 +5049,7 @@
         <v>28006629376</v>
       </c>
       <c r="D225" s="3">
-        <v>0</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5063,7 +5063,7 @@
         <v>35871125504</v>
       </c>
       <c r="D226" s="3">
-        <v>0</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5077,7 +5077,7 @@
         <v>9088489472</v>
       </c>
       <c r="D227" s="3">
-        <v>0</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5091,7 +5091,7 @@
         <v>82883837952</v>
       </c>
       <c r="D228" s="3">
-        <v>0</v>
+        <v>607</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5105,7 +5105,7 @@
         <v>15555615744</v>
       </c>
       <c r="D229" s="3">
-        <v>0</v>
+        <v>9040</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5119,7 +5119,7 @@
         <v>9682719744</v>
       </c>
       <c r="D230" s="3">
-        <v>0</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5133,7 +5133,7 @@
         <v>35227938816</v>
       </c>
       <c r="D231" s="3">
-        <v>0</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5147,7 +5147,7 @@
         <v>45348806656</v>
       </c>
       <c r="D232" s="3">
-        <v>0</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5161,7 +5161,7 @@
         <v>27557775360</v>
       </c>
       <c r="D233" s="3">
-        <v>0</v>
+        <v>9368</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5175,7 +5175,7 @@
         <v>61783605248</v>
       </c>
       <c r="D234" s="3">
-        <v>0</v>
+        <v>784</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5189,7 +5189,7 @@
         <v>18041808896</v>
       </c>
       <c r="D235" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5203,7 +5203,7 @@
         <v>426281861120</v>
       </c>
       <c r="D236" s="3">
-        <v>0</v>
+        <v>463</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5217,7 +5217,7 @@
         <v>151462019072</v>
       </c>
       <c r="D237" s="3">
-        <v>0</v>
+        <v>853</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5231,7 +5231,7 @@
         <v>17783445504</v>
       </c>
       <c r="D238" s="3">
-        <v>0</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5245,7 +5245,7 @@
         <v>13058195456</v>
       </c>
       <c r="D239" s="3">
-        <v>1</v>
+        <v>10793</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5259,7 +5259,7 @@
         <v>48093175808</v>
       </c>
       <c r="D240" s="3">
-        <v>0</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5273,7 +5273,7 @@
         <v>34133544960</v>
       </c>
       <c r="D241" s="3">
-        <v>0</v>
+        <v>5611</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5287,7 +5287,7 @@
         <v>24693260288</v>
       </c>
       <c r="D242" s="3">
-        <v>0</v>
+        <v>432</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5301,7 +5301,7 @@
         <v>35723571200</v>
       </c>
       <c r="D243" s="3">
-        <v>0</v>
+        <v>670</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5315,7 +5315,7 @@
         <v>26165108736</v>
       </c>
       <c r="D244" s="3">
-        <v>1</v>
+        <v>11038</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5329,7 +5329,7 @@
         <v>7801214464</v>
       </c>
       <c r="D245" s="3">
-        <v>0</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5343,7 +5343,7 @@
         <v>210273517568</v>
       </c>
       <c r="D246" s="3">
-        <v>0</v>
+        <v>874</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5357,7 +5357,7 @@
         <v>17499652096</v>
       </c>
       <c r="D247" s="3">
-        <v>0</v>
+        <v>862</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5371,7 +5371,7 @@
         <v>34535673856</v>
       </c>
       <c r="D248" s="3">
-        <v>0</v>
+        <v>471</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5385,7 +5385,7 @@
         <v>81951653888</v>
       </c>
       <c r="D249" s="3">
-        <v>0</v>
+        <v>716</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5399,7 +5399,7 @@
         <v>14535428096</v>
       </c>
       <c r="D250" s="3">
-        <v>0</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5413,7 +5413,7 @@
         <v>41981759488</v>
       </c>
       <c r="D251" s="3">
-        <v>0</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5427,7 +5427,7 @@
         <v>18723047424</v>
       </c>
       <c r="D252" s="3">
-        <v>0</v>
+        <v>745</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5441,7 +5441,7 @@
         <v>103727644672</v>
       </c>
       <c r="D253" s="3">
-        <v>0</v>
+        <v>8266</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5455,7 +5455,7 @@
         <v>92551520256</v>
       </c>
       <c r="D254" s="3">
-        <v>0</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5469,7 +5469,7 @@
         <v>23359107072</v>
       </c>
       <c r="D255" s="3">
-        <v>0</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5483,7 +5483,7 @@
         <v>20438013952</v>
       </c>
       <c r="D256" s="3">
-        <v>0</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5497,7 +5497,7 @@
         <v>11477002240</v>
       </c>
       <c r="D257" s="3">
-        <v>0</v>
+        <v>6452</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5511,7 +5511,7 @@
         <v>179631128576</v>
       </c>
       <c r="D258" s="3">
-        <v>0</v>
+        <v>309</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5525,7 +5525,7 @@
         <v>193049018368</v>
       </c>
       <c r="D259" s="3">
-        <v>0</v>
+        <v>366</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5539,7 +5539,7 @@
         <v>8130369536</v>
       </c>
       <c r="D260" s="3">
-        <v>1</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5553,7 +5553,7 @@
         <v>21202290688</v>
       </c>
       <c r="D261" s="3">
-        <v>0</v>
+        <v>5804</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5567,7 +5567,7 @@
         <v>36559507456</v>
       </c>
       <c r="D262" s="3">
-        <v>0</v>
+        <v>989</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5581,7 +5581,7 @@
         <v>36459524096</v>
       </c>
       <c r="D263" s="3">
-        <v>0</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5595,7 +5595,7 @@
         <v>19188992000</v>
       </c>
       <c r="D264" s="3">
-        <v>0</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5609,7 +5609,7 @@
         <v>15327464448</v>
       </c>
       <c r="D265" s="3">
-        <v>0</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5623,7 +5623,7 @@
         <v>12853967872</v>
       </c>
       <c r="D266" s="3">
-        <v>0</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5637,7 +5637,7 @@
         <v>17507858432</v>
       </c>
       <c r="D267" s="3">
-        <v>0</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5651,7 +5651,7 @@
         <v>374144532480</v>
       </c>
       <c r="D268" s="3">
-        <v>0</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5665,7 +5665,7 @@
         <v>55530835968</v>
       </c>
       <c r="D269" s="3">
-        <v>0</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5679,7 +5679,7 @@
         <v>703244009472</v>
       </c>
       <c r="D270" s="3">
-        <v>0</v>
+        <v>796</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5693,7 +5693,7 @@
         <v>11892715520</v>
       </c>
       <c r="D271" s="3">
-        <v>0</v>
+        <v>5534</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5707,7 +5707,7 @@
         <v>28020498432</v>
       </c>
       <c r="D272" s="3">
-        <v>0</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5721,7 +5721,7 @@
         <v>46263459840</v>
       </c>
       <c r="D273" s="3">
-        <v>0</v>
+        <v>8256</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5735,7 +5735,7 @@
         <v>44288094208</v>
       </c>
       <c r="D274" s="3">
-        <v>0</v>
+        <v>6089</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5749,7 +5749,7 @@
         <v>19349833728</v>
       </c>
       <c r="D275" s="3">
-        <v>1</v>
+        <v>10205</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5763,7 +5763,7 @@
         <v>29485787136</v>
       </c>
       <c r="D276" s="3">
-        <v>0</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5777,7 +5777,7 @@
         <v>46471135232</v>
       </c>
       <c r="D277" s="3">
-        <v>0</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5791,7 +5791,7 @@
         <v>17377806336</v>
       </c>
       <c r="D278" s="3">
-        <v>0</v>
+        <v>7775</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5805,7 +5805,7 @@
         <v>62805762048</v>
       </c>
       <c r="D279" s="3">
-        <v>0</v>
+        <v>7032</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5819,7 +5819,7 @@
         <v>147675201536</v>
       </c>
       <c r="D280" s="3">
-        <v>0</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5833,7 +5833,7 @@
         <v>86546735104</v>
       </c>
       <c r="D281" s="3">
-        <v>0</v>
+        <v>307</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5847,7 +5847,7 @@
         <v>38657167360</v>
       </c>
       <c r="D282" s="3">
-        <v>0</v>
+        <v>6218</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5861,7 +5861,7 @@
         <v>44190527488</v>
       </c>
       <c r="D283" s="3">
-        <v>0</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5875,7 +5875,7 @@
         <v>46705745920</v>
       </c>
       <c r="D284" s="3">
-        <v>0</v>
+        <v>807</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5889,7 +5889,7 @@
         <v>20253243392</v>
       </c>
       <c r="D285" s="3">
-        <v>0</v>
+        <v>824</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5903,7 +5903,7 @@
         <v>95060656128</v>
       </c>
       <c r="D286" s="3">
-        <v>0</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5917,7 +5917,7 @@
         <v>11014268928</v>
       </c>
       <c r="D287" s="3">
-        <v>0</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5931,7 +5931,7 @@
         <v>38469877760</v>
       </c>
       <c r="D288" s="3">
-        <v>0</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5945,7 +5945,7 @@
         <v>22069817344</v>
       </c>
       <c r="D289" s="3">
-        <v>0</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5959,7 +5959,7 @@
         <v>46908121088</v>
       </c>
       <c r="D290" s="3">
-        <v>0</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5973,7 +5973,7 @@
         <v>715270914048</v>
       </c>
       <c r="D291" s="3">
-        <v>0</v>
+        <v>249</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5987,7 +5987,7 @@
         <v>219504082944</v>
       </c>
       <c r="D292" s="3">
-        <v>0</v>
+        <v>431</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6001,7 +6001,7 @@
         <v>32221650944</v>
       </c>
       <c r="D293" s="3">
-        <v>0</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6015,7 +6015,7 @@
         <v>10213828608</v>
       </c>
       <c r="D294" s="3">
-        <v>0</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6029,7 +6029,7 @@
         <v>125488693248</v>
       </c>
       <c r="D295" s="3">
-        <v>0</v>
+        <v>375</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6043,7 +6043,7 @@
         <v>18853021696</v>
       </c>
       <c r="D296" s="3">
-        <v>0</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6057,7 +6057,7 @@
         <v>154256687104</v>
       </c>
       <c r="D297" s="3">
-        <v>0</v>
+        <v>729</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6071,7 +6071,7 @@
         <v>39229546496</v>
       </c>
       <c r="D298" s="3">
-        <v>0</v>
+        <v>619</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6085,7 +6085,7 @@
         <v>27065245696</v>
       </c>
       <c r="D299" s="3">
-        <v>0</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6099,7 +6099,7 @@
         <v>36635373568</v>
       </c>
       <c r="D300" s="3">
-        <v>0</v>
+        <v>903</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6113,7 +6113,7 @@
         <v>50184888320</v>
       </c>
       <c r="D301" s="3">
-        <v>0</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6127,7 +6127,7 @@
         <v>9867600896</v>
       </c>
       <c r="D302" s="3">
-        <v>0</v>
+        <v>768</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6141,7 +6141,7 @@
         <v>80336084992</v>
       </c>
       <c r="D303" s="3">
-        <v>0</v>
+        <v>687</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6155,7 +6155,7 @@
         <v>114549284864</v>
       </c>
       <c r="D304" s="3">
-        <v>0</v>
+        <v>852</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6169,7 +6169,7 @@
         <v>36670861312</v>
       </c>
       <c r="D305" s="3">
-        <v>0</v>
+        <v>331</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6183,7 +6183,7 @@
         <v>17380739072</v>
       </c>
       <c r="D306" s="3">
-        <v>0</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6197,7 +6197,7 @@
         <v>488635105280</v>
       </c>
       <c r="D307" s="3">
-        <v>0</v>
+        <v>373</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6211,7 +6211,7 @@
         <v>8220720128</v>
       </c>
       <c r="D308" s="3">
-        <v>0</v>
+        <v>6072</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6225,7 +6225,7 @@
         <v>20867567616</v>
       </c>
       <c r="D309" s="3">
-        <v>0</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6239,7 +6239,7 @@
         <v>212126695424</v>
       </c>
       <c r="D310" s="3">
-        <v>0</v>
+        <v>671</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6253,7 +6253,7 @@
         <v>79781789696</v>
       </c>
       <c r="D311" s="3">
-        <v>0</v>
+        <v>316</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6267,7 +6267,7 @@
         <v>110969380864</v>
       </c>
       <c r="D312" s="3">
-        <v>0</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6281,7 +6281,7 @@
         <v>260856004608</v>
       </c>
       <c r="D313" s="3">
-        <v>0</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6295,7 +6295,7 @@
         <v>1436937093120</v>
       </c>
       <c r="D314" s="3">
-        <v>0</v>
+        <v>346</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6309,7 +6309,7 @@
         <v>61106073600</v>
       </c>
       <c r="D315" s="3">
-        <v>0</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6323,7 +6323,7 @@
         <v>26403696640</v>
       </c>
       <c r="D316" s="3">
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6337,7 +6337,7 @@
         <v>11415351296</v>
       </c>
       <c r="D317" s="3">
-        <v>0</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6351,7 +6351,7 @@
         <v>36607971328</v>
       </c>
       <c r="D318" s="3">
-        <v>0</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6365,7 +6365,7 @@
         <v>109399367680</v>
       </c>
       <c r="D319" s="3">
-        <v>0</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6379,7 +6379,7 @@
         <v>3148374343680</v>
       </c>
       <c r="D320" s="3">
-        <v>0</v>
+        <v>469</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6393,7 +6393,7 @@
         <v>19816738816</v>
       </c>
       <c r="D321" s="3">
-        <v>0</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6407,7 +6407,7 @@
         <v>16697247744</v>
       </c>
       <c r="D322" s="3">
-        <v>0</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6421,7 +6421,7 @@
         <v>8763129856</v>
       </c>
       <c r="D323" s="3">
-        <v>0</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6435,7 +6435,7 @@
         <v>17039879168</v>
       </c>
       <c r="D324" s="3">
-        <v>0</v>
+        <v>667</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6449,7 +6449,7 @@
         <v>12615121920</v>
       </c>
       <c r="D325" s="3">
-        <v>0</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6463,7 +6463,7 @@
         <v>86997917696</v>
       </c>
       <c r="D326" s="3">
-        <v>0</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6477,7 +6477,7 @@
         <v>27689480192</v>
       </c>
       <c r="D327" s="3">
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6491,7 +6491,7 @@
         <v>53624729600</v>
       </c>
       <c r="D328" s="3">
-        <v>0</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6505,7 +6505,7 @@
         <v>90774863872</v>
       </c>
       <c r="D329" s="3">
-        <v>0</v>
+        <v>397</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6519,7 +6519,7 @@
         <v>212028981248</v>
       </c>
       <c r="D330" s="3">
-        <v>0</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6533,7 +6533,7 @@
         <v>8404886016</v>
       </c>
       <c r="D331" s="3">
-        <v>0</v>
+        <v>7513</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6547,7 +6547,7 @@
         <v>83670769664</v>
       </c>
       <c r="D332" s="3">
-        <v>0</v>
+        <v>397</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6561,7 +6561,7 @@
         <v>47777492992</v>
       </c>
       <c r="D333" s="3">
-        <v>0</v>
+        <v>326</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6575,7 +6575,7 @@
         <v>47733604352</v>
       </c>
       <c r="D334" s="3">
-        <v>0</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6589,7 +6589,7 @@
         <v>24933447680</v>
       </c>
       <c r="D335" s="3">
-        <v>0</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6603,7 +6603,7 @@
         <v>379074019328</v>
       </c>
       <c r="D336" s="3">
-        <v>0</v>
+        <v>224</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6617,7 +6617,7 @@
         <v>47860244480</v>
       </c>
       <c r="D337" s="3">
-        <v>0</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6631,7 +6631,7 @@
         <v>17017422848</v>
       </c>
       <c r="D338" s="3">
-        <v>0</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6645,7 +6645,7 @@
         <v>17017423872</v>
       </c>
       <c r="D339" s="3">
-        <v>0</v>
+        <v>6195</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6659,7 +6659,7 @@
         <v>161776992256</v>
       </c>
       <c r="D340" s="3">
-        <v>0</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6673,7 +6673,7 @@
         <v>116608745472</v>
       </c>
       <c r="D341" s="3">
-        <v>0</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6687,7 +6687,7 @@
         <v>17779611648</v>
       </c>
       <c r="D342" s="3">
-        <v>0</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6701,7 +6701,7 @@
         <v>14923799552</v>
       </c>
       <c r="D343" s="3">
-        <v>0</v>
+        <v>761</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6715,7 +6715,7 @@
         <v>62408306688</v>
       </c>
       <c r="D344" s="3">
-        <v>0</v>
+        <v>720</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6729,7 +6729,7 @@
         <v>22033913856</v>
       </c>
       <c r="D345" s="3">
-        <v>0</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6743,7 +6743,7 @@
         <v>71339556864</v>
       </c>
       <c r="D346" s="3">
-        <v>0</v>
+        <v>406</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6757,7 +6757,7 @@
         <v>11836951552</v>
       </c>
       <c r="D347" s="3">
-        <v>0</v>
+        <v>7393</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6771,7 +6771,7 @@
         <v>20582731776</v>
       </c>
       <c r="D348" s="3">
-        <v>0</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6785,7 +6785,7 @@
         <v>36341940224</v>
       </c>
       <c r="D349" s="3">
-        <v>0</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6799,7 +6799,7 @@
         <v>3385742589952</v>
       </c>
       <c r="D350" s="3">
-        <v>0</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6813,7 +6813,7 @@
         <v>28296708096</v>
       </c>
       <c r="D351" s="3">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6827,7 +6827,7 @@
         <v>58295758848</v>
       </c>
       <c r="D352" s="3">
-        <v>0</v>
+        <v>866</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6841,7 +6841,7 @@
         <v>71771955200</v>
       </c>
       <c r="D353" s="3">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6855,7 +6855,7 @@
         <v>47461388288</v>
       </c>
       <c r="D354" s="3">
-        <v>0</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6869,7 +6869,7 @@
         <v>48066940928</v>
       </c>
       <c r="D355" s="3">
-        <v>0</v>
+        <v>883</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6883,7 +6883,7 @@
         <v>20449646592</v>
       </c>
       <c r="D356" s="3">
-        <v>0</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6897,7 +6897,7 @@
         <v>30282682368</v>
       </c>
       <c r="D357" s="3">
-        <v>0</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6911,7 +6911,7 @@
         <v>66370912256</v>
       </c>
       <c r="D358" s="3">
-        <v>0</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6925,7 +6925,7 @@
         <v>512202702848</v>
       </c>
       <c r="D359" s="3">
-        <v>0</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6939,7 +6939,7 @@
         <v>41136492544</v>
       </c>
       <c r="D360" s="3">
-        <v>0</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6953,7 +6953,7 @@
         <v>61343215616</v>
       </c>
       <c r="D361" s="3">
-        <v>0</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6967,7 +6967,7 @@
         <v>22347948032</v>
       </c>
       <c r="D362" s="3">
-        <v>0</v>
+        <v>798</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6981,7 +6981,7 @@
         <v>150463119360</v>
       </c>
       <c r="D363" s="3">
-        <v>0</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6995,7 +6995,7 @@
         <v>127243747328</v>
       </c>
       <c r="D364" s="3">
-        <v>0</v>
+        <v>512</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7009,7 +7009,7 @@
         <v>7678675456</v>
       </c>
       <c r="D365" s="3">
-        <v>1</v>
+        <v>18323</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7023,7 +7023,7 @@
         <v>90477289472</v>
       </c>
       <c r="D366" s="3">
-        <v>0</v>
+        <v>282</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7037,7 +7037,7 @@
         <v>52642279424</v>
       </c>
       <c r="D367" s="3">
-        <v>0</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7051,7 +7051,7 @@
         <v>13372971008</v>
       </c>
       <c r="D368" s="3">
-        <v>0</v>
+        <v>857</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7065,7 +7065,7 @@
         <v>86990397440</v>
       </c>
       <c r="D369" s="3">
-        <v>0</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7079,7 +7079,7 @@
         <v>18008526848</v>
       </c>
       <c r="D370" s="3">
-        <v>0</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7093,7 +7093,7 @@
         <v>224251756544</v>
       </c>
       <c r="D371" s="3">
-        <v>0</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7107,7 +7107,7 @@
         <v>148531806208</v>
       </c>
       <c r="D372" s="3">
-        <v>0</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7121,7 +7121,7 @@
         <v>56568721408</v>
       </c>
       <c r="D373" s="3">
-        <v>0</v>
+        <v>9191</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7135,7 +7135,7 @@
         <v>206885666816</v>
       </c>
       <c r="D374" s="3">
-        <v>0</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7149,7 +7149,7 @@
         <v>55332261888</v>
       </c>
       <c r="D375" s="3">
-        <v>0</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7163,7 +7163,7 @@
         <v>10746920960</v>
       </c>
       <c r="D376" s="3">
-        <v>0</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7177,7 +7177,7 @@
         <v>85308473344</v>
       </c>
       <c r="D377" s="3">
-        <v>0</v>
+        <v>925</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7191,7 +7191,7 @@
         <v>14350348288</v>
       </c>
       <c r="D378" s="3">
-        <v>0</v>
+        <v>527</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7205,7 +7205,7 @@
         <v>28853839872</v>
       </c>
       <c r="D379" s="3">
-        <v>0</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7219,7 +7219,7 @@
         <v>25828954112</v>
       </c>
       <c r="D380" s="3">
-        <v>0</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7233,7 +7233,7 @@
         <v>19963203584</v>
       </c>
       <c r="D381" s="3">
-        <v>0</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7247,7 +7247,7 @@
         <v>422401081344</v>
       </c>
       <c r="D382" s="3">
-        <v>0</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7261,7 +7261,7 @@
         <v>157513121792</v>
       </c>
       <c r="D383" s="3">
-        <v>0</v>
+        <v>739</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7275,7 +7275,7 @@
         <v>108158713856</v>
       </c>
       <c r="D384" s="3">
-        <v>0</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7289,7 +7289,7 @@
         <v>46100111360</v>
       </c>
       <c r="D385" s="3">
-        <v>0</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7303,7 +7303,7 @@
         <v>46982619136</v>
       </c>
       <c r="D386" s="3">
-        <v>0</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7317,7 +7317,7 @@
         <v>24033007616</v>
       </c>
       <c r="D387" s="3">
-        <v>0</v>
+        <v>993</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7331,7 +7331,7 @@
         <v>61526188032</v>
       </c>
       <c r="D388" s="3">
-        <v>0</v>
+        <v>571</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7345,7 +7345,7 @@
         <v>27999809536</v>
       </c>
       <c r="D389" s="3">
-        <v>0</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7359,7 +7359,7 @@
         <v>6527069184</v>
       </c>
       <c r="D390" s="3">
-        <v>0</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7373,7 +7373,7 @@
         <v>50855284736</v>
       </c>
       <c r="D391" s="3">
-        <v>0</v>
+        <v>577</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7387,7 +7387,7 @@
         <v>176126836736</v>
       </c>
       <c r="D392" s="3">
-        <v>0</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7401,7 +7401,7 @@
         <v>18228981760</v>
       </c>
       <c r="D393" s="3">
-        <v>0</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7415,7 +7415,7 @@
         <v>13827445760</v>
       </c>
       <c r="D394" s="3">
-        <v>0</v>
+        <v>859</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7429,7 +7429,7 @@
         <v>34707984384</v>
       </c>
       <c r="D395" s="3">
-        <v>0</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7443,7 +7443,7 @@
         <v>162158166016</v>
       </c>
       <c r="D396" s="3">
-        <v>0</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7457,7 +7457,7 @@
         <v>51042308096</v>
       </c>
       <c r="D397" s="3">
-        <v>0</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7471,7 +7471,7 @@
         <v>13861316608</v>
       </c>
       <c r="D398" s="3">
-        <v>0</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7485,7 +7485,7 @@
         <v>82952568832</v>
       </c>
       <c r="D399" s="3">
-        <v>0</v>
+        <v>264</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7499,7 +7499,7 @@
         <v>24775632896</v>
       </c>
       <c r="D400" s="3">
-        <v>0</v>
+        <v>7292</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7513,7 +7513,7 @@
         <v>68361080832</v>
       </c>
       <c r="D401" s="3">
-        <v>0</v>
+        <v>910</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7527,7 +7527,7 @@
         <v>36600463360</v>
       </c>
       <c r="D402" s="3">
-        <v>0</v>
+        <v>798</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7541,7 +7541,7 @@
         <v>14145387520</v>
       </c>
       <c r="D403" s="3">
-        <v>0</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7555,7 +7555,7 @@
         <v>33320421376</v>
       </c>
       <c r="D404" s="3">
-        <v>0</v>
+        <v>673</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7569,7 +7569,7 @@
         <v>24777056256</v>
       </c>
       <c r="D405" s="3">
-        <v>0</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7583,7 +7583,7 @@
         <v>60738793472</v>
       </c>
       <c r="D406" s="3">
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7597,7 +7597,7 @@
         <v>51379978240</v>
       </c>
       <c r="D407" s="3">
-        <v>0</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7611,7 +7611,7 @@
         <v>65621635072</v>
       </c>
       <c r="D408" s="3">
-        <v>0</v>
+        <v>814</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7625,7 +7625,7 @@
         <v>162243543040</v>
       </c>
       <c r="D409" s="3">
-        <v>0</v>
+        <v>380</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7639,7 +7639,7 @@
         <v>315489550336</v>
       </c>
       <c r="D410" s="3">
-        <v>0</v>
+        <v>602</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7653,7 +7653,7 @@
         <v>24570071040</v>
       </c>
       <c r="D411" s="3">
-        <v>0</v>
+        <v>878</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7667,7 +7667,7 @@
         <v>62049869824</v>
       </c>
       <c r="D412" s="3">
-        <v>0</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7681,7 +7681,7 @@
         <v>21434335232</v>
       </c>
       <c r="D413" s="3">
-        <v>0</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7695,7 +7695,7 @@
         <v>59716870144</v>
       </c>
       <c r="D414" s="3">
-        <v>0</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7709,7 +7709,7 @@
         <v>216517296128</v>
       </c>
       <c r="D415" s="3">
-        <v>0</v>
+        <v>189</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7723,7 +7723,7 @@
         <v>100086374400</v>
       </c>
       <c r="D416" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7737,7 +7737,7 @@
         <v>68993212416</v>
       </c>
       <c r="D417" s="3">
-        <v>0</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7751,7 +7751,7 @@
         <v>14007479296</v>
       </c>
       <c r="D418" s="3">
-        <v>0</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7765,7 +7765,7 @@
         <v>12557120512</v>
       </c>
       <c r="D419" s="3">
-        <v>0</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7779,7 +7779,7 @@
         <v>28618983424</v>
       </c>
       <c r="D420" s="3">
-        <v>0</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7793,7 +7793,7 @@
         <v>19411460096</v>
       </c>
       <c r="D421" s="3">
-        <v>0</v>
+        <v>537</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7807,7 +7807,7 @@
         <v>12521472000</v>
       </c>
       <c r="D422" s="3">
-        <v>0</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7821,7 +7821,7 @@
         <v>98326429696</v>
       </c>
       <c r="D423" s="3">
-        <v>0</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7835,7 +7835,7 @@
         <v>19407491072</v>
       </c>
       <c r="D424" s="3">
-        <v>0</v>
+        <v>6143</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7849,7 +7849,7 @@
         <v>13839256576</v>
       </c>
       <c r="D425" s="3">
-        <v>0</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7863,7 +7863,7 @@
         <v>116169138176</v>
       </c>
       <c r="D426" s="3">
-        <v>0</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7877,7 +7877,7 @@
         <v>28960364544</v>
       </c>
       <c r="D427" s="3">
-        <v>0</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7891,7 +7891,7 @@
         <v>22116630528</v>
       </c>
       <c r="D428" s="3">
-        <v>0</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7905,7 +7905,7 @@
         <v>21622820864</v>
       </c>
       <c r="D429" s="3">
-        <v>0</v>
+        <v>907</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7919,7 +7919,7 @@
         <v>149493858304</v>
       </c>
       <c r="D430" s="3">
-        <v>0</v>
+        <v>506</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7933,7 +7933,7 @@
         <v>20535781376</v>
       </c>
       <c r="D431" s="3">
-        <v>0</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7947,7 +7947,7 @@
         <v>26288504832</v>
       </c>
       <c r="D432" s="3">
-        <v>0</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7961,7 +7961,7 @@
         <v>85791883264</v>
       </c>
       <c r="D433" s="3">
-        <v>0</v>
+        <v>355</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7975,7 +7975,7 @@
         <v>37878435840</v>
       </c>
       <c r="D434" s="3">
-        <v>0</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7989,7 +7989,7 @@
         <v>286571397120</v>
       </c>
       <c r="D435" s="3">
-        <v>0</v>
+        <v>805</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8003,7 +8003,7 @@
         <v>27583377408</v>
       </c>
       <c r="D436" s="3">
-        <v>0</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8017,7 +8017,7 @@
         <v>33084616704</v>
       </c>
       <c r="D437" s="3">
-        <v>0</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8031,7 +8031,7 @@
         <v>14513481728</v>
       </c>
       <c r="D438" s="3">
-        <v>0</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8045,7 +8045,7 @@
         <v>44550275072</v>
       </c>
       <c r="D439" s="3">
-        <v>0</v>
+        <v>973</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8059,7 +8059,7 @@
         <v>60626030592</v>
       </c>
       <c r="D440" s="3">
-        <v>0</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8073,7 +8073,7 @@
         <v>45218430976</v>
       </c>
       <c r="D441" s="3">
-        <v>0</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8087,7 +8087,7 @@
         <v>22633836544</v>
       </c>
       <c r="D442" s="3">
-        <v>0</v>
+        <v>409</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8101,7 +8101,7 @@
         <v>8956667904</v>
       </c>
       <c r="D443" s="3">
-        <v>0</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8115,7 +8115,7 @@
         <v>17914710016</v>
       </c>
       <c r="D444" s="3">
-        <v>0</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8129,7 +8129,7 @@
         <v>1107984384000</v>
       </c>
       <c r="D445" s="3">
-        <v>0</v>
+        <v>575</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8143,7 +8143,7 @@
         <v>183382982656</v>
       </c>
       <c r="D446" s="3">
-        <v>0</v>
+        <v>988</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8157,7 +8157,7 @@
         <v>37602754560</v>
       </c>
       <c r="D447" s="3">
-        <v>0</v>
+        <v>124</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8171,7 +8171,7 @@
         <v>15885391872</v>
       </c>
       <c r="D448" s="3">
-        <v>0</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8185,7 +8185,7 @@
         <v>202583474176</v>
       </c>
       <c r="D449" s="3">
-        <v>0</v>
+        <v>375</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8199,7 +8199,7 @@
         <v>142518648832</v>
       </c>
       <c r="D450" s="3">
-        <v>0</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8213,7 +8213,7 @@
         <v>30307020800</v>
       </c>
       <c r="D451" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8227,7 +8227,7 @@
         <v>93659488256</v>
       </c>
       <c r="D452" s="3">
-        <v>0</v>
+        <v>477</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8241,7 +8241,7 @@
         <v>70455001088</v>
       </c>
       <c r="D453" s="3">
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8255,7 +8255,7 @@
         <v>60536872960</v>
       </c>
       <c r="D454" s="3">
-        <v>0</v>
+        <v>747</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8269,7 +8269,7 @@
         <v>17819858944</v>
       </c>
       <c r="D455" s="3">
-        <v>0</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8283,7 +8283,7 @@
         <v>63389126656</v>
       </c>
       <c r="D456" s="3">
-        <v>0</v>
+        <v>4169</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8297,7 +8297,7 @@
         <v>26981955584</v>
       </c>
       <c r="D457" s="3">
-        <v>0</v>
+        <v>315</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8311,7 +8311,7 @@
         <v>22935490560</v>
       </c>
       <c r="D458" s="3">
-        <v>0</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8325,7 +8325,7 @@
         <v>83430293504</v>
       </c>
       <c r="D459" s="3">
-        <v>0</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8339,7 +8339,7 @@
         <v>151526883328</v>
       </c>
       <c r="D460" s="3">
-        <v>0</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8353,7 +8353,7 @@
         <v>17404329984</v>
       </c>
       <c r="D461" s="3">
-        <v>0</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8367,7 +8367,7 @@
         <v>18216427520</v>
       </c>
       <c r="D462" s="3">
-        <v>0</v>
+        <v>514</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8381,7 +8381,7 @@
         <v>148672299008</v>
       </c>
       <c r="D463" s="3">
-        <v>0</v>
+        <v>812</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8395,7 +8395,7 @@
         <v>31845064704</v>
       </c>
       <c r="D464" s="3">
-        <v>0</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8409,7 +8409,7 @@
         <v>115785179136</v>
       </c>
       <c r="D465" s="3">
-        <v>0</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8423,7 +8423,7 @@
         <v>56828997632</v>
       </c>
       <c r="D466" s="3">
-        <v>0</v>
+        <v>229</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8437,7 +8437,7 @@
         <v>561557340160</v>
       </c>
       <c r="D467" s="3">
-        <v>0</v>
+        <v>325</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8451,7 +8451,7 @@
         <v>13522948096</v>
       </c>
       <c r="D468" s="3">
-        <v>0</v>
+        <v>969</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8465,7 +8465,7 @@
         <v>44030640128</v>
       </c>
       <c r="D469" s="3">
-        <v>0</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8479,7 +8479,7 @@
         <v>27075213312</v>
       </c>
       <c r="D470" s="3">
-        <v>0</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8493,7 +8493,7 @@
         <v>26756253696</v>
       </c>
       <c r="D471" s="3">
-        <v>0</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8507,7 +8507,7 @@
         <v>18415648768</v>
       </c>
       <c r="D472" s="3">
-        <v>0</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8521,7 +8521,7 @@
         <v>41595117568</v>
       </c>
       <c r="D473" s="3">
-        <v>0</v>
+        <v>675</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8535,7 +8535,7 @@
         <v>186823049216</v>
       </c>
       <c r="D474" s="3">
-        <v>0</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8549,7 +8549,7 @@
         <v>120557051904</v>
       </c>
       <c r="D475" s="3">
-        <v>0</v>
+        <v>424</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8563,7 +8563,7 @@
         <v>15779340288</v>
       </c>
       <c r="D476" s="3">
-        <v>1</v>
+        <v>15187</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8577,7 +8577,7 @@
         <v>34376482816</v>
       </c>
       <c r="D477" s="3">
-        <v>0</v>
+        <v>6096</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8591,7 +8591,7 @@
         <v>608999178240</v>
       </c>
       <c r="D478" s="3">
-        <v>0</v>
+        <v>630</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8605,7 +8605,7 @@
         <v>54381719552</v>
       </c>
       <c r="D479" s="3">
-        <v>0</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8619,7 +8619,7 @@
         <v>38050738176</v>
       </c>
       <c r="D480" s="3">
-        <v>0</v>
+        <v>689</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8633,7 +8633,7 @@
         <v>24746600448</v>
       </c>
       <c r="D481" s="3">
-        <v>0</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8647,7 +8647,7 @@
         <v>58726092800</v>
       </c>
       <c r="D482" s="3">
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8661,7 +8661,7 @@
         <v>34484572160</v>
       </c>
       <c r="D483" s="3">
-        <v>0</v>
+        <v>990</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8675,7 +8675,7 @@
         <v>7833428480</v>
       </c>
       <c r="D484" s="3">
-        <v>2</v>
+        <v>22040</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8689,7 +8689,7 @@
         <v>743538098176</v>
       </c>
       <c r="D485" s="3">
-        <v>0</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8703,7 +8703,7 @@
         <v>212966064128</v>
       </c>
       <c r="D486" s="3">
-        <v>0</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8717,7 +8717,7 @@
         <v>25709219840</v>
       </c>
       <c r="D487" s="3">
-        <v>1</v>
+        <v>18970</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8731,7 +8731,7 @@
         <v>91696054272</v>
       </c>
       <c r="D488" s="3">
-        <v>0</v>
+        <v>871</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8745,7 +8745,7 @@
         <v>22953050112</v>
       </c>
       <c r="D489" s="3">
-        <v>0</v>
+        <v>516</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8759,7 +8759,7 @@
         <v>32211204096</v>
       </c>
       <c r="D490" s="3">
-        <v>0</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8773,7 +8773,7 @@
         <v>257069924352</v>
       </c>
       <c r="D491" s="3">
-        <v>0</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8787,7 +8787,7 @@
         <v>86740697088</v>
       </c>
       <c r="D492" s="3">
-        <v>0</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -8801,7 +8801,7 @@
         <v>23586527232</v>
       </c>
       <c r="D493" s="3">
-        <v>0</v>
+        <v>610</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8815,7 +8815,7 @@
         <v>25233225728</v>
       </c>
       <c r="D494" s="3">
-        <v>0</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8829,7 +8829,7 @@
         <v>23504926720</v>
       </c>
       <c r="D495" s="3">
-        <v>0</v>
+        <v>6162</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8843,7 +8843,7 @@
         <v>71336468480</v>
       </c>
       <c r="D496" s="3">
-        <v>0</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8857,7 +8857,7 @@
         <v>32433451008</v>
       </c>
       <c r="D497" s="3">
-        <v>0</v>
+        <v>617</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8871,7 +8871,7 @@
         <v>10364339200</v>
       </c>
       <c r="D498" s="3">
-        <v>0</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8885,7 +8885,7 @@
         <v>41873723392</v>
       </c>
       <c r="D499" s="3">
-        <v>0</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8899,7 +8899,7 @@
         <v>30793277440</v>
       </c>
       <c r="D500" s="3">
-        <v>0</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8913,7 +8913,7 @@
         <v>38883053568</v>
       </c>
       <c r="D501" s="3">
-        <v>0</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8927,7 +8927,7 @@
         <v>20993060864</v>
       </c>
       <c r="D502" s="3">
-        <v>0</v>
+        <v>488</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8941,7 +8941,7 @@
         <v>22316195840</v>
       </c>
       <c r="D503" s="3">
-        <v>0</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8955,7 +8955,7 @@
         <v>79738920960</v>
       </c>
       <c r="D504" s="3">
-        <v>0</v>
+        <v>1134</v>
       </c>
     </row>
   </sheetData>

--- a/recommended_trades.xlsx
+++ b/recommended_trades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="507">
   <si>
     <t>Stock</t>
   </si>
@@ -208,7 +208,7 @@
     <t>BDX</t>
   </si>
   <si>
-    <t>BRK.B</t>
+    <t>BRK-B</t>
   </si>
   <si>
     <t>BBY</t>
@@ -253,7 +253,7 @@
     <t>BRO</t>
   </si>
   <si>
-    <t>BF.B</t>
+    <t>BF-B</t>
   </si>
   <si>
     <t>BLDR</t>
@@ -1535,9 +1535,6 @@
   </si>
   <si>
     <t>ZTS</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1554,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1572,7 +1569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0A0A23"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1933,13 +1930,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>133.53</v>
+        <v>132.89</v>
       </c>
       <c r="C2" s="2">
-        <v>72714960896</v>
+        <v>72366440448</v>
       </c>
       <c r="D2" s="3">
-        <v>1488</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1947,13 +1944,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>74.48999999999999</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="C3" s="2">
-        <v>10744139776</v>
+        <v>10823877632</v>
       </c>
       <c r="D3" s="3">
-        <v>2668</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1961,13 +1958,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>118.77</v>
+        <v>116.81</v>
       </c>
       <c r="C4" s="2">
-        <v>206312996864</v>
+        <v>202602266624</v>
       </c>
       <c r="D4" s="3">
-        <v>1673</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1975,13 +1972,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>182.93</v>
+        <v>181.77</v>
       </c>
       <c r="C5" s="2">
-        <v>323528163328</v>
+        <v>321213038592</v>
       </c>
       <c r="D5" s="3">
-        <v>1086</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1989,13 +1986,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>362.37</v>
+        <v>361.38</v>
       </c>
       <c r="C6" s="2">
-        <v>226429059072</v>
+        <v>225810464768</v>
       </c>
       <c r="D6" s="3">
-        <v>548</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2003,13 +2000,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>515.9299999999999</v>
+        <v>516.2</v>
       </c>
       <c r="C7" s="2">
-        <v>227112386560</v>
+        <v>227231252480</v>
       </c>
       <c r="D7" s="3">
-        <v>385</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2017,13 +2014,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>137.175</v>
+        <v>142.06</v>
       </c>
       <c r="C8" s="2">
-        <v>222608965632</v>
+        <v>230536380416</v>
       </c>
       <c r="D8" s="3">
-        <v>1449</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2031,13 +2028,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>13.04</v>
+        <v>13.01</v>
       </c>
       <c r="C9" s="2">
-        <v>9271792640</v>
+        <v>9250461696</v>
       </c>
       <c r="D9" s="3">
-        <v>15245</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2045,13 +2042,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>114</v>
+        <v>111.4</v>
       </c>
       <c r="C10" s="2">
-        <v>63385825280</v>
+        <v>61885820928</v>
       </c>
       <c r="D10" s="3">
-        <v>1743</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2059,13 +2056,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>137.97</v>
+        <v>139.58</v>
       </c>
       <c r="C11" s="2">
-        <v>39396507648</v>
+        <v>39807238144</v>
       </c>
       <c r="D11" s="3">
-        <v>1440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2073,13 +2070,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>334.33</v>
+        <v>335.62</v>
       </c>
       <c r="C12" s="2">
-        <v>74347970560</v>
+        <v>74634838016</v>
       </c>
       <c r="D12" s="3">
-        <v>594</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2087,13 +2084,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>136.11</v>
+        <v>137.49</v>
       </c>
       <c r="C13" s="2">
-        <v>86393380864</v>
+        <v>85899902976</v>
       </c>
       <c r="D13" s="3">
-        <v>1460</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2101,13 +2098,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>94.02</v>
+        <v>97.93000000000001</v>
       </c>
       <c r="C14" s="2">
-        <v>14124343296</v>
+        <v>14711731200</v>
       </c>
       <c r="D14" s="3">
-        <v>2114</v>
+        <v>609</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2115,13 +2112,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>107.7</v>
+        <v>111.3</v>
       </c>
       <c r="C15" s="2">
-        <v>12692014080</v>
+        <v>13082202112</v>
       </c>
       <c r="D15" s="3">
-        <v>1845</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2129,13 +2126,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>110.23</v>
+        <v>109.7</v>
       </c>
       <c r="C16" s="2">
-        <v>19314720768</v>
+        <v>19171391488</v>
       </c>
       <c r="D16" s="3">
-        <v>1803</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2143,13 +2140,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>232.77</v>
+        <v>234.14</v>
       </c>
       <c r="C17" s="2">
-        <v>17377003520</v>
+        <v>17479278592</v>
       </c>
       <c r="D17" s="3">
-        <v>854</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2157,13 +2154,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>140.84</v>
+        <v>140.4</v>
       </c>
       <c r="C18" s="2">
-        <v>12292670464</v>
+        <v>12204872704</v>
       </c>
       <c r="D18" s="3">
-        <v>1411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2171,13 +2168,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>63.2</v>
+        <v>62.28</v>
       </c>
       <c r="C19" s="2">
-        <v>16317166592</v>
+        <v>15980986368</v>
       </c>
       <c r="D19" s="3">
-        <v>3145</v>
+        <v>957</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2185,13 +2182,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>207.39</v>
+        <v>204.39</v>
       </c>
       <c r="C20" s="2">
-        <v>55132143616</v>
+        <v>54123085824</v>
       </c>
       <c r="D20" s="3">
-        <v>958</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2199,13 +2196,13 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>168.95</v>
+        <v>171.49</v>
       </c>
       <c r="C21" s="2">
-        <v>2080348962816</v>
+        <v>2107457798144</v>
       </c>
       <c r="D21" s="3">
-        <v>1176</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2213,13 +2210,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>170.49</v>
+        <v>172.98</v>
       </c>
       <c r="C22" s="2">
-        <v>2080335986688</v>
+        <v>2107449802752</v>
       </c>
       <c r="D22" s="3">
-        <v>1166</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2227,13 +2224,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>57.74</v>
+        <v>57.18</v>
       </c>
       <c r="C23" s="2">
-        <v>97858330624</v>
+        <v>96909238272</v>
       </c>
       <c r="D23" s="3">
-        <v>3443</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2241,13 +2238,13 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>207.89</v>
+        <v>210.71</v>
       </c>
       <c r="C24" s="2">
-        <v>2185963372544</v>
+        <v>2215615660032</v>
       </c>
       <c r="D24" s="3">
-        <v>956</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2255,13 +2252,13 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>10.64</v>
+        <v>10.57</v>
       </c>
       <c r="C25" s="2">
-        <v>15378418688</v>
+        <v>15277243392</v>
       </c>
       <c r="D25" s="3">
-        <v>18684</v>
+        <v>5642</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2269,13 +2266,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>24.35</v>
+        <v>23.86</v>
       </c>
       <c r="C26" s="2">
-        <v>5924403712</v>
+        <v>5805186048</v>
       </c>
       <c r="D26" s="3">
-        <v>8164</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2283,13 +2280,13 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>94.39</v>
+        <v>92.88</v>
       </c>
       <c r="C27" s="2">
-        <v>25352775680</v>
+        <v>24792272896</v>
       </c>
       <c r="D27" s="3">
-        <v>2106</v>
+        <v>642</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2297,13 +2294,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>99.86</v>
+        <v>98.22</v>
       </c>
       <c r="C28" s="2">
-        <v>53197918208</v>
+        <v>52308533248</v>
       </c>
       <c r="D28" s="3">
-        <v>1990</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2311,13 +2308,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>304.68</v>
+        <v>302.26</v>
       </c>
       <c r="C29" s="2">
-        <v>214630301696</v>
+        <v>212925546496</v>
       </c>
       <c r="D29" s="3">
-        <v>652</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2325,13 +2322,13 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>76.88</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="C30" s="2">
-        <v>48117575680</v>
+        <v>47412686848</v>
       </c>
       <c r="D30" s="3">
-        <v>2585</v>
+        <v>784</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2339,13 +2336,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>209</v>
+        <v>207.33</v>
       </c>
       <c r="C31" s="2">
-        <v>97803640832</v>
+        <v>96883023872</v>
       </c>
       <c r="D31" s="3">
-        <v>951</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2353,13 +2350,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>136.94</v>
+        <v>135.6</v>
       </c>
       <c r="C32" s="2">
-        <v>26955816960</v>
+        <v>26427627520</v>
       </c>
       <c r="D32" s="3">
-        <v>1451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2367,13 +2364,13 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>573.97</v>
+        <v>565.37</v>
       </c>
       <c r="C33" s="2">
-        <v>55683465216</v>
+        <v>54849142784</v>
       </c>
       <c r="D33" s="3">
-        <v>346</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2381,13 +2378,13 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>194.38</v>
+        <v>195.56</v>
       </c>
       <c r="C34" s="2">
-        <v>45128040448</v>
+        <v>45234593792</v>
       </c>
       <c r="D34" s="3">
-        <v>1022</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2395,13 +2392,13 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>282.87</v>
+        <v>278.1</v>
       </c>
       <c r="C35" s="2">
-        <v>152051957760</v>
+        <v>149487927296</v>
       </c>
       <c r="D35" s="3">
-        <v>702</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2409,13 +2406,13 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>72.65000000000001</v>
+        <v>73.08</v>
       </c>
       <c r="C36" s="2">
-        <v>87696547840</v>
+        <v>88105975808</v>
       </c>
       <c r="D36" s="3">
-        <v>2736</v>
+        <v>816</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2423,13 +2420,13 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>218.05</v>
+        <v>223.12</v>
       </c>
       <c r="C37" s="2">
-        <v>108217556992</v>
+        <v>110733778944</v>
       </c>
       <c r="D37" s="3">
-        <v>911</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2437,13 +2434,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>351.1</v>
+        <v>350.51</v>
       </c>
       <c r="C38" s="2">
-        <v>30703695872</v>
+        <v>30652100608</v>
       </c>
       <c r="D38" s="3">
-        <v>566</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2451,13 +2448,13 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>391.54</v>
+        <v>387.71</v>
       </c>
       <c r="C39" s="2">
-        <v>85059715072</v>
+        <v>83848486912</v>
       </c>
       <c r="D39" s="3">
-        <v>507</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2465,13 +2462,13 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>22.65</v>
+        <v>22.34</v>
       </c>
       <c r="C40" s="2">
-        <v>8379299840</v>
+        <v>8264616448</v>
       </c>
       <c r="D40" s="3">
-        <v>8777</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2479,13 +2476,13 @@
         <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>237.33</v>
+        <v>239.59</v>
       </c>
       <c r="C41" s="2">
-        <v>3587432775680</v>
+        <v>3621594333184</v>
       </c>
       <c r="D41" s="3">
-        <v>837</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2493,13 +2490,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>174.71</v>
+        <v>183.265</v>
       </c>
       <c r="C42" s="2">
-        <v>144031629312</v>
+        <v>151084400640</v>
       </c>
       <c r="D42" s="3">
-        <v>1137</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2507,13 +2504,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>55.53</v>
+        <v>56.07</v>
       </c>
       <c r="C43" s="2">
-        <v>13051548672</v>
+        <v>13178468352</v>
       </c>
       <c r="D43" s="3">
-        <v>3580</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2521,13 +2518,13 @@
         <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>100.72</v>
+        <v>99.3</v>
       </c>
       <c r="C44" s="2">
-        <v>37902647296</v>
+        <v>37360828416</v>
       </c>
       <c r="D44" s="3">
-        <v>1973</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2535,13 +2532,13 @@
         <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>54.6</v>
+        <v>54.27</v>
       </c>
       <c r="C45" s="2">
-        <v>26127955968</v>
+        <v>25970040832</v>
       </c>
       <c r="D45" s="3">
-        <v>3641</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2549,13 +2546,13 @@
         <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>405.82</v>
+        <v>410.1</v>
       </c>
       <c r="C46" s="2">
-        <v>127808954368</v>
+        <v>129156898816</v>
       </c>
       <c r="D46" s="3">
-        <v>489</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2563,13 +2560,13 @@
         <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>312.24</v>
+        <v>307.96</v>
       </c>
       <c r="C47" s="2">
-        <v>69160534016</v>
+        <v>67580588032</v>
       </c>
       <c r="D47" s="3">
-        <v>636</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2577,13 +2574,13 @@
         <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>227.1</v>
+        <v>225.73</v>
       </c>
       <c r="C48" s="2">
-        <v>11647369216</v>
+        <v>11577104384</v>
       </c>
       <c r="D48" s="3">
-        <v>875</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2591,13 +2588,13 @@
         <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>23.16</v>
+        <v>22.7</v>
       </c>
       <c r="C49" s="2">
-        <v>166969016320</v>
+        <v>162879078400</v>
       </c>
       <c r="D49" s="3">
-        <v>8584</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2605,13 +2602,13 @@
         <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>151.32</v>
+        <v>148.56</v>
       </c>
       <c r="C50" s="2">
-        <v>23532077056</v>
+        <v>23086223360</v>
       </c>
       <c r="D50" s="3">
-        <v>1313</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2619,13 +2616,13 @@
         <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>291.9</v>
+        <v>296.65</v>
       </c>
       <c r="C51" s="2">
-        <v>62907072512</v>
+        <v>63930740736</v>
       </c>
       <c r="D51" s="3">
-        <v>681</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2633,13 +2630,13 @@
         <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>306.93</v>
+        <v>306.03</v>
       </c>
       <c r="C52" s="2">
-        <v>125060767744</v>
+        <v>124694061056</v>
       </c>
       <c r="D52" s="3">
-        <v>647</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2647,13 +2644,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>3169.54</v>
+        <v>3179.52</v>
       </c>
       <c r="C53" s="2">
-        <v>53578854400</v>
+        <v>53747560448</v>
       </c>
       <c r="D53" s="3">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2661,13 +2658,13 @@
         <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>235.35</v>
+        <v>230.8</v>
       </c>
       <c r="C54" s="2">
-        <v>33825443840</v>
+        <v>32828297216</v>
       </c>
       <c r="D54" s="3">
-        <v>844</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2675,13 +2672,13 @@
         <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>205.95</v>
+        <v>206.14</v>
       </c>
       <c r="C55" s="2">
-        <v>16547341312</v>
+        <v>16562607104</v>
       </c>
       <c r="D55" s="3">
-        <v>965</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2689,13 +2686,13 @@
         <v>58</v>
       </c>
       <c r="B56" s="2">
-        <v>646.96</v>
+        <v>636.39</v>
       </c>
       <c r="C56" s="2">
-        <v>49333805056</v>
+        <v>48527794176</v>
       </c>
       <c r="D56" s="3">
-        <v>307</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2703,13 +2700,13 @@
         <v>59</v>
       </c>
       <c r="B57" s="2">
-        <v>43.95</v>
+        <v>43.69</v>
       </c>
       <c r="C57" s="2">
-        <v>43489669120</v>
+        <v>43232391168</v>
       </c>
       <c r="D57" s="3">
-        <v>4523</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2717,13 +2714,13 @@
         <v>60</v>
       </c>
       <c r="B58" s="2">
-        <v>62.16</v>
+        <v>62.83</v>
       </c>
       <c r="C58" s="2">
-        <v>18681440256</v>
+        <v>18750105600</v>
       </c>
       <c r="D58" s="3">
-        <v>3198</v>
+        <v>949</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2731,13 +2728,13 @@
         <v>61</v>
       </c>
       <c r="B59" s="2">
-        <v>47.51</v>
+        <v>47.04</v>
       </c>
       <c r="C59" s="2">
-        <v>366533443584</v>
+        <v>360932278272</v>
       </c>
       <c r="D59" s="3">
-        <v>4184</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2745,13 +2742,13 @@
         <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>33.71</v>
+        <v>33.55</v>
       </c>
       <c r="C60" s="2">
-        <v>17211920384</v>
+        <v>17130226688</v>
       </c>
       <c r="D60" s="3">
-        <v>5897</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2759,21 +2756,27 @@
         <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>221.9</v>
+        <v>222.82</v>
       </c>
       <c r="C61" s="2">
-        <v>64179245056</v>
+        <v>64422162432</v>
       </c>
       <c r="D61" s="3">
-        <v>895</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>507</v>
+      <c r="B62" s="2">
+        <v>477.33</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1029257101312</v>
+      </c>
+      <c r="D62" s="3">
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2781,13 +2784,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="2">
-        <v>90</v>
+        <v>90.93000000000001</v>
       </c>
       <c r="C63" s="2">
-        <v>19325249536</v>
+        <v>19524943872</v>
       </c>
       <c r="D63" s="3">
-        <v>2208</v>
+        <v>655</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2795,13 +2798,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="2">
-        <v>75.36</v>
+        <v>76.02</v>
       </c>
       <c r="C64" s="2">
-        <v>11977266176</v>
+        <v>12078968832</v>
       </c>
       <c r="D64" s="3">
-        <v>2638</v>
+        <v>784</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2809,13 +2812,13 @@
         <v>67</v>
       </c>
       <c r="B65" s="2">
-        <v>160.63</v>
+        <v>164.23</v>
       </c>
       <c r="C65" s="2">
-        <v>23406845952</v>
+        <v>23931432960</v>
       </c>
       <c r="D65" s="3">
-        <v>1237</v>
+        <v>363</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2823,13 +2826,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="2">
-        <v>1022.8</v>
+        <v>1020.11</v>
       </c>
       <c r="C66" s="2">
-        <v>151505321984</v>
+        <v>151106846720</v>
       </c>
       <c r="D66" s="3">
-        <v>194</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2837,13 +2840,13 @@
         <v>69</v>
       </c>
       <c r="B67" s="2">
-        <v>191.09</v>
+        <v>187.05</v>
       </c>
       <c r="C67" s="2">
-        <v>229260230656</v>
+        <v>226869215232</v>
       </c>
       <c r="D67" s="3">
-        <v>1040</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2851,13 +2854,13 @@
         <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>81.87</v>
+        <v>81.11</v>
       </c>
       <c r="C68" s="2">
-        <v>59525877760</v>
+        <v>58973298688</v>
       </c>
       <c r="D68" s="3">
-        <v>2428</v>
+        <v>735</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2865,13 +2868,13 @@
         <v>71</v>
       </c>
       <c r="B69" s="2">
-        <v>155.44</v>
+        <v>156.54</v>
       </c>
       <c r="C69" s="2">
-        <v>116296482816</v>
+        <v>117119467520</v>
       </c>
       <c r="D69" s="3">
-        <v>1278</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2879,13 +2882,13 @@
         <v>72</v>
       </c>
       <c r="B70" s="2">
-        <v>5201.98</v>
+        <v>5224.28</v>
       </c>
       <c r="C70" s="2">
-        <v>172869074944</v>
+        <v>172906414080</v>
       </c>
       <c r="D70" s="3">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2899,7 +2902,7 @@
         <v>7505783808</v>
       </c>
       <c r="D71" s="3">
-        <v>5792</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2907,13 +2910,13 @@
         <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>90.66</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="C72" s="2">
-        <v>133749792768</v>
+        <v>133278449664</v>
       </c>
       <c r="D72" s="3">
-        <v>2192</v>
+        <v>659</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2921,13 +2924,13 @@
         <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>59.22</v>
+        <v>59.94</v>
       </c>
       <c r="C73" s="2">
-        <v>120210087936</v>
+        <v>121569107968</v>
       </c>
       <c r="D73" s="3">
-        <v>3357</v>
+        <v>995</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2935,13 +2938,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>162.08</v>
+        <v>166.51</v>
       </c>
       <c r="C74" s="2">
-        <v>757007646720</v>
+        <v>777698279424</v>
       </c>
       <c r="D74" s="3">
-        <v>1226</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2949,13 +2952,13 @@
         <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>236.02</v>
+        <v>234.25</v>
       </c>
       <c r="C75" s="2">
-        <v>27588143104</v>
+        <v>27381248000</v>
       </c>
       <c r="D75" s="3">
-        <v>842</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2963,21 +2966,27 @@
         <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>113.1</v>
+        <v>111.63</v>
       </c>
       <c r="C76" s="2">
-        <v>32370464768</v>
+        <v>31921491968</v>
       </c>
       <c r="D76" s="3">
-        <v>1757</v>
+        <v>534</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>507</v>
+      <c r="B77" s="2">
+        <v>42.18</v>
+      </c>
+      <c r="C77" s="2">
+        <v>19840417792</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1413</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2985,13 +2994,13 @@
         <v>80</v>
       </c>
       <c r="B78" s="2">
-        <v>186.47</v>
+        <v>184.82</v>
       </c>
       <c r="C78" s="2">
-        <v>21459900416</v>
+        <v>21270009856</v>
       </c>
       <c r="D78" s="3">
-        <v>1066</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2999,13 +3008,13 @@
         <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>89.73999999999999</v>
+        <v>89.09</v>
       </c>
       <c r="C79" s="2">
-        <v>12530127872</v>
+        <v>12439369728</v>
       </c>
       <c r="D79" s="3">
-        <v>2215</v>
+        <v>669</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3013,13 +3022,13 @@
         <v>82</v>
       </c>
       <c r="B80" s="2">
-        <v>81.98999999999999</v>
+        <v>80.88</v>
       </c>
       <c r="C80" s="2">
-        <v>14614306816</v>
+        <v>14265128960</v>
       </c>
       <c r="D80" s="3">
-        <v>2424</v>
+        <v>737</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3027,13 +3036,13 @@
         <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>105.58</v>
+        <v>106.18</v>
       </c>
       <c r="C81" s="2">
-        <v>12480083968</v>
+        <v>12551007232</v>
       </c>
       <c r="D81" s="3">
-        <v>1883</v>
+        <v>561</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3041,13 +3050,13 @@
         <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>306.81</v>
+        <v>310.27</v>
       </c>
       <c r="C82" s="2">
-        <v>84146634752</v>
+        <v>85095579648</v>
       </c>
       <c r="D82" s="3">
-        <v>647</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3055,13 +3064,13 @@
         <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>38.49</v>
+        <v>39.01</v>
       </c>
       <c r="C83" s="2">
-        <v>8178355712</v>
+        <v>8288844288</v>
       </c>
       <c r="D83" s="3">
-        <v>5165</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3069,13 +3078,13 @@
         <v>86</v>
       </c>
       <c r="B84" s="2">
-        <v>125.8</v>
+        <v>123.95</v>
       </c>
       <c r="C84" s="2">
-        <v>13551679488</v>
+        <v>13223109632</v>
       </c>
       <c r="D84" s="3">
-        <v>1580</v>
+        <v>481</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3083,13 +3092,13 @@
         <v>87</v>
       </c>
       <c r="B85" s="2">
-        <v>46.2</v>
+        <v>46.23</v>
       </c>
       <c r="C85" s="2">
-        <v>13749859328</v>
+        <v>13758787584</v>
       </c>
       <c r="D85" s="3">
-        <v>4303</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3097,13 +3106,13 @@
         <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>192.01</v>
+        <v>187.52</v>
       </c>
       <c r="C86" s="2">
-        <v>73253732352</v>
+        <v>71540760576</v>
       </c>
       <c r="D86" s="3">
-        <v>1035</v>
+        <v>318</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3111,13 +3120,13 @@
         <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>122.24</v>
+        <v>122.47</v>
       </c>
       <c r="C87" s="2">
-        <v>29677795328</v>
+        <v>29638965248</v>
       </c>
       <c r="D87" s="3">
-        <v>1626</v>
+        <v>486</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3125,13 +3134,13 @@
         <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>83.97</v>
+        <v>83.18000000000001</v>
       </c>
       <c r="C88" s="2">
-        <v>13105030144</v>
+        <v>12886578176</v>
       </c>
       <c r="D88" s="3">
-        <v>2367</v>
+        <v>717</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3139,13 +3148,13 @@
         <v>91</v>
       </c>
       <c r="B89" s="2">
-        <v>25.43</v>
+        <v>25.99</v>
       </c>
       <c r="C89" s="2">
-        <v>33733912576</v>
+        <v>34874679296</v>
       </c>
       <c r="D89" s="3">
-        <v>7817</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3153,13 +3162,13 @@
         <v>92</v>
       </c>
       <c r="B90" s="2">
-        <v>77.37</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="C90" s="2">
-        <v>69418459136</v>
+        <v>68449447936</v>
       </c>
       <c r="D90" s="3">
-        <v>2569</v>
+        <v>781</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3167,13 +3176,13 @@
         <v>93</v>
       </c>
       <c r="B91" s="2">
-        <v>61.11</v>
+        <v>61.43</v>
       </c>
       <c r="C91" s="2">
-        <v>11092198400</v>
+        <v>11150281728</v>
       </c>
       <c r="D91" s="3">
-        <v>3253</v>
+        <v>970</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3181,13 +3190,13 @@
         <v>94</v>
       </c>
       <c r="B92" s="2">
-        <v>406.11</v>
+        <v>402.51</v>
       </c>
       <c r="C92" s="2">
-        <v>196070703104</v>
+        <v>194332639232</v>
       </c>
       <c r="D92" s="3">
-        <v>489</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3195,13 +3204,13 @@
         <v>95</v>
       </c>
       <c r="B93" s="2">
-        <v>215.85</v>
+        <v>211.91</v>
       </c>
       <c r="C93" s="2">
-        <v>22804768768</v>
+        <v>22184009728</v>
       </c>
       <c r="D93" s="3">
-        <v>921</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3209,13 +3218,13 @@
         <v>96</v>
       </c>
       <c r="B94" s="2">
-        <v>139.99</v>
+        <v>138.39</v>
       </c>
       <c r="C94" s="2">
-        <v>43059806208</v>
+        <v>42349830144</v>
       </c>
       <c r="D94" s="3">
-        <v>1420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3223,13 +3232,13 @@
         <v>97</v>
       </c>
       <c r="B95" s="2">
-        <v>175.93</v>
+        <v>180.62</v>
       </c>
       <c r="C95" s="2">
-        <v>23554387968</v>
+        <v>24070144000</v>
       </c>
       <c r="D95" s="3">
-        <v>1130</v>
+        <v>330</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3237,13 +3246,13 @@
         <v>98</v>
       </c>
       <c r="B96" s="2">
-        <v>73.20999999999999</v>
+        <v>74.22</v>
       </c>
       <c r="C96" s="2">
-        <v>8002731520</v>
+        <v>8113136640</v>
       </c>
       <c r="D96" s="3">
-        <v>2715</v>
+        <v>803</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3251,13 +3260,13 @@
         <v>99</v>
       </c>
       <c r="B97" s="2">
-        <v>251.55</v>
+        <v>249.87</v>
       </c>
       <c r="C97" s="2">
-        <v>48619585536</v>
+        <v>48294871040</v>
       </c>
       <c r="D97" s="3">
-        <v>790</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3265,13 +3274,13 @@
         <v>100</v>
       </c>
       <c r="B98" s="2">
-        <v>60</v>
+        <v>60.06</v>
       </c>
       <c r="C98" s="2">
-        <v>30291900416</v>
+        <v>30322192384</v>
       </c>
       <c r="D98" s="3">
-        <v>3313</v>
+        <v>993</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3279,13 +3288,13 @@
         <v>101</v>
       </c>
       <c r="B99" s="2">
-        <v>32.62</v>
+        <v>31.99</v>
       </c>
       <c r="C99" s="2">
-        <v>21285398528</v>
+        <v>20848746496</v>
       </c>
       <c r="D99" s="3">
-        <v>6094</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3293,13 +3302,13 @@
         <v>102</v>
       </c>
       <c r="B100" s="2">
-        <v>89.66</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="C100" s="2">
-        <v>15602633728</v>
+        <v>15828858880</v>
       </c>
       <c r="D100" s="3">
-        <v>2217</v>
+        <v>655</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3307,13 +3316,13 @@
         <v>103</v>
       </c>
       <c r="B101" s="2">
-        <v>199.06</v>
+        <v>201.25</v>
       </c>
       <c r="C101" s="2">
-        <v>10206264320</v>
+        <v>10291160064</v>
       </c>
       <c r="D101" s="3">
-        <v>998</v>
+        <v>296</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3321,13 +3330,13 @@
         <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>82.76000000000001</v>
+        <v>81.39</v>
       </c>
       <c r="C102" s="2">
-        <v>151204184064</v>
+        <v>148989280256</v>
       </c>
       <c r="D102" s="3">
-        <v>2402</v>
+        <v>732</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3335,13 +3344,13 @@
         <v>105</v>
       </c>
       <c r="B103" s="2">
-        <v>396.965</v>
+        <v>394.43</v>
       </c>
       <c r="C103" s="2">
-        <v>56442068992</v>
+        <v>56081633280</v>
       </c>
       <c r="D103" s="3">
-        <v>500</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3349,13 +3358,13 @@
         <v>106</v>
       </c>
       <c r="B104" s="2">
-        <v>161.93</v>
+        <v>162.21</v>
       </c>
       <c r="C104" s="2">
-        <v>289030471680</v>
+        <v>289207451648</v>
       </c>
       <c r="D104" s="3">
-        <v>1227</v>
+        <v>367</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3363,13 +3372,13 @@
         <v>107</v>
       </c>
       <c r="B105" s="2">
-        <v>61.52</v>
+        <v>60.54</v>
       </c>
       <c r="C105" s="2">
-        <v>84548780032</v>
+        <v>82491195392</v>
       </c>
       <c r="D105" s="3">
-        <v>3231</v>
+        <v>985</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3377,13 +3386,13 @@
         <v>108</v>
       </c>
       <c r="B106" s="2">
-        <v>288.73</v>
+        <v>289.91</v>
       </c>
       <c r="C106" s="2">
-        <v>117035548672</v>
+        <v>116862140416</v>
       </c>
       <c r="D106" s="3">
-        <v>688</v>
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3391,13 +3400,13 @@
         <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>110.13</v>
+        <v>111.24</v>
       </c>
       <c r="C107" s="2">
-        <v>27037904896</v>
+        <v>27253577728</v>
       </c>
       <c r="D107" s="3">
-        <v>1805</v>
+        <v>536</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3405,13 +3414,13 @@
         <v>110</v>
       </c>
       <c r="B108" s="2">
-        <v>337.8</v>
+        <v>337.06</v>
       </c>
       <c r="C108" s="2">
-        <v>93960077312</v>
+        <v>93754245120</v>
       </c>
       <c r="D108" s="3">
-        <v>588</v>
+        <v>176</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3419,13 +3428,13 @@
         <v>111</v>
       </c>
       <c r="B109" s="2">
-        <v>159.83</v>
+        <v>157.58</v>
       </c>
       <c r="C109" s="2">
-        <v>25035452416</v>
+        <v>24632119296</v>
       </c>
       <c r="D109" s="3">
-        <v>1243</v>
+        <v>378</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3433,13 +3442,13 @@
         <v>112</v>
       </c>
       <c r="B110" s="2">
-        <v>225.79</v>
+        <v>222.64</v>
       </c>
       <c r="C110" s="2">
-        <v>91060879360</v>
+        <v>89790488576</v>
       </c>
       <c r="D110" s="3">
-        <v>880</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3447,13 +3456,13 @@
         <v>113</v>
       </c>
       <c r="B111" s="2">
-        <v>59.21</v>
+        <v>59.43</v>
       </c>
       <c r="C111" s="2">
-        <v>236137775104</v>
+        <v>236695420928</v>
       </c>
       <c r="D111" s="3">
-        <v>3357</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3461,13 +3470,13 @@
         <v>114</v>
       </c>
       <c r="B112" s="2">
-        <v>70.87</v>
+        <v>71.39</v>
       </c>
       <c r="C112" s="2">
-        <v>134033604608</v>
+        <v>135017054208</v>
       </c>
       <c r="D112" s="3">
-        <v>2805</v>
+        <v>835</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3475,13 +3484,13 @@
         <v>115</v>
       </c>
       <c r="B113" s="2">
-        <v>48.14</v>
+        <v>47.08</v>
       </c>
       <c r="C113" s="2">
-        <v>21224155136</v>
+        <v>20748204032</v>
       </c>
       <c r="D113" s="3">
-        <v>4129</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3489,13 +3498,13 @@
         <v>116</v>
       </c>
       <c r="B114" s="2">
-        <v>167.17</v>
+        <v>166.54</v>
       </c>
       <c r="C114" s="2">
-        <v>20692469760</v>
+        <v>20614486016</v>
       </c>
       <c r="D114" s="3">
-        <v>1189</v>
+        <v>358</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3503,13 +3512,13 @@
         <v>117</v>
       </c>
       <c r="B115" s="2">
-        <v>238</v>
+        <v>235.61</v>
       </c>
       <c r="C115" s="2">
-        <v>85765447680</v>
+        <v>84904886272</v>
       </c>
       <c r="D115" s="3">
-        <v>835</v>
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3517,13 +3526,13 @@
         <v>118</v>
       </c>
       <c r="B116" s="2">
-        <v>69.70999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C116" s="2">
-        <v>21061343232</v>
+        <v>20436893696</v>
       </c>
       <c r="D116" s="3">
-        <v>2851</v>
+        <v>871</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3531,13 +3540,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="2">
-        <v>64.08</v>
+        <v>63.65</v>
       </c>
       <c r="C117" s="2">
-        <v>277551644672</v>
+        <v>274191482880</v>
       </c>
       <c r="D117" s="3">
-        <v>3102</v>
+        <v>937</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3545,13 +3554,13 @@
         <v>120</v>
       </c>
       <c r="B118" s="2">
-        <v>80.48999999999999</v>
+        <v>80.81999999999999</v>
       </c>
       <c r="C118" s="2">
-        <v>40037818368</v>
+        <v>40072495104</v>
       </c>
       <c r="D118" s="3">
-        <v>2469</v>
+        <v>737</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3559,13 +3568,13 @@
         <v>121</v>
       </c>
       <c r="B119" s="2">
-        <v>96.63</v>
+        <v>97.11</v>
       </c>
       <c r="C119" s="2">
-        <v>79053971456</v>
+        <v>79339937792</v>
       </c>
       <c r="D119" s="3">
-        <v>2057</v>
+        <v>614</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3573,13 +3582,13 @@
         <v>122</v>
       </c>
       <c r="B120" s="2">
-        <v>43.19</v>
+        <v>43.29</v>
       </c>
       <c r="C120" s="2">
-        <v>164860542976</v>
+        <v>165650923520</v>
       </c>
       <c r="D120" s="3">
-        <v>4603</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3587,13 +3596,13 @@
         <v>123</v>
       </c>
       <c r="B121" s="2">
-        <v>27.55</v>
+        <v>27.82</v>
       </c>
       <c r="C121" s="2">
-        <v>13148870656</v>
+        <v>13277734912</v>
       </c>
       <c r="D121" s="3">
-        <v>7216</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3601,13 +3610,13 @@
         <v>124</v>
       </c>
       <c r="B122" s="2">
-        <v>108.34</v>
+        <v>106.14</v>
       </c>
       <c r="C122" s="2">
-        <v>140144295936</v>
+        <v>137298460672</v>
       </c>
       <c r="D122" s="3">
-        <v>1835</v>
+        <v>561</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3615,13 +3624,13 @@
         <v>125</v>
       </c>
       <c r="B123" s="2">
-        <v>100.59</v>
+        <v>98.5</v>
       </c>
       <c r="C123" s="2">
-        <v>35188596736</v>
+        <v>34121582592</v>
       </c>
       <c r="D123" s="3">
-        <v>1976</v>
+        <v>605</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3629,13 +3638,13 @@
         <v>126</v>
       </c>
       <c r="B124" s="2">
-        <v>240.95</v>
+        <v>237.76</v>
       </c>
       <c r="C124" s="2">
-        <v>43741097984</v>
+        <v>43174125568</v>
       </c>
       <c r="D124" s="3">
-        <v>825</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3643,13 +3652,13 @@
         <v>127</v>
       </c>
       <c r="B125" s="2">
-        <v>256.56</v>
+        <v>249.58</v>
       </c>
       <c r="C125" s="2">
-        <v>80243499008</v>
+        <v>78060388352</v>
       </c>
       <c r="D125" s="3">
-        <v>774</v>
+        <v>238</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3657,13 +3666,13 @@
         <v>128</v>
       </c>
       <c r="B126" s="2">
-        <v>104.46</v>
+        <v>103</v>
       </c>
       <c r="C126" s="2">
-        <v>20803835904</v>
+        <v>20513067008</v>
       </c>
       <c r="D126" s="3">
-        <v>1903</v>
+        <v>579</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3671,13 +3680,13 @@
         <v>129</v>
       </c>
       <c r="B127" s="2">
-        <v>63.39</v>
+        <v>62.02</v>
       </c>
       <c r="C127" s="2">
-        <v>61193662464</v>
+        <v>59758006272</v>
       </c>
       <c r="D127" s="3">
-        <v>3136</v>
+        <v>961</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3685,13 +3694,13 @@
         <v>130</v>
       </c>
       <c r="B128" s="2">
-        <v>48.67</v>
+        <v>49.24</v>
       </c>
       <c r="C128" s="2">
-        <v>41671692288</v>
+        <v>42159734784</v>
       </c>
       <c r="D128" s="3">
-        <v>4084</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3699,13 +3708,13 @@
         <v>131</v>
       </c>
       <c r="B129" s="2">
-        <v>381.18</v>
+        <v>382.99</v>
       </c>
       <c r="C129" s="2">
-        <v>26572437504</v>
+        <v>26698614784</v>
       </c>
       <c r="D129" s="3">
-        <v>521</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3713,13 +3722,13 @@
         <v>132</v>
       </c>
       <c r="B130" s="2">
-        <v>62.24</v>
+        <v>62.23</v>
       </c>
       <c r="C130" s="2">
-        <v>42955804672</v>
+        <v>42770243584</v>
       </c>
       <c r="D130" s="3">
-        <v>3194</v>
+        <v>958</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3727,13 +3736,13 @@
         <v>133</v>
       </c>
       <c r="B131" s="2">
-        <v>81.34</v>
+        <v>80.06999999999999</v>
       </c>
       <c r="C131" s="2">
-        <v>33604399104</v>
+        <v>32825497600</v>
       </c>
       <c r="D131" s="3">
-        <v>2444</v>
+        <v>744</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3741,13 +3750,13 @@
         <v>134</v>
       </c>
       <c r="B132" s="2">
-        <v>971.88</v>
+        <v>975</v>
       </c>
       <c r="C132" s="2">
-        <v>430614740992</v>
+        <v>431997124608</v>
       </c>
       <c r="D132" s="3">
-        <v>204</v>
+        <v>61</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3755,13 +3764,13 @@
         <v>135</v>
       </c>
       <c r="B133" s="2">
-        <v>26.72</v>
+        <v>26.09</v>
       </c>
       <c r="C133" s="2">
-        <v>19682297856</v>
+        <v>19218233344</v>
       </c>
       <c r="D133" s="3">
-        <v>7440</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3769,13 +3778,13 @@
         <v>136</v>
       </c>
       <c r="B134" s="2">
-        <v>345.97</v>
+        <v>346.8</v>
       </c>
       <c r="C134" s="2">
-        <v>85615460352</v>
+        <v>85420654592</v>
       </c>
       <c r="D134" s="3">
-        <v>574</v>
+        <v>171</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3783,13 +3792,13 @@
         <v>137</v>
       </c>
       <c r="B135" s="2">
-        <v>106.25</v>
+        <v>105.32</v>
       </c>
       <c r="C135" s="2">
-        <v>46371643392</v>
+        <v>45771862016</v>
       </c>
       <c r="D135" s="3">
-        <v>1871</v>
+        <v>566</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3797,13 +3806,13 @@
         <v>138</v>
       </c>
       <c r="B136" s="2">
-        <v>36.55</v>
+        <v>36.34</v>
       </c>
       <c r="C136" s="2">
-        <v>70541500416</v>
+        <v>70078783488</v>
       </c>
       <c r="D136" s="3">
-        <v>5439</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3811,13 +3820,13 @@
         <v>139</v>
       </c>
       <c r="B137" s="2">
-        <v>375.04</v>
+        <v>377.3</v>
       </c>
       <c r="C137" s="2">
-        <v>51448737792</v>
+        <v>51758768128</v>
       </c>
       <c r="D137" s="3">
-        <v>530</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3825,13 +3834,13 @@
         <v>140</v>
       </c>
       <c r="B138" s="2">
-        <v>59.85</v>
+        <v>59.08</v>
       </c>
       <c r="C138" s="2">
-        <v>75454087168</v>
+        <v>74346864640</v>
       </c>
       <c r="D138" s="3">
-        <v>3321</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3839,13 +3848,13 @@
         <v>141</v>
       </c>
       <c r="B139" s="2">
-        <v>239.69</v>
+        <v>241.29</v>
       </c>
       <c r="C139" s="2">
-        <v>173122093056</v>
+        <v>174277738496</v>
       </c>
       <c r="D139" s="3">
-        <v>829</v>
+        <v>247</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3853,13 +3862,13 @@
         <v>142</v>
       </c>
       <c r="B140" s="2">
-        <v>176.27</v>
+        <v>172</v>
       </c>
       <c r="C140" s="2">
-        <v>20711725056</v>
+        <v>20209999872</v>
       </c>
       <c r="D140" s="3">
-        <v>1127</v>
+        <v>346</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3867,13 +3876,13 @@
         <v>143</v>
       </c>
       <c r="B141" s="2">
-        <v>166.17</v>
+        <v>163.74</v>
       </c>
       <c r="C141" s="2">
-        <v>13629927424</v>
+        <v>13430609920</v>
       </c>
       <c r="D141" s="3">
-        <v>1196</v>
+        <v>364</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3881,13 +3890,13 @@
         <v>144</v>
       </c>
       <c r="B142" s="2">
-        <v>79.98999999999999</v>
+        <v>81.39</v>
       </c>
       <c r="C142" s="2">
-        <v>12614422528</v>
+        <v>12835203072</v>
       </c>
       <c r="D142" s="3">
-        <v>2485</v>
+        <v>732</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3895,13 +3904,13 @@
         <v>145</v>
       </c>
       <c r="B143" s="2">
-        <v>195.96</v>
+        <v>201.9</v>
       </c>
       <c r="C143" s="2">
-        <v>29770635264</v>
+        <v>30673051648</v>
       </c>
       <c r="D143" s="3">
-        <v>1014</v>
+        <v>295</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3909,13 +3918,13 @@
         <v>146</v>
       </c>
       <c r="B144" s="2">
-        <v>465.9</v>
+        <v>462.95</v>
       </c>
       <c r="C144" s="2">
-        <v>127497732096</v>
+        <v>126663122944</v>
       </c>
       <c r="D144" s="3">
-        <v>426</v>
+        <v>128</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3923,13 +3932,13 @@
         <v>147</v>
       </c>
       <c r="B145" s="2">
-        <v>127.59</v>
+        <v>125.84</v>
       </c>
       <c r="C145" s="2">
-        <v>87314300928</v>
+        <v>88339177472</v>
       </c>
       <c r="D145" s="3">
-        <v>1558</v>
+        <v>473</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3937,13 +3946,13 @@
         <v>148</v>
       </c>
       <c r="B146" s="2">
-        <v>63.82</v>
+        <v>63.41</v>
       </c>
       <c r="C146" s="2">
-        <v>41181835264</v>
+        <v>40917270528</v>
       </c>
       <c r="D146" s="3">
-        <v>3115</v>
+        <v>940</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3951,13 +3960,13 @@
         <v>149</v>
       </c>
       <c r="B147" s="2">
-        <v>37.95</v>
+        <v>37.61</v>
       </c>
       <c r="C147" s="2">
-        <v>24929353728</v>
+        <v>24706009088</v>
       </c>
       <c r="D147" s="3">
-        <v>5238</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3965,13 +3974,13 @@
         <v>150</v>
       </c>
       <c r="B148" s="2">
-        <v>77.98999999999999</v>
+        <v>79.31</v>
       </c>
       <c r="C148" s="2">
-        <v>30505474048</v>
+        <v>30978088960</v>
       </c>
       <c r="D148" s="3">
-        <v>2549</v>
+        <v>752</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3979,13 +3988,13 @@
         <v>151</v>
       </c>
       <c r="B149" s="2">
-        <v>177.59</v>
+        <v>175.83</v>
       </c>
       <c r="C149" s="2">
-        <v>51854323712</v>
+        <v>51340423168</v>
       </c>
       <c r="D149" s="3">
-        <v>1119</v>
+        <v>339</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3993,13 +4002,13 @@
         <v>152</v>
       </c>
       <c r="B150" s="2">
-        <v>195.69</v>
+        <v>192.16</v>
       </c>
       <c r="C150" s="2">
-        <v>66026000384</v>
+        <v>64971026432</v>
       </c>
       <c r="D150" s="3">
-        <v>1015</v>
+        <v>310</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4007,13 +4016,13 @@
         <v>153</v>
       </c>
       <c r="B151" s="2">
-        <v>182.43</v>
+        <v>180.11</v>
       </c>
       <c r="C151" s="2">
-        <v>45835534336</v>
+        <v>45220577280</v>
       </c>
       <c r="D151" s="3">
-        <v>1089</v>
+        <v>331</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4021,13 +4030,13 @@
         <v>154</v>
       </c>
       <c r="B152" s="2">
-        <v>77.27</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="C152" s="2">
-        <v>16992831488</v>
+        <v>17107188736</v>
       </c>
       <c r="D152" s="3">
-        <v>2572</v>
+        <v>766</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4035,13 +4044,13 @@
         <v>155</v>
       </c>
       <c r="B153" s="2">
-        <v>71.27</v>
+        <v>72.81</v>
       </c>
       <c r="C153" s="2">
-        <v>15371940864</v>
+        <v>15653567488</v>
       </c>
       <c r="D153" s="3">
-        <v>2789</v>
+        <v>819</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4049,13 +4058,13 @@
         <v>156</v>
       </c>
       <c r="B154" s="2">
-        <v>58.75</v>
+        <v>57.34</v>
       </c>
       <c r="C154" s="2">
-        <v>50148589568</v>
+        <v>48166170624</v>
       </c>
       <c r="D154" s="3">
-        <v>3383</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4063,13 +4072,13 @@
         <v>157</v>
       </c>
       <c r="B155" s="2">
-        <v>476.19</v>
+        <v>466.18</v>
       </c>
       <c r="C155" s="2">
-        <v>16443793408</v>
+        <v>16098127872</v>
       </c>
       <c r="D155" s="3">
-        <v>417</v>
+        <v>127</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4077,13 +4086,13 @@
         <v>158</v>
       </c>
       <c r="B156" s="2">
-        <v>205.9</v>
+        <v>204.7</v>
       </c>
       <c r="C156" s="2">
-        <v>28331427840</v>
+        <v>28083202048</v>
       </c>
       <c r="D156" s="3">
-        <v>965</v>
+        <v>291</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4091,13 +4100,13 @@
         <v>159</v>
       </c>
       <c r="B157" s="2">
-        <v>44.21</v>
+        <v>44.38</v>
       </c>
       <c r="C157" s="2">
-        <v>31252092928</v>
+        <v>31070085120</v>
       </c>
       <c r="D157" s="3">
-        <v>4496</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4105,13 +4114,13 @@
         <v>160</v>
       </c>
       <c r="B158" s="2">
-        <v>168.78</v>
+        <v>167.4</v>
       </c>
       <c r="C158" s="2">
-        <v>54415687680</v>
+        <v>53763854336</v>
       </c>
       <c r="D158" s="3">
-        <v>1177</v>
+        <v>356</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4119,13 +4128,13 @@
         <v>161</v>
       </c>
       <c r="B159" s="2">
-        <v>125.78</v>
+        <v>123.6</v>
       </c>
       <c r="C159" s="2">
-        <v>26111299584</v>
+        <v>25597681664</v>
       </c>
       <c r="D159" s="3">
-        <v>1580</v>
+        <v>482</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4133,13 +4142,13 @@
         <v>162</v>
       </c>
       <c r="B160" s="2">
-        <v>117.05</v>
+        <v>115.18</v>
       </c>
       <c r="C160" s="2">
-        <v>90704863232</v>
+        <v>88974475264</v>
       </c>
       <c r="D160" s="3">
-        <v>1698</v>
+        <v>517</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4147,13 +4156,13 @@
         <v>163</v>
       </c>
       <c r="B161" s="2">
-        <v>83.59</v>
+        <v>83.72</v>
       </c>
       <c r="C161" s="2">
-        <v>35066421248</v>
+        <v>34991194112</v>
       </c>
       <c r="D161" s="3">
-        <v>2378</v>
+        <v>712</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4161,13 +4170,13 @@
         <v>164</v>
       </c>
       <c r="B162" s="2">
-        <v>104.72</v>
+        <v>104.27</v>
       </c>
       <c r="C162" s="2">
-        <v>12138409984</v>
+        <v>12086248448</v>
       </c>
       <c r="D162" s="3">
-        <v>1898</v>
+        <v>571</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4175,13 +4184,13 @@
         <v>165</v>
       </c>
       <c r="B163" s="2">
-        <v>375.42</v>
+        <v>372.22</v>
       </c>
       <c r="C163" s="2">
-        <v>148365983744</v>
+        <v>147101351936</v>
       </c>
       <c r="D163" s="3">
-        <v>529</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4189,13 +4198,13 @@
         <v>166</v>
       </c>
       <c r="B164" s="2">
-        <v>63.29</v>
+        <v>63.17</v>
       </c>
       <c r="C164" s="2">
-        <v>30804508672</v>
+        <v>30258429952</v>
       </c>
       <c r="D164" s="3">
-        <v>3141</v>
+        <v>944</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4203,13 +4212,13 @@
         <v>167</v>
       </c>
       <c r="B165" s="2">
-        <v>248.77</v>
+        <v>248.45</v>
       </c>
       <c r="C165" s="2">
-        <v>70442205184</v>
+        <v>70351593472</v>
       </c>
       <c r="D165" s="3">
-        <v>799</v>
+        <v>240</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4217,13 +4226,13 @@
         <v>168</v>
       </c>
       <c r="B166" s="2">
-        <v>87.75</v>
+        <v>85.78</v>
       </c>
       <c r="C166" s="2">
-        <v>34208634880</v>
+        <v>33209726976</v>
       </c>
       <c r="D166" s="3">
-        <v>2265</v>
+        <v>695</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4231,13 +4240,13 @@
         <v>169</v>
       </c>
       <c r="B167" s="2">
-        <v>71.34999999999999</v>
+        <v>70.53</v>
       </c>
       <c r="C167" s="2">
-        <v>42506903552</v>
+        <v>41598595072</v>
       </c>
       <c r="D167" s="3">
-        <v>2786</v>
+        <v>845</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4245,13 +4254,13 @@
         <v>170</v>
       </c>
       <c r="B168" s="2">
-        <v>163.67</v>
+        <v>165.96</v>
       </c>
       <c r="C168" s="2">
-        <v>42926219264</v>
+        <v>43526828032</v>
       </c>
       <c r="D168" s="3">
-        <v>1214</v>
+        <v>359</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4259,13 +4268,13 @@
         <v>171</v>
       </c>
       <c r="B169" s="2">
-        <v>406.96</v>
+        <v>410.39</v>
       </c>
       <c r="C169" s="2">
-        <v>94383382528</v>
+        <v>95178883072</v>
       </c>
       <c r="D169" s="3">
-        <v>488</v>
+        <v>145</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4273,13 +4282,13 @@
         <v>172</v>
       </c>
       <c r="B170" s="2">
-        <v>132.6</v>
+        <v>133.77</v>
       </c>
       <c r="C170" s="2">
-        <v>75608522752</v>
+        <v>76275654656</v>
       </c>
       <c r="D170" s="3">
-        <v>1499</v>
+        <v>445</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4287,13 +4296,13 @@
         <v>173</v>
       </c>
       <c r="B171" s="2">
-        <v>71.34999999999999</v>
+        <v>75.12</v>
       </c>
       <c r="C171" s="2">
-        <v>9639884800</v>
+        <v>10149238784</v>
       </c>
       <c r="D171" s="3">
-        <v>2786</v>
+        <v>793</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4301,13 +4310,13 @@
         <v>174</v>
       </c>
       <c r="B172" s="2">
-        <v>156.17</v>
+        <v>153.25</v>
       </c>
       <c r="C172" s="2">
-        <v>33533446144</v>
+        <v>32858025984</v>
       </c>
       <c r="D172" s="3">
-        <v>1273</v>
+        <v>389</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4315,13 +4324,13 @@
         <v>175</v>
       </c>
       <c r="B173" s="2">
-        <v>133.26</v>
+        <v>131.24</v>
       </c>
       <c r="C173" s="2">
-        <v>74952081408</v>
+        <v>73815941120</v>
       </c>
       <c r="D173" s="3">
-        <v>1491</v>
+        <v>454</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4329,13 +4338,13 @@
         <v>176</v>
       </c>
       <c r="B174" s="2">
-        <v>243.92</v>
+        <v>243.79</v>
       </c>
       <c r="C174" s="2">
-        <v>13941564416</v>
+        <v>13828109312</v>
       </c>
       <c r="D174" s="3">
-        <v>815</v>
+        <v>244</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4343,13 +4352,13 @@
         <v>177</v>
       </c>
       <c r="B175" s="2">
-        <v>45.44</v>
+        <v>44.53</v>
       </c>
       <c r="C175" s="2">
-        <v>27113322496</v>
+        <v>26570338304</v>
       </c>
       <c r="D175" s="3">
-        <v>4375</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4357,13 +4366,13 @@
         <v>178</v>
       </c>
       <c r="B176" s="2">
-        <v>261.56</v>
+        <v>258.7</v>
       </c>
       <c r="C176" s="2">
-        <v>32420884480</v>
+        <v>32066383872</v>
       </c>
       <c r="D176" s="3">
-        <v>760</v>
+        <v>230</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4371,13 +4380,13 @@
         <v>179</v>
       </c>
       <c r="B177" s="2">
-        <v>981.48</v>
+        <v>964.84</v>
       </c>
       <c r="C177" s="2">
-        <v>94701240320</v>
+        <v>93095673856</v>
       </c>
       <c r="D177" s="3">
-        <v>202</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4385,13 +4394,13 @@
         <v>180</v>
       </c>
       <c r="B178" s="2">
-        <v>76.66</v>
+        <v>75.23999999999999</v>
       </c>
       <c r="C178" s="2">
-        <v>30301935616</v>
+        <v>29425836032</v>
       </c>
       <c r="D178" s="3">
-        <v>2593</v>
+        <v>792</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4399,13 +4408,13 @@
         <v>181</v>
       </c>
       <c r="B179" s="2">
-        <v>440.56</v>
+        <v>437.25</v>
       </c>
       <c r="C179" s="2">
-        <v>22909251584</v>
+        <v>22863759360</v>
       </c>
       <c r="D179" s="3">
-        <v>451</v>
+        <v>136</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4413,13 +4422,13 @@
         <v>182</v>
       </c>
       <c r="B180" s="2">
-        <v>310.46</v>
+        <v>304.09</v>
       </c>
       <c r="C180" s="2">
-        <v>20835123200</v>
+        <v>20252362752</v>
       </c>
       <c r="D180" s="3">
-        <v>640</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4427,13 +4436,13 @@
         <v>183</v>
       </c>
       <c r="B181" s="2">
-        <v>72.12</v>
+        <v>75.98</v>
       </c>
       <c r="C181" s="2">
-        <v>26550040576</v>
+        <v>27275149312</v>
       </c>
       <c r="D181" s="3">
-        <v>2756</v>
+        <v>784</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4441,13 +4450,13 @@
         <v>184</v>
       </c>
       <c r="B182" s="2">
-        <v>387.56</v>
+        <v>383.73</v>
       </c>
       <c r="C182" s="2">
-        <v>16718679040</v>
+        <v>16492178432</v>
       </c>
       <c r="D182" s="3">
-        <v>512</v>
+        <v>155</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4455,13 +4464,13 @@
         <v>185</v>
       </c>
       <c r="B183" s="2">
-        <v>64.63</v>
+        <v>63.61</v>
       </c>
       <c r="C183" s="2">
-        <v>14948465664</v>
+        <v>14628773888</v>
       </c>
       <c r="D183" s="3">
-        <v>3076</v>
+        <v>937</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4469,13 +4478,13 @@
         <v>186</v>
       </c>
       <c r="B184" s="2">
-        <v>64.48999999999999</v>
+        <v>63.67</v>
       </c>
       <c r="C184" s="2">
-        <v>23665893376</v>
+        <v>23328813056</v>
       </c>
       <c r="D184" s="3">
-        <v>3082</v>
+        <v>936</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4483,13 +4492,13 @@
         <v>187</v>
       </c>
       <c r="B185" s="2">
-        <v>39.56</v>
+        <v>38.37</v>
       </c>
       <c r="C185" s="2">
-        <v>39751077888</v>
+        <v>38555328512</v>
       </c>
       <c r="D185" s="3">
-        <v>5025</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4497,13 +4506,13 @@
         <v>188</v>
       </c>
       <c r="B186" s="2">
-        <v>184.62</v>
+        <v>185.01</v>
       </c>
       <c r="C186" s="2">
-        <v>23733823488</v>
+        <v>23745292288</v>
       </c>
       <c r="D186" s="3">
-        <v>1076</v>
+        <v>322</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4511,13 +4520,13 @@
         <v>189</v>
       </c>
       <c r="B187" s="2">
-        <v>121.64</v>
+        <v>121.47</v>
       </c>
       <c r="C187" s="2">
-        <v>17026680832</v>
+        <v>17002885120</v>
       </c>
       <c r="D187" s="3">
-        <v>1634</v>
+        <v>491</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4525,13 +4534,13 @@
         <v>190</v>
       </c>
       <c r="B188" s="2">
-        <v>170.96</v>
+        <v>169.73</v>
       </c>
       <c r="C188" s="2">
-        <v>37707108352</v>
+        <v>37435817984</v>
       </c>
       <c r="D188" s="3">
-        <v>1162</v>
+        <v>351</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4539,13 +4548,13 @@
         <v>191</v>
       </c>
       <c r="B189" s="2">
-        <v>117.96</v>
+        <v>117.85</v>
       </c>
       <c r="C189" s="2">
-        <v>518444810240</v>
+        <v>517961351168</v>
       </c>
       <c r="D189" s="3">
-        <v>1685</v>
+        <v>506</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4553,13 +4562,13 @@
         <v>192</v>
       </c>
       <c r="B190" s="2">
-        <v>250.35</v>
+        <v>252.14</v>
       </c>
       <c r="C190" s="2">
-        <v>14674240512</v>
+        <v>14779160576</v>
       </c>
       <c r="D190" s="3">
-        <v>794</v>
+        <v>236</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4567,13 +4576,13 @@
         <v>193</v>
       </c>
       <c r="B191" s="2">
-        <v>490.67</v>
+        <v>489.47</v>
       </c>
       <c r="C191" s="2">
-        <v>18639964160</v>
+        <v>18594377728</v>
       </c>
       <c r="D191" s="3">
-        <v>405</v>
+        <v>121</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4581,13 +4590,13 @@
         <v>194</v>
       </c>
       <c r="B192" s="2">
-        <v>2375.03</v>
+        <v>2332.11</v>
       </c>
       <c r="C192" s="2">
-        <v>57826992128</v>
+        <v>56781983744</v>
       </c>
       <c r="D192" s="3">
-        <v>83</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4595,13 +4604,13 @@
         <v>195</v>
       </c>
       <c r="B193" s="2">
-        <v>83.56</v>
+        <v>82.67</v>
       </c>
       <c r="C193" s="2">
-        <v>47956336640</v>
+        <v>47360487424</v>
       </c>
       <c r="D193" s="3">
-        <v>2379</v>
+        <v>721</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4609,13 +4618,13 @@
         <v>196</v>
       </c>
       <c r="B194" s="2">
-        <v>116.65</v>
+        <v>114.25</v>
       </c>
       <c r="C194" s="2">
-        <v>10059698176</v>
+        <v>9778954240</v>
       </c>
       <c r="D194" s="3">
-        <v>1704</v>
+        <v>522</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4623,13 +4632,13 @@
         <v>197</v>
       </c>
       <c r="B195" s="2">
-        <v>302.67</v>
+        <v>296.69</v>
       </c>
       <c r="C195" s="2">
-        <v>74125393920</v>
+        <v>72488189952</v>
       </c>
       <c r="D195" s="3">
-        <v>656</v>
+        <v>201</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4637,13 +4646,13 @@
         <v>198</v>
       </c>
       <c r="B196" s="2">
-        <v>85.3</v>
+        <v>85.13</v>
       </c>
       <c r="C196" s="2">
-        <v>46056202240</v>
+        <v>45830074368</v>
       </c>
       <c r="D196" s="3">
-        <v>2330</v>
+        <v>700</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4651,13 +4660,13 @@
         <v>199</v>
       </c>
       <c r="B197" s="2">
-        <v>48.06</v>
+        <v>47.57</v>
       </c>
       <c r="C197" s="2">
-        <v>32293390336</v>
+        <v>31897729024</v>
       </c>
       <c r="D197" s="3">
-        <v>4136</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4665,13 +4674,13 @@
         <v>200</v>
       </c>
       <c r="B198" s="2">
-        <v>199.27</v>
+        <v>207.92</v>
       </c>
       <c r="C198" s="2">
-        <v>21333448704</v>
+        <v>22259499008</v>
       </c>
       <c r="D198" s="3">
-        <v>997</v>
+        <v>286</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4679,13 +4688,13 @@
         <v>201</v>
       </c>
       <c r="B199" s="2">
-        <v>42.55</v>
+        <v>41.59</v>
       </c>
       <c r="C199" s="2">
-        <v>24562626560</v>
+        <v>23969024000</v>
       </c>
       <c r="D199" s="3">
-        <v>4672</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4693,13 +4702,13 @@
         <v>202</v>
       </c>
       <c r="B200" s="2">
-        <v>220.96</v>
+        <v>218.51</v>
       </c>
       <c r="C200" s="2">
-        <v>125708337152</v>
+        <v>124314484736</v>
       </c>
       <c r="D200" s="3">
-        <v>899</v>
+        <v>272</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4707,13 +4716,13 @@
         <v>203</v>
       </c>
       <c r="B201" s="2">
-        <v>59.09</v>
+        <v>59.38</v>
       </c>
       <c r="C201" s="2">
-        <v>7427730944</v>
+        <v>7412761600</v>
       </c>
       <c r="D201" s="3">
-        <v>3364</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4721,13 +4730,13 @@
         <v>204</v>
       </c>
       <c r="B202" s="2">
-        <v>11.13</v>
+        <v>10.98</v>
       </c>
       <c r="C202" s="2">
-        <v>44114644992</v>
+        <v>43637702656</v>
       </c>
       <c r="D202" s="3">
-        <v>17862</v>
+        <v>5431</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4735,13 +4744,13 @@
         <v>205</v>
       </c>
       <c r="B203" s="2">
-        <v>95.05</v>
+        <v>95.31999999999999</v>
       </c>
       <c r="C203" s="2">
-        <v>72851357696</v>
+        <v>73058295808</v>
       </c>
       <c r="D203" s="3">
-        <v>2091</v>
+        <v>625</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4749,13 +4758,13 @@
         <v>206</v>
       </c>
       <c r="B204" s="2">
-        <v>79.33</v>
+        <v>78.95999999999999</v>
       </c>
       <c r="C204" s="2">
-        <v>27547740160</v>
+        <v>27395092480</v>
       </c>
       <c r="D204" s="3">
-        <v>2506</v>
+        <v>755</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4763,13 +4772,13 @@
         <v>207</v>
       </c>
       <c r="B205" s="2">
-        <v>47.12</v>
+        <v>46.77</v>
       </c>
       <c r="C205" s="2">
-        <v>20780531712</v>
+        <v>20805586944</v>
       </c>
       <c r="D205" s="3">
-        <v>4219</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4777,13 +4786,13 @@
         <v>208</v>
       </c>
       <c r="B206" s="2">
-        <v>44.73</v>
+        <v>44.41</v>
       </c>
       <c r="C206" s="2">
-        <v>20780527616</v>
+        <v>20805595136</v>
       </c>
       <c r="D206" s="3">
-        <v>4444</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4791,13 +4800,13 @@
         <v>209</v>
       </c>
       <c r="B207" s="2">
-        <v>22.76</v>
+        <v>22.59</v>
       </c>
       <c r="C207" s="2">
-        <v>11918684160</v>
+        <v>11829660672</v>
       </c>
       <c r="D207" s="3">
-        <v>8734</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4805,13 +4814,13 @@
         <v>210</v>
       </c>
       <c r="B208" s="2">
-        <v>44.2</v>
+        <v>43.64</v>
       </c>
       <c r="C208" s="2">
-        <v>63512309760</v>
+        <v>62707625984</v>
       </c>
       <c r="D208" s="3">
-        <v>4497</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4819,13 +4828,13 @@
         <v>211</v>
       </c>
       <c r="B209" s="2">
-        <v>212.6</v>
+        <v>213.46</v>
       </c>
       <c r="C209" s="2">
-        <v>40824512512</v>
+        <v>40989655040</v>
       </c>
       <c r="D209" s="3">
-        <v>935</v>
+        <v>279</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4833,13 +4842,13 @@
         <v>212</v>
       </c>
       <c r="B210" s="2">
-        <v>517.9299999999999</v>
+        <v>517</v>
       </c>
       <c r="C210" s="2">
-        <v>40050442240</v>
+        <v>39878434816</v>
       </c>
       <c r="D210" s="3">
-        <v>383</v>
+        <v>115</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4847,13 +4856,13 @@
         <v>213</v>
       </c>
       <c r="B211" s="2">
-        <v>182.16</v>
+        <v>180.44</v>
       </c>
       <c r="C211" s="2">
-        <v>197149966336</v>
+        <v>195288416256</v>
       </c>
       <c r="D211" s="3">
-        <v>1091</v>
+        <v>330</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4861,13 +4870,13 @@
         <v>214</v>
       </c>
       <c r="B212" s="2">
-        <v>83.22</v>
+        <v>83.08</v>
       </c>
       <c r="C212" s="2">
-        <v>38020972544</v>
+        <v>37957009408</v>
       </c>
       <c r="D212" s="3">
-        <v>2388</v>
+        <v>717</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4875,13 +4884,13 @@
         <v>215</v>
       </c>
       <c r="B213" s="2">
-        <v>334.12</v>
+        <v>337.54</v>
       </c>
       <c r="C213" s="2">
-        <v>92434636800</v>
+        <v>93043916800</v>
       </c>
       <c r="D213" s="3">
-        <v>595</v>
+        <v>176</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4889,13 +4898,13 @@
         <v>216</v>
       </c>
       <c r="B214" s="2">
-        <v>30.85</v>
+        <v>30.93</v>
       </c>
       <c r="C214" s="2">
-        <v>19009925120</v>
+        <v>19059220480</v>
       </c>
       <c r="D214" s="3">
-        <v>6444</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4903,13 +4912,13 @@
         <v>217</v>
       </c>
       <c r="B215" s="2">
-        <v>188.2</v>
+        <v>187.45</v>
       </c>
       <c r="C215" s="2">
-        <v>11328284672</v>
+        <v>11152769024</v>
       </c>
       <c r="D215" s="3">
-        <v>1056</v>
+        <v>318</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4917,13 +4926,13 @@
         <v>218</v>
       </c>
       <c r="B216" s="2">
-        <v>284.01</v>
+        <v>276.44</v>
       </c>
       <c r="C216" s="2">
-        <v>78093942784</v>
+        <v>76012429312</v>
       </c>
       <c r="D216" s="3">
-        <v>700</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4931,13 +4940,13 @@
         <v>219</v>
       </c>
       <c r="B217" s="2">
-        <v>66.26000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="C217" s="2">
-        <v>36784836608</v>
+        <v>37201203200</v>
       </c>
       <c r="D217" s="3">
-        <v>3000</v>
+        <v>890</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4945,13 +4954,13 @@
         <v>220</v>
       </c>
       <c r="B218" s="2">
-        <v>55.59</v>
+        <v>55.04</v>
       </c>
       <c r="C218" s="2">
-        <v>61126762496</v>
+        <v>60521984000</v>
       </c>
       <c r="D218" s="3">
-        <v>3576</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4959,13 +4968,13 @@
         <v>221</v>
       </c>
       <c r="B219" s="2">
-        <v>126.73</v>
+        <v>127.53</v>
       </c>
       <c r="C219" s="2">
-        <v>17639548928</v>
+        <v>17731260416</v>
       </c>
       <c r="D219" s="3">
-        <v>1568</v>
+        <v>467</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4973,13 +4982,13 @@
         <v>222</v>
       </c>
       <c r="B220" s="2">
-        <v>92.58</v>
+        <v>94.02</v>
       </c>
       <c r="C220" s="2">
-        <v>115379675136</v>
+        <v>117174296576</v>
       </c>
       <c r="D220" s="3">
-        <v>2147</v>
+        <v>634</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4987,13 +4996,13 @@
         <v>223</v>
       </c>
       <c r="B221" s="2">
-        <v>118.96</v>
+        <v>118.13</v>
       </c>
       <c r="C221" s="2">
-        <v>30381549568</v>
+        <v>30063495168</v>
       </c>
       <c r="D221" s="3">
-        <v>1671</v>
+        <v>504</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5001,13 +5010,13 @@
         <v>224</v>
       </c>
       <c r="B222" s="2">
-        <v>111.24</v>
+        <v>110.04</v>
       </c>
       <c r="C222" s="2">
-        <v>9376664576</v>
+        <v>9237319680</v>
       </c>
       <c r="D222" s="3">
-        <v>1787</v>
+        <v>542</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5015,13 +5024,13 @@
         <v>225</v>
       </c>
       <c r="B223" s="2">
-        <v>197.57</v>
+        <v>197.62</v>
       </c>
       <c r="C223" s="2">
-        <v>27776366592</v>
+        <v>27744069632</v>
       </c>
       <c r="D223" s="3">
-        <v>1006</v>
+        <v>301</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5029,13 +5038,13 @@
         <v>226</v>
       </c>
       <c r="B224" s="2">
-        <v>608.5700000000001</v>
+        <v>601.71</v>
       </c>
       <c r="C224" s="2">
-        <v>191036227584</v>
+        <v>188882796544</v>
       </c>
       <c r="D224" s="3">
-        <v>326</v>
+        <v>99</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5043,13 +5052,13 @@
         <v>227</v>
       </c>
       <c r="B225" s="2">
-        <v>31.86</v>
+        <v>31.56</v>
       </c>
       <c r="C225" s="2">
-        <v>28006629376</v>
+        <v>27725522944</v>
       </c>
       <c r="D225" s="3">
-        <v>6240</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5057,13 +5066,13 @@
         <v>228</v>
       </c>
       <c r="B226" s="2">
-        <v>123.31</v>
+        <v>121.22</v>
       </c>
       <c r="C226" s="2">
-        <v>35871125504</v>
+        <v>35140587520</v>
       </c>
       <c r="D226" s="3">
-        <v>1612</v>
+        <v>492</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5071,13 +5080,13 @@
         <v>229</v>
       </c>
       <c r="B227" s="2">
-        <v>65.15000000000001</v>
+        <v>64.73</v>
       </c>
       <c r="C227" s="2">
-        <v>9088489472</v>
+        <v>9029899264</v>
       </c>
       <c r="D227" s="3">
-        <v>3051</v>
+        <v>921</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5085,13 +5094,13 @@
         <v>230</v>
       </c>
       <c r="B228" s="2">
-        <v>327.22</v>
+        <v>327.63</v>
       </c>
       <c r="C228" s="2">
-        <v>82883837952</v>
+        <v>82987696128</v>
       </c>
       <c r="D228" s="3">
-        <v>607</v>
+        <v>182</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5099,13 +5108,13 @@
         <v>231</v>
       </c>
       <c r="B229" s="2">
-        <v>21.99</v>
+        <v>21.65</v>
       </c>
       <c r="C229" s="2">
-        <v>15555615744</v>
+        <v>15142940672</v>
       </c>
       <c r="D229" s="3">
-        <v>9040</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5113,13 +5122,13 @@
         <v>232</v>
       </c>
       <c r="B230" s="2">
-        <v>77.05</v>
+        <v>76.5</v>
       </c>
       <c r="C230" s="2">
-        <v>9682719744</v>
+        <v>9538096128</v>
       </c>
       <c r="D230" s="3">
-        <v>2580</v>
+        <v>779</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5127,13 +5136,13 @@
         <v>233</v>
       </c>
       <c r="B231" s="2">
-        <v>176.13</v>
+        <v>177.82</v>
       </c>
       <c r="C231" s="2">
-        <v>35227938816</v>
+        <v>35982770176</v>
       </c>
       <c r="D231" s="3">
-        <v>1128</v>
+        <v>335</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5141,13 +5150,13 @@
         <v>234</v>
       </c>
       <c r="B232" s="2">
-        <v>147.18</v>
+        <v>146.96</v>
       </c>
       <c r="C232" s="2">
-        <v>45348806656</v>
+        <v>45281026048</v>
       </c>
       <c r="D232" s="3">
-        <v>1350</v>
+        <v>405</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5155,13 +5164,13 @@
         <v>235</v>
       </c>
       <c r="B233" s="2">
-        <v>21.22</v>
+        <v>21.25</v>
       </c>
       <c r="C233" s="2">
-        <v>27557775360</v>
+        <v>27596736512</v>
       </c>
       <c r="D233" s="3">
-        <v>9368</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5169,13 +5178,13 @@
         <v>236</v>
       </c>
       <c r="B234" s="2">
-        <v>253.44</v>
+        <v>250.47</v>
       </c>
       <c r="C234" s="2">
-        <v>61783605248</v>
+        <v>61059575808</v>
       </c>
       <c r="D234" s="3">
-        <v>784</v>
+        <v>238</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5183,13 +5192,13 @@
         <v>237</v>
       </c>
       <c r="B235" s="2">
-        <v>79.5</v>
+        <v>79</v>
       </c>
       <c r="C235" s="2">
-        <v>18041808896</v>
+        <v>17928337408</v>
       </c>
       <c r="D235" s="3">
-        <v>2500</v>
+        <v>754</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5197,13 +5206,13 @@
         <v>238</v>
       </c>
       <c r="B236" s="2">
-        <v>429.13</v>
+        <v>426.96</v>
       </c>
       <c r="C236" s="2">
-        <v>426281861120</v>
+        <v>424126251008</v>
       </c>
       <c r="D236" s="3">
-        <v>463</v>
+        <v>139</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5211,13 +5220,13 @@
         <v>239</v>
       </c>
       <c r="B237" s="2">
-        <v>232.93</v>
+        <v>229.95</v>
       </c>
       <c r="C237" s="2">
-        <v>151462019072</v>
+        <v>149524283392</v>
       </c>
       <c r="D237" s="3">
-        <v>853</v>
+        <v>259</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5225,13 +5234,13 @@
         <v>240</v>
       </c>
       <c r="B238" s="2">
-        <v>32.43</v>
+        <v>32.14</v>
       </c>
       <c r="C238" s="2">
-        <v>17783445504</v>
+        <v>17624420352</v>
       </c>
       <c r="D238" s="3">
-        <v>6130</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5239,13 +5248,13 @@
         <v>241</v>
       </c>
       <c r="B239" s="2">
-        <v>18.42</v>
+        <v>18.39</v>
       </c>
       <c r="C239" s="2">
-        <v>13058195456</v>
+        <v>13029848064</v>
       </c>
       <c r="D239" s="3">
-        <v>10793</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5253,13 +5262,13 @@
         <v>242</v>
       </c>
       <c r="B240" s="2">
-        <v>118.38</v>
+        <v>117.69</v>
       </c>
       <c r="C240" s="2">
-        <v>48093175808</v>
+        <v>47812857856</v>
       </c>
       <c r="D240" s="3">
-        <v>1679</v>
+        <v>506</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5267,13 +5276,13 @@
         <v>243</v>
       </c>
       <c r="B241" s="2">
-        <v>35.43</v>
+        <v>36.45</v>
       </c>
       <c r="C241" s="2">
-        <v>34133544960</v>
+        <v>35116220416</v>
       </c>
       <c r="D241" s="3">
-        <v>5611</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5281,13 +5290,13 @@
         <v>244</v>
       </c>
       <c r="B242" s="2">
-        <v>460.09</v>
+        <v>457.23</v>
       </c>
       <c r="C242" s="2">
-        <v>24693260288</v>
+        <v>24539762688</v>
       </c>
       <c r="D242" s="3">
-        <v>432</v>
+        <v>130</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5295,13 +5304,13 @@
         <v>245</v>
       </c>
       <c r="B243" s="2">
-        <v>296.38</v>
+        <v>293.13</v>
       </c>
       <c r="C243" s="2">
-        <v>35723571200</v>
+        <v>35296075776</v>
       </c>
       <c r="D243" s="3">
-        <v>670</v>
+        <v>203</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5309,13 +5318,13 @@
         <v>246</v>
       </c>
       <c r="B244" s="2">
-        <v>18.01</v>
+        <v>17.78</v>
       </c>
       <c r="C244" s="2">
-        <v>26165108736</v>
+        <v>25830963200</v>
       </c>
       <c r="D244" s="3">
-        <v>11038</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5323,13 +5332,13 @@
         <v>247</v>
       </c>
       <c r="B245" s="2">
-        <v>197.92</v>
+        <v>194.84</v>
       </c>
       <c r="C245" s="2">
-        <v>7801214464</v>
+        <v>7623952896</v>
       </c>
       <c r="D245" s="3">
-        <v>1004</v>
+        <v>306</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5337,13 +5346,13 @@
         <v>248</v>
       </c>
       <c r="B246" s="2">
-        <v>227.41</v>
+        <v>227.39</v>
       </c>
       <c r="C246" s="2">
-        <v>210273517568</v>
+        <v>210255020032</v>
       </c>
       <c r="D246" s="3">
-        <v>874</v>
+        <v>262</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5351,13 +5360,13 @@
         <v>249</v>
       </c>
       <c r="B247" s="2">
-        <v>230.63</v>
+        <v>231.81</v>
       </c>
       <c r="C247" s="2">
-        <v>17499652096</v>
+        <v>17553416192</v>
       </c>
       <c r="D247" s="3">
-        <v>862</v>
+        <v>257</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5365,13 +5374,13 @@
         <v>250</v>
       </c>
       <c r="B248" s="2">
-        <v>421.75</v>
+        <v>430.77</v>
       </c>
       <c r="C248" s="2">
-        <v>34535673856</v>
+        <v>35273474048</v>
       </c>
       <c r="D248" s="3">
-        <v>471</v>
+        <v>138</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5379,13 +5388,13 @@
         <v>251</v>
       </c>
       <c r="B249" s="2">
-        <v>277.52</v>
+        <v>278.5</v>
       </c>
       <c r="C249" s="2">
-        <v>81951653888</v>
+        <v>82241052672</v>
       </c>
       <c r="D249" s="3">
-        <v>716</v>
+        <v>214</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5393,13 +5402,13 @@
         <v>252</v>
       </c>
       <c r="B250" s="2">
-        <v>74.59</v>
+        <v>73.23999999999999</v>
       </c>
       <c r="C250" s="2">
-        <v>14535428096</v>
+        <v>14109685760</v>
       </c>
       <c r="D250" s="3">
-        <v>2665</v>
+        <v>814</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5407,13 +5416,13 @@
         <v>253</v>
       </c>
       <c r="B251" s="2">
-        <v>104.17</v>
+        <v>105.12</v>
       </c>
       <c r="C251" s="2">
-        <v>41981759488</v>
+        <v>42364620800</v>
       </c>
       <c r="D251" s="3">
-        <v>1908</v>
+        <v>567</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5421,13 +5430,13 @@
         <v>254</v>
       </c>
       <c r="B252" s="2">
-        <v>266.78</v>
+        <v>266.49</v>
       </c>
       <c r="C252" s="2">
-        <v>18723047424</v>
+        <v>18692886528</v>
       </c>
       <c r="D252" s="3">
-        <v>745</v>
+        <v>223</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5435,13 +5444,13 @@
         <v>255</v>
       </c>
       <c r="B253" s="2">
-        <v>24.05</v>
+        <v>23.93</v>
       </c>
       <c r="C253" s="2">
-        <v>103727644672</v>
+        <v>103210090496</v>
       </c>
       <c r="D253" s="3">
-        <v>8266</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5449,13 +5458,13 @@
         <v>256</v>
       </c>
       <c r="B254" s="2">
-        <v>160.96</v>
+        <v>158.29</v>
       </c>
       <c r="C254" s="2">
-        <v>92551520256</v>
+        <v>90886479872</v>
       </c>
       <c r="D254" s="3">
-        <v>1235</v>
+        <v>376</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5463,13 +5472,13 @@
         <v>257</v>
       </c>
       <c r="B255" s="2">
-        <v>91.36</v>
+        <v>91.27</v>
       </c>
       <c r="C255" s="2">
-        <v>23359107072</v>
+        <v>23336095744</v>
       </c>
       <c r="D255" s="3">
-        <v>2176</v>
+        <v>653</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5477,13 +5486,13 @@
         <v>258</v>
       </c>
       <c r="B256" s="2">
-        <v>58.83</v>
+        <v>58.46</v>
       </c>
       <c r="C256" s="2">
-        <v>20438013952</v>
+        <v>20309471232</v>
       </c>
       <c r="D256" s="3">
-        <v>3379</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5491,13 +5500,13 @@
         <v>259</v>
       </c>
       <c r="B257" s="2">
-        <v>30.81</v>
+        <v>30.12</v>
       </c>
       <c r="C257" s="2">
-        <v>11477002240</v>
+        <v>11219971072</v>
       </c>
       <c r="D257" s="3">
-        <v>6452</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5505,13 +5514,13 @@
         <v>260</v>
       </c>
       <c r="B258" s="2">
-        <v>641.73</v>
+        <v>634.0700000000001</v>
       </c>
       <c r="C258" s="2">
-        <v>179631128576</v>
+        <v>177486970880</v>
       </c>
       <c r="D258" s="3">
-        <v>309</v>
+        <v>94</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5519,13 +5528,13 @@
         <v>261</v>
       </c>
       <c r="B259" s="2">
-        <v>542</v>
+        <v>542.85</v>
       </c>
       <c r="C259" s="2">
-        <v>193049018368</v>
+        <v>193351761920</v>
       </c>
       <c r="D259" s="3">
-        <v>366</v>
+        <v>109</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5539,7 +5548,7 @@
         <v>8130369536</v>
       </c>
       <c r="D260" s="3">
-        <v>10989</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5547,13 +5556,13 @@
         <v>263</v>
       </c>
       <c r="B261" s="2">
-        <v>34.25</v>
+        <v>33.9</v>
       </c>
       <c r="C261" s="2">
-        <v>21202290688</v>
+        <v>20767344640</v>
       </c>
       <c r="D261" s="3">
-        <v>5804</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5561,13 +5570,13 @@
         <v>264</v>
       </c>
       <c r="B262" s="2">
-        <v>200.84</v>
+        <v>201.79</v>
       </c>
       <c r="C262" s="2">
-        <v>36559507456</v>
+        <v>36624883712</v>
       </c>
       <c r="D262" s="3">
-        <v>989</v>
+        <v>295</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5575,13 +5584,13 @@
         <v>265</v>
       </c>
       <c r="B263" s="2">
-        <v>123.67</v>
+        <v>121.59</v>
       </c>
       <c r="C263" s="2">
-        <v>36459524096</v>
+        <v>35681800192</v>
       </c>
       <c r="D263" s="3">
-        <v>1607</v>
+        <v>490</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5589,13 +5598,13 @@
         <v>266</v>
       </c>
       <c r="B264" s="2">
-        <v>189.11</v>
+        <v>189.24</v>
       </c>
       <c r="C264" s="2">
-        <v>19188992000</v>
+        <v>19081070592</v>
       </c>
       <c r="D264" s="3">
-        <v>1051</v>
+        <v>315</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5603,13 +5612,13 @@
         <v>267</v>
       </c>
       <c r="B265" s="2">
-        <v>135.83</v>
+        <v>135.19</v>
       </c>
       <c r="C265" s="2">
-        <v>15327464448</v>
+        <v>15255245824</v>
       </c>
       <c r="D265" s="3">
-        <v>1463</v>
+        <v>441</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5617,13 +5626,13 @@
         <v>268</v>
       </c>
       <c r="B266" s="2">
-        <v>176.18</v>
+        <v>175.66</v>
       </c>
       <c r="C266" s="2">
-        <v>12853967872</v>
+        <v>12816029696</v>
       </c>
       <c r="D266" s="3">
-        <v>1128</v>
+        <v>339</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5631,13 +5640,13 @@
         <v>269</v>
       </c>
       <c r="B267" s="2">
-        <v>141.23</v>
+        <v>139.87</v>
       </c>
       <c r="C267" s="2">
-        <v>17507858432</v>
+        <v>17339262976</v>
       </c>
       <c r="D267" s="3">
-        <v>1407</v>
+        <v>426</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5645,13 +5654,13 @@
         <v>270</v>
       </c>
       <c r="B268" s="2">
-        <v>155.01</v>
+        <v>154.8</v>
       </c>
       <c r="C268" s="2">
-        <v>374144532480</v>
+        <v>372699594752</v>
       </c>
       <c r="D268" s="3">
-        <v>1282</v>
+        <v>385</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5659,13 +5668,13 @@
         <v>271</v>
       </c>
       <c r="B269" s="2">
-        <v>83.86</v>
+        <v>83.67</v>
       </c>
       <c r="C269" s="2">
-        <v>55530835968</v>
+        <v>55405019136</v>
       </c>
       <c r="D269" s="3">
-        <v>2370</v>
+        <v>712</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5673,13 +5682,13 @@
         <v>272</v>
       </c>
       <c r="B270" s="2">
-        <v>249.72</v>
+        <v>246.25</v>
       </c>
       <c r="C270" s="2">
-        <v>703244009472</v>
+        <v>693277491200</v>
       </c>
       <c r="D270" s="3">
-        <v>796</v>
+        <v>242</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5687,13 +5696,13 @@
         <v>273</v>
       </c>
       <c r="B271" s="2">
-        <v>35.92</v>
+        <v>35.62</v>
       </c>
       <c r="C271" s="2">
-        <v>11892715520</v>
+        <v>11793389568</v>
       </c>
       <c r="D271" s="3">
-        <v>5534</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5701,13 +5710,13 @@
         <v>274</v>
       </c>
       <c r="B272" s="2">
-        <v>81.29000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="C272" s="2">
-        <v>28020498432</v>
+        <v>27817125888</v>
       </c>
       <c r="D272" s="3">
-        <v>2445</v>
+        <v>739</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5715,13 +5724,13 @@
         <v>275</v>
       </c>
       <c r="B273" s="2">
-        <v>24.08</v>
+        <v>24.26</v>
       </c>
       <c r="C273" s="2">
-        <v>46263459840</v>
+        <v>46512730112</v>
       </c>
       <c r="D273" s="3">
-        <v>8256</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5729,13 +5738,13 @@
         <v>276</v>
       </c>
       <c r="B274" s="2">
-        <v>32.65</v>
+        <v>32.54</v>
       </c>
       <c r="C274" s="2">
-        <v>44288094208</v>
+        <v>44138885120</v>
       </c>
       <c r="D274" s="3">
-        <v>6089</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5743,13 +5752,13 @@
         <v>277</v>
       </c>
       <c r="B275" s="2">
-        <v>19.48</v>
+        <v>19.11</v>
       </c>
       <c r="C275" s="2">
-        <v>19349833728</v>
+        <v>18943418368</v>
       </c>
       <c r="D275" s="3">
-        <v>10205</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5757,13 +5766,13 @@
         <v>278</v>
       </c>
       <c r="B276" s="2">
-        <v>170.84</v>
+        <v>171.59</v>
       </c>
       <c r="C276" s="2">
-        <v>29485787136</v>
+        <v>29615230976</v>
       </c>
       <c r="D276" s="3">
-        <v>1163</v>
+        <v>347</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5771,13 +5780,13 @@
         <v>279</v>
       </c>
       <c r="B277" s="2">
-        <v>139.35</v>
+        <v>139.56</v>
       </c>
       <c r="C277" s="2">
-        <v>46471135232</v>
+        <v>46541164544</v>
       </c>
       <c r="D277" s="3">
-        <v>1426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5785,13 +5794,13 @@
         <v>280</v>
       </c>
       <c r="B278" s="2">
-        <v>25.57</v>
+        <v>25.22</v>
       </c>
       <c r="C278" s="2">
-        <v>17377806336</v>
+        <v>17000323072</v>
       </c>
       <c r="D278" s="3">
-        <v>7775</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5799,13 +5808,13 @@
         <v>281</v>
       </c>
       <c r="B279" s="2">
-        <v>28.27</v>
+        <v>27.44</v>
       </c>
       <c r="C279" s="2">
-        <v>62805762048</v>
+        <v>60961800192</v>
       </c>
       <c r="D279" s="3">
-        <v>7032</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5813,13 +5822,13 @@
         <v>282</v>
       </c>
       <c r="B280" s="2">
-        <v>162.87</v>
+        <v>159.65</v>
       </c>
       <c r="C280" s="2">
-        <v>147675201536</v>
+        <v>147324698624</v>
       </c>
       <c r="D280" s="3">
-        <v>1220</v>
+        <v>373</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5827,13 +5836,13 @@
         <v>283</v>
       </c>
       <c r="B281" s="2">
-        <v>647.03</v>
+        <v>666.03</v>
       </c>
       <c r="C281" s="2">
-        <v>86546735104</v>
+        <v>89088180224</v>
       </c>
       <c r="D281" s="3">
-        <v>307</v>
+        <v>89</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5841,13 +5850,13 @@
         <v>284</v>
       </c>
       <c r="B282" s="2">
-        <v>31.97</v>
+        <v>31.61</v>
       </c>
       <c r="C282" s="2">
-        <v>38657167360</v>
+        <v>38221864960</v>
       </c>
       <c r="D282" s="3">
-        <v>6218</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5855,13 +5864,13 @@
         <v>285</v>
       </c>
       <c r="B283" s="2">
-        <v>61.08</v>
+        <v>60.15</v>
       </c>
       <c r="C283" s="2">
-        <v>44190527488</v>
+        <v>43517685760</v>
       </c>
       <c r="D283" s="3">
-        <v>3254</v>
+        <v>991</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5869,13 +5878,13 @@
         <v>286</v>
       </c>
       <c r="B284" s="2">
-        <v>246.25</v>
+        <v>242.82</v>
       </c>
       <c r="C284" s="2">
-        <v>46705745920</v>
+        <v>46055186432</v>
       </c>
       <c r="D284" s="3">
-        <v>807</v>
+        <v>245</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5883,13 +5892,13 @@
         <v>287</v>
       </c>
       <c r="B285" s="2">
-        <v>241.16</v>
+        <v>240.63</v>
       </c>
       <c r="C285" s="2">
-        <v>20253243392</v>
+        <v>20126124032</v>
       </c>
       <c r="D285" s="3">
-        <v>824</v>
+        <v>247</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5897,13 +5906,13 @@
         <v>288</v>
       </c>
       <c r="B286" s="2">
-        <v>73.88</v>
+        <v>78.51000000000001</v>
       </c>
       <c r="C286" s="2">
-        <v>95060656128</v>
+        <v>101018042368</v>
       </c>
       <c r="D286" s="3">
-        <v>2690</v>
+        <v>759</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5911,13 +5920,13 @@
         <v>289</v>
       </c>
       <c r="B287" s="2">
-        <v>77.23999999999999</v>
+        <v>78.34</v>
       </c>
       <c r="C287" s="2">
-        <v>11014268928</v>
+        <v>11171127296</v>
       </c>
       <c r="D287" s="3">
-        <v>2573</v>
+        <v>761</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5925,13 +5934,13 @@
         <v>290</v>
       </c>
       <c r="B288" s="2">
-        <v>53.06</v>
+        <v>55</v>
       </c>
       <c r="C288" s="2">
-        <v>38469877760</v>
+        <v>39876427776</v>
       </c>
       <c r="D288" s="3">
-        <v>3746</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5939,13 +5948,13 @@
         <v>291</v>
       </c>
       <c r="B289" s="2">
-        <v>165.4</v>
+        <v>164.13</v>
       </c>
       <c r="C289" s="2">
-        <v>22069817344</v>
+        <v>21900359680</v>
       </c>
       <c r="D289" s="3">
-        <v>1201</v>
+        <v>363</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5953,13 +5962,13 @@
         <v>292</v>
       </c>
       <c r="B290" s="2">
-        <v>174.39</v>
+        <v>173.47</v>
       </c>
       <c r="C290" s="2">
-        <v>46908121088</v>
+        <v>46732644352</v>
       </c>
       <c r="D290" s="3">
-        <v>1140</v>
+        <v>343</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5967,13 +5976,13 @@
         <v>293</v>
       </c>
       <c r="B291" s="2">
-        <v>795.35</v>
+        <v>799.8</v>
       </c>
       <c r="C291" s="2">
-        <v>715270914048</v>
+        <v>719272869888</v>
       </c>
       <c r="D291" s="3">
-        <v>249</v>
+        <v>74</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5981,13 +5990,13 @@
         <v>294</v>
       </c>
       <c r="B292" s="2">
-        <v>460.99</v>
+        <v>459.69</v>
       </c>
       <c r="C292" s="2">
-        <v>219504082944</v>
+        <v>218885079040</v>
       </c>
       <c r="D292" s="3">
-        <v>431</v>
+        <v>129</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5995,13 +6004,13 @@
         <v>295</v>
       </c>
       <c r="B293" s="2">
-        <v>138.25</v>
+        <v>137.76</v>
       </c>
       <c r="C293" s="2">
-        <v>32221650944</v>
+        <v>31767318528</v>
       </c>
       <c r="D293" s="3">
-        <v>1438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6009,13 +6018,13 @@
         <v>296</v>
       </c>
       <c r="B294" s="2">
-        <v>39.29</v>
+        <v>39.28</v>
       </c>
       <c r="C294" s="2">
-        <v>10213828608</v>
+        <v>10211228672</v>
       </c>
       <c r="D294" s="3">
-        <v>5059</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6023,13 +6032,13 @@
         <v>297</v>
       </c>
       <c r="B295" s="2">
-        <v>529.41</v>
+        <v>520.34</v>
       </c>
       <c r="C295" s="2">
-        <v>125488693248</v>
+        <v>123338801152</v>
       </c>
       <c r="D295" s="3">
-        <v>375</v>
+        <v>114</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6037,13 +6046,13 @@
         <v>298</v>
       </c>
       <c r="B296" s="2">
-        <v>86.73</v>
+        <v>86.16</v>
       </c>
       <c r="C296" s="2">
-        <v>18853021696</v>
+        <v>18660274176</v>
       </c>
       <c r="D296" s="3">
-        <v>2292</v>
+        <v>692</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6051,13 +6060,13 @@
         <v>299</v>
       </c>
       <c r="B297" s="2">
-        <v>272.43</v>
+        <v>272.05</v>
       </c>
       <c r="C297" s="2">
-        <v>154256687104</v>
+        <v>153613025280</v>
       </c>
       <c r="D297" s="3">
-        <v>729</v>
+        <v>219</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6065,13 +6074,13 @@
         <v>300</v>
       </c>
       <c r="B298" s="2">
-        <v>320.66</v>
+        <v>334.4</v>
       </c>
       <c r="C298" s="2">
-        <v>39229546496</v>
+        <v>41056628736</v>
       </c>
       <c r="D298" s="3">
-        <v>619</v>
+        <v>178</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6079,13 +6088,13 @@
         <v>301</v>
       </c>
       <c r="B299" s="2">
-        <v>83.34</v>
+        <v>82.05</v>
       </c>
       <c r="C299" s="2">
-        <v>27065245696</v>
+        <v>26646312960</v>
       </c>
       <c r="D299" s="3">
-        <v>2385</v>
+        <v>726</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6093,13 +6102,13 @@
         <v>302</v>
       </c>
       <c r="B300" s="2">
-        <v>219.99</v>
+        <v>215.69</v>
       </c>
       <c r="C300" s="2">
-        <v>36635373568</v>
+        <v>35787497472</v>
       </c>
       <c r="D300" s="3">
-        <v>903</v>
+        <v>276</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6107,13 +6116,13 @@
         <v>303</v>
       </c>
       <c r="B301" s="2">
-        <v>156.15</v>
+        <v>157.41</v>
       </c>
       <c r="C301" s="2">
-        <v>50184888320</v>
+        <v>50589843456</v>
       </c>
       <c r="D301" s="3">
-        <v>1273</v>
+        <v>378</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6121,13 +6130,13 @@
         <v>304</v>
       </c>
       <c r="B302" s="2">
-        <v>258.69</v>
+        <v>263.47</v>
       </c>
       <c r="C302" s="2">
-        <v>9867600896</v>
+        <v>9933978624</v>
       </c>
       <c r="D302" s="3">
-        <v>768</v>
+        <v>226</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6135,13 +6144,13 @@
         <v>305</v>
       </c>
       <c r="B303" s="2">
-        <v>289.09</v>
+        <v>286.24</v>
       </c>
       <c r="C303" s="2">
-        <v>80336084992</v>
+        <v>79544090624</v>
       </c>
       <c r="D303" s="3">
-        <v>687</v>
+        <v>208</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6149,13 +6158,13 @@
         <v>306</v>
       </c>
       <c r="B304" s="2">
-        <v>233.23</v>
+        <v>233.04</v>
       </c>
       <c r="C304" s="2">
-        <v>114549284864</v>
+        <v>114451062784</v>
       </c>
       <c r="D304" s="3">
-        <v>852</v>
+        <v>255</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6163,13 +6172,13 @@
         <v>307</v>
       </c>
       <c r="B305" s="2">
-        <v>600</v>
+        <v>593.22</v>
       </c>
       <c r="C305" s="2">
-        <v>36670861312</v>
+        <v>36256477184</v>
       </c>
       <c r="D305" s="3">
-        <v>331</v>
+        <v>100</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6177,13 +6186,13 @@
         <v>308</v>
       </c>
       <c r="B306" s="2">
-        <v>80.56</v>
+        <v>80.5</v>
       </c>
       <c r="C306" s="2">
-        <v>17380739072</v>
+        <v>17367793664</v>
       </c>
       <c r="D306" s="3">
-        <v>2467</v>
+        <v>740</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6191,13 +6200,13 @@
         <v>309</v>
       </c>
       <c r="B307" s="2">
-        <v>532.9400000000001</v>
+        <v>531.36</v>
       </c>
       <c r="C307" s="2">
-        <v>488635105280</v>
+        <v>487698661376</v>
       </c>
       <c r="D307" s="3">
-        <v>373</v>
+        <v>112</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6205,13 +6214,13 @@
         <v>310</v>
       </c>
       <c r="B308" s="2">
-        <v>32.74</v>
+        <v>33.2</v>
       </c>
       <c r="C308" s="2">
-        <v>8220720128</v>
+        <v>8336221696</v>
       </c>
       <c r="D308" s="3">
-        <v>6072</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6219,13 +6228,13 @@
         <v>311</v>
       </c>
       <c r="B309" s="2">
-        <v>78.41</v>
+        <v>78.37</v>
       </c>
       <c r="C309" s="2">
-        <v>20867567616</v>
+        <v>21030983680</v>
       </c>
       <c r="D309" s="3">
-        <v>2535</v>
+        <v>761</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6233,13 +6242,13 @@
         <v>312</v>
       </c>
       <c r="B310" s="2">
-        <v>296.01</v>
+        <v>292.44</v>
       </c>
       <c r="C310" s="2">
-        <v>212126695424</v>
+        <v>209568366592</v>
       </c>
       <c r="D310" s="3">
-        <v>671</v>
+        <v>203</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6247,13 +6256,13 @@
         <v>313</v>
       </c>
       <c r="B311" s="2">
-        <v>628.5</v>
+        <v>621.29</v>
       </c>
       <c r="C311" s="2">
-        <v>79781789696</v>
+        <v>78866546688</v>
       </c>
       <c r="D311" s="3">
-        <v>316</v>
+        <v>95</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6267,7 +6276,7 @@
         <v>110969380864</v>
       </c>
       <c r="D312" s="3">
-        <v>2297</v>
+        <v>689</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6275,13 +6284,13 @@
         <v>315</v>
       </c>
       <c r="B313" s="2">
-        <v>101.64</v>
+        <v>100.61</v>
       </c>
       <c r="C313" s="2">
-        <v>260856004608</v>
+        <v>254507073536</v>
       </c>
       <c r="D313" s="3">
-        <v>1955</v>
+        <v>592</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6289,13 +6298,13 @@
         <v>316</v>
       </c>
       <c r="B314" s="2">
-        <v>574.3200000000001</v>
+        <v>592.83</v>
       </c>
       <c r="C314" s="2">
-        <v>1436937093120</v>
+        <v>1496593465344</v>
       </c>
       <c r="D314" s="3">
-        <v>346</v>
+        <v>100</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6303,13 +6312,13 @@
         <v>317</v>
       </c>
       <c r="B315" s="2">
-        <v>88.23</v>
+        <v>86.88</v>
       </c>
       <c r="C315" s="2">
-        <v>61106073600</v>
+        <v>60157444096</v>
       </c>
       <c r="D315" s="3">
-        <v>2253</v>
+        <v>686</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6317,13 +6326,13 @@
         <v>318</v>
       </c>
       <c r="B316" s="2">
-        <v>1251.2</v>
+        <v>1258.88</v>
       </c>
       <c r="C316" s="2">
-        <v>26403696640</v>
+        <v>26565767168</v>
       </c>
       <c r="D316" s="3">
-        <v>158</v>
+        <v>47</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6331,13 +6340,13 @@
         <v>319</v>
       </c>
       <c r="B317" s="2">
-        <v>38.34</v>
+        <v>38.29</v>
       </c>
       <c r="C317" s="2">
-        <v>11415351296</v>
+        <v>11400464384</v>
       </c>
       <c r="D317" s="3">
-        <v>5185</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6345,13 +6354,13 @@
         <v>320</v>
       </c>
       <c r="B318" s="2">
-        <v>68.17</v>
+        <v>70.31</v>
       </c>
       <c r="C318" s="2">
-        <v>36607971328</v>
+        <v>37757169664</v>
       </c>
       <c r="D318" s="3">
-        <v>2916</v>
+        <v>848</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6359,13 +6368,13 @@
         <v>321</v>
       </c>
       <c r="B319" s="2">
-        <v>97.95</v>
+        <v>98.55</v>
       </c>
       <c r="C319" s="2">
-        <v>109399367680</v>
+        <v>109788651520</v>
       </c>
       <c r="D319" s="3">
-        <v>2029</v>
+        <v>605</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6373,13 +6382,13 @@
         <v>322</v>
       </c>
       <c r="B320" s="2">
-        <v>423.46</v>
+        <v>430.98</v>
       </c>
       <c r="C320" s="2">
-        <v>3148374343680</v>
+        <v>3204284678144</v>
       </c>
       <c r="D320" s="3">
-        <v>469</v>
+        <v>138</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6387,13 +6396,13 @@
         <v>323</v>
       </c>
       <c r="B321" s="2">
-        <v>164.16</v>
+        <v>162.3</v>
       </c>
       <c r="C321" s="2">
-        <v>19816738816</v>
+        <v>19468859392</v>
       </c>
       <c r="D321" s="3">
-        <v>1211</v>
+        <v>367</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6401,13 +6410,13 @@
         <v>324</v>
       </c>
       <c r="B322" s="2">
-        <v>43.06</v>
+        <v>44.26</v>
       </c>
       <c r="C322" s="2">
-        <v>16697247744</v>
+        <v>17032043520</v>
       </c>
       <c r="D322" s="3">
-        <v>4616</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6415,13 +6424,13 @@
         <v>325</v>
       </c>
       <c r="B323" s="2">
-        <v>138.83</v>
+        <v>136.33</v>
       </c>
       <c r="C323" s="2">
-        <v>8763129856</v>
+        <v>8605327360</v>
       </c>
       <c r="D323" s="3">
-        <v>1432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6429,13 +6438,13 @@
         <v>326</v>
       </c>
       <c r="B324" s="2">
-        <v>297.9</v>
+        <v>301.87</v>
       </c>
       <c r="C324" s="2">
-        <v>17039879168</v>
+        <v>17266964480</v>
       </c>
       <c r="D324" s="3">
-        <v>667</v>
+        <v>197</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6443,13 +6452,13 @@
         <v>327</v>
       </c>
       <c r="B325" s="2">
-        <v>62.06</v>
+        <v>61.81</v>
       </c>
       <c r="C325" s="2">
-        <v>12615121920</v>
+        <v>12729027584</v>
       </c>
       <c r="D325" s="3">
-        <v>3203</v>
+        <v>964</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6457,13 +6466,13 @@
         <v>328</v>
       </c>
       <c r="B326" s="2">
-        <v>64.95</v>
+        <v>65.23</v>
       </c>
       <c r="C326" s="2">
-        <v>86997917696</v>
+        <v>87224909824</v>
       </c>
       <c r="D326" s="3">
-        <v>3060</v>
+        <v>914</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6471,13 +6480,13 @@
         <v>329</v>
       </c>
       <c r="B327" s="2">
-        <v>567.64</v>
+        <v>580.35</v>
       </c>
       <c r="C327" s="2">
-        <v>27689480192</v>
+        <v>28309471232</v>
       </c>
       <c r="D327" s="3">
-        <v>350</v>
+        <v>102</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6485,13 +6494,13 @@
         <v>330</v>
       </c>
       <c r="B328" s="2">
-        <v>55.13</v>
+        <v>54.98</v>
       </c>
       <c r="C328" s="2">
-        <v>53624729600</v>
+        <v>53469147136</v>
       </c>
       <c r="D328" s="3">
-        <v>3606</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6499,13 +6508,13 @@
         <v>331</v>
       </c>
       <c r="B329" s="2">
-        <v>499.98</v>
+        <v>497.41</v>
       </c>
       <c r="C329" s="2">
-        <v>90774863872</v>
+        <v>90146119680</v>
       </c>
       <c r="D329" s="3">
-        <v>397</v>
+        <v>119</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6513,13 +6522,13 @@
         <v>332</v>
       </c>
       <c r="B330" s="2">
-        <v>131.61</v>
+        <v>131.03</v>
       </c>
       <c r="C330" s="2">
-        <v>212028981248</v>
+        <v>211094568960</v>
       </c>
       <c r="D330" s="3">
-        <v>1510</v>
+        <v>455</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6527,13 +6536,13 @@
         <v>333</v>
       </c>
       <c r="B331" s="2">
-        <v>26.46</v>
+        <v>27.58</v>
       </c>
       <c r="C331" s="2">
-        <v>8404886016</v>
+        <v>8760648704</v>
       </c>
       <c r="D331" s="3">
-        <v>7513</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6541,13 +6550,13 @@
         <v>334</v>
       </c>
       <c r="B332" s="2">
-        <v>499.7</v>
+        <v>496.7</v>
       </c>
       <c r="C332" s="2">
-        <v>83670769664</v>
+        <v>83008995328</v>
       </c>
       <c r="D332" s="3">
-        <v>397</v>
+        <v>120</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6555,13 +6564,13 @@
         <v>335</v>
       </c>
       <c r="B333" s="2">
-        <v>609.63</v>
+        <v>608.97</v>
       </c>
       <c r="C333" s="2">
-        <v>47777492992</v>
+        <v>47725764608</v>
       </c>
       <c r="D333" s="3">
-        <v>326</v>
+        <v>97</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6569,13 +6578,13 @@
         <v>336</v>
       </c>
       <c r="B334" s="2">
-        <v>82.98999999999999</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="C334" s="2">
-        <v>47733604352</v>
+        <v>46928994304</v>
       </c>
       <c r="D334" s="3">
-        <v>2395</v>
+        <v>730</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6583,13 +6592,13 @@
         <v>337</v>
       </c>
       <c r="B335" s="2">
-        <v>122.64</v>
+        <v>123.29</v>
       </c>
       <c r="C335" s="2">
-        <v>24933447680</v>
+        <v>25065596928</v>
       </c>
       <c r="D335" s="3">
-        <v>1621</v>
+        <v>483</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6597,13 +6606,13 @@
         <v>338</v>
       </c>
       <c r="B336" s="2">
-        <v>886.8099999999999</v>
+        <v>897.74</v>
       </c>
       <c r="C336" s="2">
-        <v>379074019328</v>
+        <v>383746113536</v>
       </c>
       <c r="D336" s="3">
-        <v>224</v>
+        <v>66</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6611,13 +6620,13 @@
         <v>339</v>
       </c>
       <c r="B337" s="2">
-        <v>41.94</v>
+        <v>40.91</v>
       </c>
       <c r="C337" s="2">
-        <v>47860244480</v>
+        <v>46573989888</v>
       </c>
       <c r="D337" s="3">
-        <v>4740</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6625,13 +6634,13 @@
         <v>340</v>
       </c>
       <c r="B338" s="2">
-        <v>29.35</v>
+        <v>29.45</v>
       </c>
       <c r="C338" s="2">
-        <v>17017422848</v>
+        <v>17266270208</v>
       </c>
       <c r="D338" s="3">
-        <v>6773</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6639,13 +6648,13 @@
         <v>341</v>
       </c>
       <c r="B339" s="2">
-        <v>32.09</v>
+        <v>32.24</v>
       </c>
       <c r="C339" s="2">
-        <v>17017423872</v>
+        <v>17266262016</v>
       </c>
       <c r="D339" s="3">
-        <v>6195</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6653,13 +6662,13 @@
         <v>342</v>
       </c>
       <c r="B340" s="2">
-        <v>78.67</v>
+        <v>77.06999999999999</v>
       </c>
       <c r="C340" s="2">
-        <v>161776992256</v>
+        <v>158486740992</v>
       </c>
       <c r="D340" s="3">
-        <v>2527</v>
+        <v>773</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6667,13 +6676,13 @@
         <v>343</v>
       </c>
       <c r="B341" s="2">
-        <v>78.77</v>
+        <v>79.09</v>
       </c>
       <c r="C341" s="2">
-        <v>116608745472</v>
+        <v>117725454336</v>
       </c>
       <c r="D341" s="3">
-        <v>2523</v>
+        <v>754</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6681,13 +6690,13 @@
         <v>344</v>
       </c>
       <c r="B342" s="2">
-        <v>38.09</v>
+        <v>37.35</v>
       </c>
       <c r="C342" s="2">
-        <v>17779611648</v>
+        <v>17434195968</v>
       </c>
       <c r="D342" s="3">
-        <v>5219</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6695,13 +6704,13 @@
         <v>345</v>
       </c>
       <c r="B343" s="2">
-        <v>260.99</v>
+        <v>259.15</v>
       </c>
       <c r="C343" s="2">
-        <v>14923799552</v>
+        <v>14818585600</v>
       </c>
       <c r="D343" s="3">
-        <v>761</v>
+        <v>230</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6709,13 +6718,13 @@
         <v>346</v>
       </c>
       <c r="B344" s="2">
-        <v>275.85</v>
+        <v>272.75</v>
       </c>
       <c r="C344" s="2">
-        <v>62408306688</v>
+        <v>61706960896</v>
       </c>
       <c r="D344" s="3">
-        <v>720</v>
+        <v>218</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6723,13 +6732,13 @@
         <v>347</v>
       </c>
       <c r="B345" s="2">
-        <v>111.16</v>
+        <v>109.89</v>
       </c>
       <c r="C345" s="2">
-        <v>22033913856</v>
+        <v>21782175744</v>
       </c>
       <c r="D345" s="3">
-        <v>1788</v>
+        <v>542</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6737,13 +6746,13 @@
         <v>348</v>
       </c>
       <c r="B346" s="2">
-        <v>489.65</v>
+        <v>484.75</v>
       </c>
       <c r="C346" s="2">
-        <v>71339556864</v>
+        <v>70625656832</v>
       </c>
       <c r="D346" s="3">
-        <v>406</v>
+        <v>123</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6751,13 +6760,13 @@
         <v>349</v>
       </c>
       <c r="B347" s="2">
-        <v>26.89</v>
+        <v>28.35</v>
       </c>
       <c r="C347" s="2">
-        <v>11836951552</v>
+        <v>12465722368</v>
       </c>
       <c r="D347" s="3">
-        <v>7393</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6765,13 +6774,13 @@
         <v>350</v>
       </c>
       <c r="B348" s="2">
-        <v>101.61</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C348" s="2">
-        <v>20582731776</v>
+        <v>20135061504</v>
       </c>
       <c r="D348" s="3">
-        <v>1956</v>
+        <v>600</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6779,13 +6788,13 @@
         <v>351</v>
       </c>
       <c r="B349" s="2">
-        <v>154.69</v>
+        <v>156.37</v>
       </c>
       <c r="C349" s="2">
-        <v>36341940224</v>
+        <v>36717707264</v>
       </c>
       <c r="D349" s="3">
-        <v>1285</v>
+        <v>381</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6793,13 +6802,13 @@
         <v>352</v>
       </c>
       <c r="B350" s="2">
-        <v>138.25</v>
+        <v>138.63</v>
       </c>
       <c r="C350" s="2">
-        <v>3385742589952</v>
+        <v>3395048964096</v>
       </c>
       <c r="D350" s="3">
-        <v>1438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6807,13 +6816,13 @@
         <v>353</v>
       </c>
       <c r="B351" s="2">
-        <v>9235.58</v>
+        <v>9180</v>
       </c>
       <c r="C351" s="2">
-        <v>28296708096</v>
+        <v>28126418944</v>
       </c>
       <c r="D351" s="3">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6821,13 +6830,13 @@
         <v>354</v>
       </c>
       <c r="B352" s="2">
-        <v>229.37</v>
+        <v>233.61</v>
       </c>
       <c r="C352" s="2">
-        <v>58295758848</v>
+        <v>59373383680</v>
       </c>
       <c r="D352" s="3">
-        <v>866</v>
+        <v>255</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6835,13 +6844,13 @@
         <v>355</v>
       </c>
       <c r="B353" s="2">
-        <v>1243.22</v>
+        <v>1246.82</v>
       </c>
       <c r="C353" s="2">
-        <v>71771955200</v>
+        <v>71979786240</v>
       </c>
       <c r="D353" s="3">
-        <v>159</v>
+        <v>47</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6849,13 +6858,13 @@
         <v>356</v>
       </c>
       <c r="B354" s="2">
-        <v>50.58</v>
+        <v>50.42</v>
       </c>
       <c r="C354" s="2">
-        <v>47461388288</v>
+        <v>47311249408</v>
       </c>
       <c r="D354" s="3">
-        <v>3930</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6863,13 +6872,13 @@
         <v>357</v>
       </c>
       <c r="B355" s="2">
-        <v>225.14</v>
+        <v>224.85</v>
       </c>
       <c r="C355" s="2">
-        <v>48066940928</v>
+        <v>48005025792</v>
       </c>
       <c r="D355" s="3">
-        <v>883</v>
+        <v>265</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6877,13 +6886,13 @@
         <v>358</v>
       </c>
       <c r="B356" s="2">
-        <v>104.82</v>
+        <v>105.01</v>
       </c>
       <c r="C356" s="2">
-        <v>20449646592</v>
+        <v>20486715392</v>
       </c>
       <c r="D356" s="3">
-        <v>1896</v>
+        <v>567</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6891,13 +6900,13 @@
         <v>359</v>
       </c>
       <c r="B357" s="2">
-        <v>71.12</v>
+        <v>73.95</v>
       </c>
       <c r="C357" s="2">
-        <v>30282682368</v>
+        <v>31487686656</v>
       </c>
       <c r="D357" s="3">
-        <v>2795</v>
+        <v>806</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6905,13 +6914,13 @@
         <v>360</v>
       </c>
       <c r="B358" s="2">
-        <v>113.6</v>
+        <v>110.44</v>
       </c>
       <c r="C358" s="2">
-        <v>66370912256</v>
+        <v>64524681216</v>
       </c>
       <c r="D358" s="3">
-        <v>1750</v>
+        <v>540</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6919,13 +6928,13 @@
         <v>361</v>
       </c>
       <c r="B359" s="2">
-        <v>184.84</v>
+        <v>181.41</v>
       </c>
       <c r="C359" s="2">
-        <v>512202702848</v>
+        <v>502697984000</v>
       </c>
       <c r="D359" s="3">
-        <v>1075</v>
+        <v>328</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6933,13 +6942,13 @@
         <v>362</v>
       </c>
       <c r="B360" s="2">
-        <v>102.98</v>
+        <v>101.8</v>
       </c>
       <c r="C360" s="2">
-        <v>41136492544</v>
+        <v>40665128960</v>
       </c>
       <c r="D360" s="3">
-        <v>1930</v>
+        <v>585</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6947,13 +6956,13 @@
         <v>363</v>
       </c>
       <c r="B361" s="2">
-        <v>117</v>
+        <v>116.24</v>
       </c>
       <c r="C361" s="2">
-        <v>61343215616</v>
+        <v>60944744448</v>
       </c>
       <c r="D361" s="3">
-        <v>1699</v>
+        <v>513</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6961,13 +6970,13 @@
         <v>364</v>
       </c>
       <c r="B362" s="2">
-        <v>248.85</v>
+        <v>244.8</v>
       </c>
       <c r="C362" s="2">
-        <v>22347948032</v>
+        <v>21984239616</v>
       </c>
       <c r="D362" s="3">
-        <v>798</v>
+        <v>243</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6975,13 +6984,13 @@
         <v>365</v>
       </c>
       <c r="B363" s="2">
-        <v>67.08</v>
+        <v>66.39</v>
       </c>
       <c r="C363" s="2">
-        <v>150463119360</v>
+        <v>151237754880</v>
       </c>
       <c r="D363" s="3">
-        <v>2963</v>
+        <v>898</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6989,13 +6998,13 @@
         <v>366</v>
       </c>
       <c r="B364" s="2">
-        <v>387.82</v>
+        <v>390.17</v>
       </c>
       <c r="C364" s="2">
-        <v>127243747328</v>
+        <v>128014778368</v>
       </c>
       <c r="D364" s="3">
-        <v>512</v>
+        <v>152</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7003,13 +7012,13 @@
         <v>367</v>
       </c>
       <c r="B365" s="2">
-        <v>10.85</v>
+        <v>10.98</v>
       </c>
       <c r="C365" s="2">
-        <v>7678675456</v>
+        <v>7803683328</v>
       </c>
       <c r="D365" s="3">
-        <v>18323</v>
+        <v>5431</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7017,13 +7026,13 @@
         <v>368</v>
       </c>
       <c r="B366" s="2">
-        <v>702.9</v>
+        <v>700.6900000000001</v>
       </c>
       <c r="C366" s="2">
-        <v>90477289472</v>
+        <v>90192814080</v>
       </c>
       <c r="D366" s="3">
-        <v>282</v>
+        <v>85</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7031,13 +7040,13 @@
         <v>369</v>
       </c>
       <c r="B367" s="2">
-        <v>146.27</v>
+        <v>145.45</v>
       </c>
       <c r="C367" s="2">
-        <v>52642279424</v>
+        <v>52347162624</v>
       </c>
       <c r="D367" s="3">
-        <v>1359</v>
+        <v>410</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7045,13 +7054,13 @@
         <v>370</v>
       </c>
       <c r="B368" s="2">
-        <v>231.92</v>
+        <v>232.41</v>
       </c>
       <c r="C368" s="2">
-        <v>13372971008</v>
+        <v>13401225216</v>
       </c>
       <c r="D368" s="3">
-        <v>857</v>
+        <v>256</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7059,13 +7068,13 @@
         <v>371</v>
       </c>
       <c r="B369" s="2">
-        <v>86.77</v>
+        <v>86.53</v>
       </c>
       <c r="C369" s="2">
-        <v>86990397440</v>
+        <v>86749790208</v>
       </c>
       <c r="D369" s="3">
-        <v>2291</v>
+        <v>689</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7073,13 +7082,13 @@
         <v>372</v>
       </c>
       <c r="B370" s="2">
-        <v>108.99</v>
+        <v>108.92</v>
       </c>
       <c r="C370" s="2">
-        <v>18008526848</v>
+        <v>17996961792</v>
       </c>
       <c r="D370" s="3">
-        <v>1824</v>
+        <v>547</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7087,13 +7096,13 @@
         <v>373</v>
       </c>
       <c r="B371" s="2">
-        <v>163.45</v>
+        <v>163.05</v>
       </c>
       <c r="C371" s="2">
-        <v>224251756544</v>
+        <v>223702974464</v>
       </c>
       <c r="D371" s="3">
-        <v>1216</v>
+        <v>365</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7101,13 +7110,13 @@
         <v>374</v>
       </c>
       <c r="B372" s="2">
-        <v>26.21</v>
+        <v>25.82</v>
       </c>
       <c r="C372" s="2">
-        <v>148531806208</v>
+        <v>146321686528</v>
       </c>
       <c r="D372" s="3">
-        <v>7585</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7115,13 +7124,13 @@
         <v>375</v>
       </c>
       <c r="B373" s="2">
-        <v>21.63</v>
+        <v>20.55</v>
       </c>
       <c r="C373" s="2">
-        <v>56568721408</v>
+        <v>53744209920</v>
       </c>
       <c r="D373" s="3">
-        <v>9191</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7129,13 +7138,13 @@
         <v>376</v>
       </c>
       <c r="B374" s="2">
-        <v>133.06</v>
+        <v>131.02</v>
       </c>
       <c r="C374" s="2">
-        <v>206885666816</v>
+        <v>203713822720</v>
       </c>
       <c r="D374" s="3">
-        <v>1494</v>
+        <v>455</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7143,13 +7152,13 @@
         <v>377</v>
       </c>
       <c r="B375" s="2">
-        <v>133.98</v>
+        <v>136.43</v>
       </c>
       <c r="C375" s="2">
-        <v>55332261888</v>
+        <v>56344084480</v>
       </c>
       <c r="D375" s="3">
-        <v>1483</v>
+        <v>437</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7157,13 +7166,13 @@
         <v>378</v>
       </c>
       <c r="B376" s="2">
-        <v>93.7</v>
+        <v>92.42</v>
       </c>
       <c r="C376" s="2">
-        <v>10746920960</v>
+        <v>10508153856</v>
       </c>
       <c r="D376" s="3">
-        <v>2121</v>
+        <v>645</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7171,13 +7180,13 @@
         <v>379</v>
       </c>
       <c r="B377" s="2">
-        <v>214.72</v>
+        <v>211.36</v>
       </c>
       <c r="C377" s="2">
-        <v>85308473344</v>
+        <v>83864059904</v>
       </c>
       <c r="D377" s="3">
-        <v>925</v>
+        <v>282</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7185,13 +7194,13 @@
         <v>380</v>
       </c>
       <c r="B378" s="2">
-        <v>377.09</v>
+        <v>375.97</v>
       </c>
       <c r="C378" s="2">
-        <v>14350348288</v>
+        <v>14307726336</v>
       </c>
       <c r="D378" s="3">
-        <v>527</v>
+        <v>158</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7199,13 +7208,13 @@
         <v>381</v>
       </c>
       <c r="B379" s="2">
-        <v>124.37</v>
+        <v>125.97</v>
       </c>
       <c r="C379" s="2">
-        <v>28853839872</v>
+        <v>29225039872</v>
       </c>
       <c r="D379" s="3">
-        <v>1598</v>
+        <v>473</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7213,13 +7222,13 @@
         <v>382</v>
       </c>
       <c r="B380" s="2">
-        <v>34.93</v>
+        <v>34.44</v>
       </c>
       <c r="C380" s="2">
-        <v>25828954112</v>
+        <v>25415686144</v>
       </c>
       <c r="D380" s="3">
-        <v>5691</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7227,13 +7236,13 @@
         <v>383</v>
       </c>
       <c r="B381" s="2">
-        <v>87.09</v>
+        <v>85.42</v>
       </c>
       <c r="C381" s="2">
-        <v>19963203584</v>
+        <v>19537774592</v>
       </c>
       <c r="D381" s="3">
-        <v>2282</v>
+        <v>698</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7241,13 +7250,13 @@
         <v>384</v>
       </c>
       <c r="B382" s="2">
-        <v>179.26</v>
+        <v>179.7</v>
       </c>
       <c r="C382" s="2">
-        <v>422401081344</v>
+        <v>423200686080</v>
       </c>
       <c r="D382" s="3">
-        <v>1109</v>
+        <v>331</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7255,13 +7264,13 @@
         <v>385</v>
       </c>
       <c r="B383" s="2">
-        <v>268.88</v>
+        <v>264.04</v>
       </c>
       <c r="C383" s="2">
-        <v>157513121792</v>
+        <v>154677805056</v>
       </c>
       <c r="D383" s="3">
-        <v>739</v>
+        <v>225</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7269,13 +7278,13 @@
         <v>386</v>
       </c>
       <c r="B384" s="2">
-        <v>116.78</v>
+        <v>115.84</v>
       </c>
       <c r="C384" s="2">
-        <v>108158713856</v>
+        <v>107288109056</v>
       </c>
       <c r="D384" s="3">
-        <v>1702</v>
+        <v>514</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7283,13 +7292,13 @@
         <v>387</v>
       </c>
       <c r="B385" s="2">
-        <v>129.41</v>
+        <v>128.41</v>
       </c>
       <c r="C385" s="2">
-        <v>46100111360</v>
+        <v>45705101312</v>
       </c>
       <c r="D385" s="3">
-        <v>1536</v>
+        <v>464</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7297,13 +7306,13 @@
         <v>388</v>
       </c>
       <c r="B386" s="2">
-        <v>94.3</v>
+        <v>92.27</v>
       </c>
       <c r="C386" s="2">
-        <v>46982619136</v>
+        <v>45971218432</v>
       </c>
       <c r="D386" s="3">
-        <v>2108</v>
+        <v>646</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7311,13 +7320,13 @@
         <v>389</v>
       </c>
       <c r="B387" s="2">
-        <v>200.06</v>
+        <v>199.38</v>
       </c>
       <c r="C387" s="2">
-        <v>24033007616</v>
+        <v>23951321088</v>
       </c>
       <c r="D387" s="3">
-        <v>993</v>
+        <v>299</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7325,13 +7334,13 @@
         <v>390</v>
       </c>
       <c r="B388" s="2">
-        <v>348.05</v>
+        <v>344.07</v>
       </c>
       <c r="C388" s="2">
-        <v>61526188032</v>
+        <v>60249751552</v>
       </c>
       <c r="D388" s="3">
-        <v>571</v>
+        <v>173</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7339,13 +7348,13 @@
         <v>391</v>
       </c>
       <c r="B389" s="2">
-        <v>135.27</v>
+        <v>135.14</v>
       </c>
       <c r="C389" s="2">
-        <v>27999809536</v>
+        <v>27714781184</v>
       </c>
       <c r="D389" s="3">
-        <v>1469</v>
+        <v>441</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7353,13 +7362,13 @@
         <v>392</v>
       </c>
       <c r="B390" s="2">
-        <v>69.05</v>
+        <v>70.8</v>
       </c>
       <c r="C390" s="2">
-        <v>6527069184</v>
+        <v>6692490752</v>
       </c>
       <c r="D390" s="3">
-        <v>2879</v>
+        <v>842</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7367,13 +7376,13 @@
         <v>393</v>
       </c>
       <c r="B391" s="2">
-        <v>344.52</v>
+        <v>342.33</v>
       </c>
       <c r="C391" s="2">
-        <v>50855284736</v>
+        <v>50532012032</v>
       </c>
       <c r="D391" s="3">
-        <v>577</v>
+        <v>174</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7381,13 +7390,13 @@
         <v>394</v>
       </c>
       <c r="B392" s="2">
-        <v>158.53</v>
+        <v>163.03</v>
       </c>
       <c r="C392" s="2">
-        <v>176126836736</v>
+        <v>181126332416</v>
       </c>
       <c r="D392" s="3">
-        <v>1254</v>
+        <v>365</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7395,13 +7404,13 @@
         <v>395</v>
       </c>
       <c r="B393" s="2">
-        <v>162.66</v>
+        <v>161.51</v>
       </c>
       <c r="C393" s="2">
-        <v>18228981760</v>
+        <v>18026938368</v>
       </c>
       <c r="D393" s="3">
-        <v>1222</v>
+        <v>369</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7409,13 +7418,13 @@
         <v>396</v>
       </c>
       <c r="B394" s="2">
-        <v>231.4</v>
+        <v>233.41</v>
       </c>
       <c r="C394" s="2">
-        <v>13827445760</v>
+        <v>14494364672</v>
       </c>
       <c r="D394" s="3">
-        <v>859</v>
+        <v>255</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7423,13 +7432,13 @@
         <v>397</v>
       </c>
       <c r="B395" s="2">
-        <v>169.28</v>
+        <v>166.95</v>
       </c>
       <c r="C395" s="2">
-        <v>34707984384</v>
+        <v>34065311744</v>
       </c>
       <c r="D395" s="3">
-        <v>1174</v>
+        <v>357</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7437,13 +7446,13 @@
         <v>398</v>
       </c>
       <c r="B396" s="2">
-        <v>121.83</v>
+        <v>118.68</v>
       </c>
       <c r="C396" s="2">
-        <v>162158166016</v>
+        <v>157965451264</v>
       </c>
       <c r="D396" s="3">
-        <v>1631</v>
+        <v>502</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7451,13 +7460,13 @@
         <v>399</v>
       </c>
       <c r="B397" s="2">
-        <v>57.89</v>
+        <v>56.69</v>
       </c>
       <c r="C397" s="2">
-        <v>51042308096</v>
+        <v>49615712256</v>
       </c>
       <c r="D397" s="3">
-        <v>3434</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7465,13 +7474,13 @@
         <v>400</v>
       </c>
       <c r="B398" s="2">
-        <v>75.59</v>
+        <v>74.63</v>
       </c>
       <c r="C398" s="2">
-        <v>13861316608</v>
+        <v>13627586560</v>
       </c>
       <c r="D398" s="3">
-        <v>2630</v>
+        <v>799</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7479,13 +7488,13 @@
         <v>401</v>
       </c>
       <c r="B399" s="2">
-        <v>750.22</v>
+        <v>762.34</v>
       </c>
       <c r="C399" s="2">
-        <v>82952568832</v>
+        <v>83773546496</v>
       </c>
       <c r="D399" s="3">
-        <v>264</v>
+        <v>78</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7493,13 +7502,13 @@
         <v>402</v>
       </c>
       <c r="B400" s="2">
-        <v>27.26</v>
+        <v>26.53</v>
       </c>
       <c r="C400" s="2">
-        <v>24775632896</v>
+        <v>24112162816</v>
       </c>
       <c r="D400" s="3">
-        <v>7292</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7507,13 +7516,13 @@
         <v>403</v>
       </c>
       <c r="B401" s="2">
-        <v>218.3</v>
+        <v>214.96</v>
       </c>
       <c r="C401" s="2">
-        <v>68361080832</v>
+        <v>67315154944</v>
       </c>
       <c r="D401" s="3">
-        <v>910</v>
+        <v>277</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7521,13 +7530,13 @@
         <v>404</v>
       </c>
       <c r="B402" s="2">
-        <v>249.02</v>
+        <v>244.92</v>
       </c>
       <c r="C402" s="2">
-        <v>36600463360</v>
+        <v>35953274880</v>
       </c>
       <c r="D402" s="3">
-        <v>798</v>
+        <v>243</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7535,13 +7544,13 @@
         <v>405</v>
       </c>
       <c r="B403" s="2">
-        <v>116.14</v>
+        <v>116.7</v>
       </c>
       <c r="C403" s="2">
-        <v>14145387520</v>
+        <v>14202622976</v>
       </c>
       <c r="D403" s="3">
-        <v>1711</v>
+        <v>511</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7549,13 +7558,13 @@
         <v>406</v>
       </c>
       <c r="B404" s="2">
-        <v>295.14</v>
+        <v>297.12</v>
       </c>
       <c r="C404" s="2">
-        <v>33320421376</v>
+        <v>33543956480</v>
       </c>
       <c r="D404" s="3">
-        <v>673</v>
+        <v>200</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7563,13 +7572,13 @@
         <v>407</v>
       </c>
       <c r="B405" s="2">
-        <v>50.33</v>
+        <v>49.86</v>
       </c>
       <c r="C405" s="2">
-        <v>24777056256</v>
+        <v>24147447808</v>
       </c>
       <c r="D405" s="3">
-        <v>3950</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7577,13 +7586,13 @@
         <v>408</v>
       </c>
       <c r="B406" s="2">
-        <v>566.4400000000001</v>
+        <v>568.63</v>
       </c>
       <c r="C406" s="2">
-        <v>60738793472</v>
+        <v>60973625344</v>
       </c>
       <c r="D406" s="3">
-        <v>350</v>
+        <v>104</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7591,13 +7600,13 @@
         <v>409</v>
       </c>
       <c r="B407" s="2">
-        <v>154.87</v>
+        <v>156.36</v>
       </c>
       <c r="C407" s="2">
-        <v>51379978240</v>
+        <v>51874304000</v>
       </c>
       <c r="D407" s="3">
-        <v>1283</v>
+        <v>381</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7605,13 +7614,13 @@
         <v>410</v>
       </c>
       <c r="B408" s="2">
-        <v>244.06</v>
+        <v>246.41</v>
       </c>
       <c r="C408" s="2">
-        <v>65621635072</v>
+        <v>66253492224</v>
       </c>
       <c r="D408" s="3">
-        <v>814</v>
+        <v>242</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7619,13 +7628,13 @@
         <v>411</v>
       </c>
       <c r="B409" s="2">
-        <v>522.51</v>
+        <v>522.87</v>
       </c>
       <c r="C409" s="2">
-        <v>162243543040</v>
+        <v>162246557696</v>
       </c>
       <c r="D409" s="3">
-        <v>380</v>
+        <v>114</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7633,13 +7642,13 @@
         <v>412</v>
       </c>
       <c r="B410" s="2">
-        <v>329.99</v>
+        <v>331.01</v>
       </c>
       <c r="C410" s="2">
-        <v>315489550336</v>
+        <v>316445556736</v>
       </c>
       <c r="D410" s="3">
-        <v>602</v>
+        <v>180</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7647,13 +7656,13 @@
         <v>413</v>
       </c>
       <c r="B411" s="2">
-        <v>226.25</v>
+        <v>222.94</v>
       </c>
       <c r="C411" s="2">
-        <v>24570071040</v>
+        <v>23971178496</v>
       </c>
       <c r="D411" s="3">
-        <v>878</v>
+        <v>267</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7661,13 +7670,13 @@
         <v>414</v>
       </c>
       <c r="B412" s="2">
-        <v>43.94</v>
+        <v>43.63</v>
       </c>
       <c r="C412" s="2">
-        <v>62049869824</v>
+        <v>61612105728</v>
       </c>
       <c r="D412" s="3">
-        <v>4524</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7675,13 +7684,13 @@
         <v>415</v>
       </c>
       <c r="B413" s="2">
-        <v>101.33</v>
+        <v>103.16</v>
       </c>
       <c r="C413" s="2">
-        <v>21434335232</v>
+        <v>21821435904</v>
       </c>
       <c r="D413" s="3">
-        <v>1961</v>
+        <v>578</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7689,13 +7698,13 @@
         <v>416</v>
       </c>
       <c r="B414" s="2">
-        <v>93.67</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C414" s="2">
-        <v>59716870144</v>
+        <v>58336043008</v>
       </c>
       <c r="D414" s="3">
-        <v>2122</v>
+        <v>647</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7703,13 +7712,13 @@
         <v>417</v>
       </c>
       <c r="B415" s="2">
-        <v>1049.44</v>
+        <v>1048.43</v>
       </c>
       <c r="C415" s="2">
-        <v>216517296128</v>
+        <v>216308940800</v>
       </c>
       <c r="D415" s="3">
-        <v>189</v>
+        <v>56</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7717,13 +7726,13 @@
         <v>418</v>
       </c>
       <c r="B416" s="2">
-        <v>397.4</v>
+        <v>395.58</v>
       </c>
       <c r="C416" s="2">
-        <v>100086374400</v>
+        <v>99627999232</v>
       </c>
       <c r="D416" s="3">
-        <v>500</v>
+        <v>150</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7731,13 +7740,13 @@
         <v>419</v>
       </c>
       <c r="B417" s="2">
-        <v>183.6</v>
+        <v>181.37</v>
       </c>
       <c r="C417" s="2">
-        <v>68993212416</v>
+        <v>68099534848</v>
       </c>
       <c r="D417" s="3">
-        <v>1082</v>
+        <v>328</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7745,13 +7754,13 @@
         <v>420</v>
       </c>
       <c r="B418" s="2">
-        <v>87.59</v>
+        <v>88.48999999999999</v>
       </c>
       <c r="C418" s="2">
-        <v>14007479296</v>
+        <v>14151408640</v>
       </c>
       <c r="D418" s="3">
-        <v>2269</v>
+        <v>673</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7759,13 +7768,13 @@
         <v>421</v>
       </c>
       <c r="B419" s="2">
-        <v>117.79</v>
+        <v>119.58</v>
       </c>
       <c r="C419" s="2">
-        <v>12557120512</v>
+        <v>12725225472</v>
       </c>
       <c r="D419" s="3">
-        <v>1687</v>
+        <v>498</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7773,13 +7782,13 @@
         <v>422</v>
       </c>
       <c r="B420" s="2">
-        <v>55.02</v>
+        <v>55.11</v>
       </c>
       <c r="C420" s="2">
-        <v>28618983424</v>
+        <v>28665796608</v>
       </c>
       <c r="D420" s="3">
-        <v>3613</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7787,13 +7796,13 @@
         <v>423</v>
       </c>
       <c r="B421" s="2">
-        <v>369.69</v>
+        <v>366.88</v>
       </c>
       <c r="C421" s="2">
-        <v>19411460096</v>
+        <v>19263916032</v>
       </c>
       <c r="D421" s="3">
-        <v>537</v>
+        <v>162</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7801,13 +7810,13 @@
         <v>424</v>
       </c>
       <c r="B422" s="2">
-        <v>71.51000000000001</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="C422" s="2">
-        <v>12521472000</v>
+        <v>12436775936</v>
       </c>
       <c r="D422" s="3">
-        <v>2780</v>
+        <v>828</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7815,13 +7824,13 @@
         <v>425</v>
       </c>
       <c r="B423" s="2">
-        <v>89.13</v>
+        <v>87.77</v>
       </c>
       <c r="C423" s="2">
-        <v>98326429696</v>
+        <v>96167829504</v>
       </c>
       <c r="D423" s="3">
-        <v>2230</v>
+        <v>679</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7829,13 +7838,13 @@
         <v>426</v>
       </c>
       <c r="B424" s="2">
-        <v>32.36</v>
+        <v>33</v>
       </c>
       <c r="C424" s="2">
-        <v>19407491072</v>
+        <v>19791321088</v>
       </c>
       <c r="D424" s="3">
-        <v>6143</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7843,13 +7852,13 @@
         <v>427</v>
       </c>
       <c r="B425" s="2">
-        <v>89.45</v>
+        <v>89.06999999999999</v>
       </c>
       <c r="C425" s="2">
-        <v>13839256576</v>
+        <v>13731387392</v>
       </c>
       <c r="D425" s="3">
-        <v>2222</v>
+        <v>669</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7857,13 +7866,13 @@
         <v>428</v>
       </c>
       <c r="B426" s="2">
-        <v>102.46</v>
+        <v>101.51</v>
       </c>
       <c r="C426" s="2">
-        <v>116169138176</v>
+        <v>115092037632</v>
       </c>
       <c r="D426" s="3">
-        <v>1940</v>
+        <v>587</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7871,13 +7880,13 @@
         <v>429</v>
       </c>
       <c r="B427" s="2">
-        <v>98.51000000000001</v>
+        <v>98.03</v>
       </c>
       <c r="C427" s="2">
-        <v>28960364544</v>
+        <v>28737593344</v>
       </c>
       <c r="D427" s="3">
-        <v>2018</v>
+        <v>608</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7885,13 +7894,13 @@
         <v>430</v>
       </c>
       <c r="B428" s="2">
-        <v>145.27</v>
+        <v>144.81</v>
       </c>
       <c r="C428" s="2">
-        <v>22116630528</v>
+        <v>22046597120</v>
       </c>
       <c r="D428" s="3">
-        <v>1368</v>
+        <v>411</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7899,13 +7908,13 @@
         <v>431</v>
       </c>
       <c r="B429" s="2">
-        <v>219.06</v>
+        <v>218.86</v>
       </c>
       <c r="C429" s="2">
-        <v>21622820864</v>
+        <v>21603078144</v>
       </c>
       <c r="D429" s="3">
-        <v>907</v>
+        <v>272</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7913,13 +7922,13 @@
         <v>432</v>
       </c>
       <c r="B430" s="2">
-        <v>392.15</v>
+        <v>389.63</v>
       </c>
       <c r="C430" s="2">
-        <v>149493858304</v>
+        <v>148533198848</v>
       </c>
       <c r="D430" s="3">
-        <v>506</v>
+        <v>153</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7927,13 +7936,13 @@
         <v>433</v>
       </c>
       <c r="B431" s="2">
-        <v>32.64</v>
+        <v>42</v>
       </c>
       <c r="C431" s="2">
-        <v>20535781376</v>
+        <v>24593729536</v>
       </c>
       <c r="D431" s="3">
-        <v>6090</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7941,13 +7950,13 @@
         <v>434</v>
       </c>
       <c r="B432" s="2">
-        <v>67.52</v>
+        <v>67.09</v>
       </c>
       <c r="C432" s="2">
-        <v>26288504832</v>
+        <v>26121086976</v>
       </c>
       <c r="D432" s="3">
-        <v>2944</v>
+        <v>888</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7955,13 +7964,13 @@
         <v>435</v>
       </c>
       <c r="B433" s="2">
-        <v>558.49</v>
+        <v>565.9299999999999</v>
       </c>
       <c r="C433" s="2">
-        <v>85791883264</v>
+        <v>86934773760</v>
       </c>
       <c r="D433" s="3">
-        <v>355</v>
+        <v>105</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7969,13 +7978,13 @@
         <v>436</v>
       </c>
       <c r="B434" s="2">
-        <v>77.11</v>
+        <v>76.27</v>
       </c>
       <c r="C434" s="2">
-        <v>37878435840</v>
+        <v>37465804800</v>
       </c>
       <c r="D434" s="3">
-        <v>2578</v>
+        <v>781</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7983,13 +7992,13 @@
         <v>437</v>
       </c>
       <c r="B435" s="2">
-        <v>246.94</v>
+        <v>244.82</v>
       </c>
       <c r="C435" s="2">
-        <v>286571397120</v>
+        <v>284111175680</v>
       </c>
       <c r="D435" s="3">
-        <v>805</v>
+        <v>243</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7997,13 +8006,13 @@
         <v>438</v>
       </c>
       <c r="B436" s="2">
-        <v>123.84</v>
+        <v>123.64</v>
       </c>
       <c r="C436" s="2">
-        <v>27583377408</v>
+        <v>27467739136</v>
       </c>
       <c r="D436" s="3">
-        <v>1605</v>
+        <v>482</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8011,13 +8020,13 @@
         <v>439</v>
       </c>
       <c r="B437" s="2">
-        <v>188.38</v>
+        <v>187.95</v>
       </c>
       <c r="C437" s="2">
-        <v>33084616704</v>
+        <v>33009094656</v>
       </c>
       <c r="D437" s="3">
-        <v>1055</v>
+        <v>317</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8025,13 +8034,13 @@
         <v>440</v>
       </c>
       <c r="B438" s="2">
-        <v>62.28</v>
+        <v>64.58</v>
       </c>
       <c r="C438" s="2">
-        <v>14513481728</v>
+        <v>15049464832</v>
       </c>
       <c r="D438" s="3">
-        <v>3192</v>
+        <v>923</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8039,13 +8048,13 @@
         <v>441</v>
       </c>
       <c r="B439" s="2">
-        <v>204.3</v>
+        <v>194.54</v>
       </c>
       <c r="C439" s="2">
-        <v>44550275072</v>
+        <v>42421977088</v>
       </c>
       <c r="D439" s="3">
-        <v>973</v>
+        <v>306</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8053,13 +8062,13 @@
         <v>442</v>
       </c>
       <c r="B440" s="2">
-        <v>132.31</v>
+        <v>130.72</v>
       </c>
       <c r="C440" s="2">
-        <v>60626030592</v>
+        <v>59897475072</v>
       </c>
       <c r="D440" s="3">
-        <v>1502</v>
+        <v>456</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8067,13 +8076,13 @@
         <v>443</v>
       </c>
       <c r="B441" s="2">
-        <v>151.12</v>
+        <v>154.33</v>
       </c>
       <c r="C441" s="2">
-        <v>45218430976</v>
+        <v>46169669632</v>
       </c>
       <c r="D441" s="3">
-        <v>1315</v>
+        <v>386</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8081,13 +8090,13 @@
         <v>444</v>
       </c>
       <c r="B442" s="2">
-        <v>485.26</v>
+        <v>480.1</v>
       </c>
       <c r="C442" s="2">
-        <v>22633836544</v>
+        <v>22373765120</v>
       </c>
       <c r="D442" s="3">
-        <v>409</v>
+        <v>124</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8095,13 +8104,13 @@
         <v>445</v>
       </c>
       <c r="B443" s="2">
-        <v>192.85</v>
+        <v>194.31</v>
       </c>
       <c r="C443" s="2">
-        <v>8956667904</v>
+        <v>9024475136</v>
       </c>
       <c r="D443" s="3">
-        <v>1030</v>
+        <v>306</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8109,13 +8118,13 @@
         <v>446</v>
       </c>
       <c r="B444" s="2">
-        <v>110</v>
+        <v>113.2</v>
       </c>
       <c r="C444" s="2">
-        <v>17914710016</v>
+        <v>18435864576</v>
       </c>
       <c r="D444" s="3">
-        <v>1807</v>
+        <v>526</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8123,13 +8132,13 @@
         <v>447</v>
       </c>
       <c r="B445" s="2">
-        <v>345.16</v>
+        <v>357.09</v>
       </c>
       <c r="C445" s="2">
-        <v>1107984384000</v>
+        <v>1146280345600</v>
       </c>
       <c r="D445" s="3">
-        <v>575</v>
+        <v>167</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8137,13 +8146,13 @@
         <v>448</v>
       </c>
       <c r="B446" s="2">
-        <v>201.03</v>
+        <v>201.78</v>
       </c>
       <c r="C446" s="2">
-        <v>183382982656</v>
+        <v>184067145728</v>
       </c>
       <c r="D446" s="3">
-        <v>988</v>
+        <v>295</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8151,13 +8160,13 @@
         <v>449</v>
       </c>
       <c r="B447" s="2">
-        <v>1600.09</v>
+        <v>1500.35</v>
       </c>
       <c r="C447" s="2">
-        <v>37602754560</v>
+        <v>34470391808</v>
       </c>
       <c r="D447" s="3">
-        <v>124</v>
+        <v>39</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8165,13 +8174,13 @@
         <v>450</v>
       </c>
       <c r="B448" s="2">
-        <v>85.63</v>
+        <v>85.45999999999999</v>
       </c>
       <c r="C448" s="2">
-        <v>15885391872</v>
+        <v>15853855744</v>
       </c>
       <c r="D448" s="3">
-        <v>2321</v>
+        <v>697</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8179,13 +8188,13 @@
         <v>451</v>
       </c>
       <c r="B449" s="2">
-        <v>529.63</v>
+        <v>529.95</v>
       </c>
       <c r="C449" s="2">
-        <v>202583474176</v>
+        <v>202705879040</v>
       </c>
       <c r="D449" s="3">
-        <v>375</v>
+        <v>112</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8193,13 +8202,13 @@
         <v>452</v>
       </c>
       <c r="B450" s="2">
-        <v>125.69</v>
+        <v>126.19</v>
       </c>
       <c r="C450" s="2">
-        <v>142518648832</v>
+        <v>142325907456</v>
       </c>
       <c r="D450" s="3">
-        <v>1581</v>
+        <v>472</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8207,13 +8216,13 @@
         <v>453</v>
       </c>
       <c r="B451" s="2">
-        <v>283.67</v>
+        <v>290.27</v>
       </c>
       <c r="C451" s="2">
-        <v>30307020800</v>
+        <v>31012155392</v>
       </c>
       <c r="D451" s="3">
-        <v>700</v>
+        <v>205</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8221,13 +8230,13 @@
         <v>454</v>
       </c>
       <c r="B452" s="2">
-        <v>416.22</v>
+        <v>414.79</v>
       </c>
       <c r="C452" s="2">
-        <v>93659488256</v>
+        <v>93337706496</v>
       </c>
       <c r="D452" s="3">
-        <v>477</v>
+        <v>143</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8235,13 +8244,13 @@
         <v>455</v>
       </c>
       <c r="B453" s="2">
-        <v>1252.97</v>
+        <v>1260.47</v>
       </c>
       <c r="C453" s="2">
-        <v>70455001088</v>
+        <v>70876733440</v>
       </c>
       <c r="D453" s="3">
-        <v>158</v>
+        <v>47</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8249,13 +8258,13 @@
         <v>456</v>
       </c>
       <c r="B454" s="2">
-        <v>266.04</v>
+        <v>263.51</v>
       </c>
       <c r="C454" s="2">
-        <v>60536872960</v>
+        <v>59821780992</v>
       </c>
       <c r="D454" s="3">
-        <v>747</v>
+        <v>226</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8263,13 +8272,13 @@
         <v>457</v>
       </c>
       <c r="B455" s="2">
-        <v>72.97</v>
+        <v>73.08</v>
       </c>
       <c r="C455" s="2">
-        <v>17819858944</v>
+        <v>17846720512</v>
       </c>
       <c r="D455" s="3">
-        <v>2724</v>
+        <v>816</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8277,13 +8286,13 @@
         <v>458</v>
       </c>
       <c r="B456" s="2">
-        <v>47.68</v>
+        <v>46.98</v>
       </c>
       <c r="C456" s="2">
-        <v>63389126656</v>
+        <v>62366887936</v>
       </c>
       <c r="D456" s="3">
-        <v>4169</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8291,13 +8300,13 @@
         <v>459</v>
       </c>
       <c r="B457" s="2">
-        <v>629.17</v>
+        <v>625.58</v>
       </c>
       <c r="C457" s="2">
-        <v>26981955584</v>
+        <v>26773948416</v>
       </c>
       <c r="D457" s="3">
-        <v>315</v>
+        <v>95</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8305,13 +8314,13 @@
         <v>460</v>
       </c>
       <c r="B458" s="2">
-        <v>64.5</v>
+        <v>64.34</v>
       </c>
       <c r="C458" s="2">
-        <v>22935490560</v>
+        <v>22896287744</v>
       </c>
       <c r="D458" s="3">
-        <v>3082</v>
+        <v>926</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8319,13 +8328,13 @@
         <v>461</v>
       </c>
       <c r="B459" s="2">
-        <v>53.29</v>
+        <v>52.77</v>
       </c>
       <c r="C459" s="2">
-        <v>83430293504</v>
+        <v>82322784256</v>
       </c>
       <c r="D459" s="3">
-        <v>3730</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8333,13 +8342,13 @@
         <v>462</v>
       </c>
       <c r="B460" s="2">
-        <v>71.95999999999999</v>
+        <v>73.06999999999999</v>
       </c>
       <c r="C460" s="2">
-        <v>151526883328</v>
+        <v>153864224768</v>
       </c>
       <c r="D460" s="3">
-        <v>2762</v>
+        <v>816</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8347,13 +8356,13 @@
         <v>463</v>
       </c>
       <c r="B461" s="2">
-        <v>45.86</v>
+        <v>45.3</v>
       </c>
       <c r="C461" s="2">
-        <v>17404329984</v>
+        <v>17017397248</v>
       </c>
       <c r="D461" s="3">
-        <v>4335</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8361,13 +8370,13 @@
         <v>464</v>
       </c>
       <c r="B462" s="2">
-        <v>386.64</v>
+        <v>394.06</v>
       </c>
       <c r="C462" s="2">
-        <v>18216427520</v>
+        <v>18566019072</v>
       </c>
       <c r="D462" s="3">
-        <v>514</v>
+        <v>151</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8375,13 +8384,13 @@
         <v>465</v>
       </c>
       <c r="B463" s="2">
-        <v>244.66</v>
+        <v>240.78</v>
       </c>
       <c r="C463" s="2">
-        <v>148672299008</v>
+        <v>145974558720</v>
       </c>
       <c r="D463" s="3">
-        <v>812</v>
+        <v>247</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8389,13 +8398,13 @@
         <v>466</v>
       </c>
       <c r="B464" s="2">
-        <v>96.83</v>
+        <v>97.44</v>
       </c>
       <c r="C464" s="2">
-        <v>31845064704</v>
+        <v>32045678592</v>
       </c>
       <c r="D464" s="3">
-        <v>2053</v>
+        <v>612</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8403,13 +8412,13 @@
         <v>467</v>
       </c>
       <c r="B465" s="2">
-        <v>135.72</v>
+        <v>134.02</v>
       </c>
       <c r="C465" s="2">
-        <v>115785179136</v>
+        <v>114368651264</v>
       </c>
       <c r="D465" s="3">
-        <v>1464</v>
+        <v>445</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8417,13 +8426,13 @@
         <v>468</v>
       </c>
       <c r="B466" s="2">
-        <v>866</v>
+        <v>857.05</v>
       </c>
       <c r="C466" s="2">
-        <v>56828997632</v>
+        <v>56241676288</v>
       </c>
       <c r="D466" s="3">
-        <v>229</v>
+        <v>69</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8431,13 +8440,13 @@
         <v>469</v>
       </c>
       <c r="B467" s="2">
-        <v>610.2</v>
+        <v>608.52</v>
       </c>
       <c r="C467" s="2">
-        <v>561557340160</v>
+        <v>560011280384</v>
       </c>
       <c r="D467" s="3">
-        <v>325</v>
+        <v>98</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8445,13 +8454,13 @@
         <v>470</v>
       </c>
       <c r="B468" s="2">
-        <v>205</v>
+        <v>201.06</v>
       </c>
       <c r="C468" s="2">
-        <v>13522948096</v>
+        <v>13263043584</v>
       </c>
       <c r="D468" s="3">
-        <v>969</v>
+        <v>296</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8459,13 +8468,13 @@
         <v>471</v>
       </c>
       <c r="B469" s="2">
-        <v>139.08</v>
+        <v>140.14</v>
       </c>
       <c r="C469" s="2">
-        <v>44030640128</v>
+        <v>44366221312</v>
       </c>
       <c r="D469" s="3">
-        <v>1429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8473,13 +8482,13 @@
         <v>472</v>
       </c>
       <c r="B470" s="2">
-        <v>64.06999999999999</v>
+        <v>62.26</v>
       </c>
       <c r="C470" s="2">
-        <v>27075213312</v>
+        <v>26118754304</v>
       </c>
       <c r="D470" s="3">
-        <v>3102</v>
+        <v>957</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8487,13 +8496,13 @@
         <v>473</v>
       </c>
       <c r="B471" s="2">
-        <v>108.19</v>
+        <v>106.63</v>
       </c>
       <c r="C471" s="2">
-        <v>26756253696</v>
+        <v>26370451456</v>
       </c>
       <c r="D471" s="3">
-        <v>1837</v>
+        <v>559</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8501,13 +8510,13 @@
         <v>474</v>
       </c>
       <c r="B472" s="2">
-        <v>187.18</v>
+        <v>192.49</v>
       </c>
       <c r="C472" s="2">
-        <v>18415648768</v>
+        <v>18498289664</v>
       </c>
       <c r="D472" s="3">
-        <v>1062</v>
+        <v>309</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8515,13 +8524,13 @@
         <v>475</v>
       </c>
       <c r="B473" s="2">
-        <v>294.21</v>
+        <v>292.7</v>
       </c>
       <c r="C473" s="2">
-        <v>41595117568</v>
+        <v>41332465664</v>
       </c>
       <c r="D473" s="3">
-        <v>675</v>
+        <v>203</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8529,13 +8538,13 @@
         <v>476</v>
       </c>
       <c r="B474" s="2">
-        <v>44.34</v>
+        <v>43.85</v>
       </c>
       <c r="C474" s="2">
-        <v>186823049216</v>
+        <v>184592269312</v>
       </c>
       <c r="D474" s="3">
-        <v>4483</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8543,13 +8552,13 @@
         <v>477</v>
       </c>
       <c r="B475" s="2">
-        <v>468.13</v>
+        <v>465.73</v>
       </c>
       <c r="C475" s="2">
-        <v>120557051904</v>
+        <v>119938981888</v>
       </c>
       <c r="D475" s="3">
-        <v>424</v>
+        <v>128</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8557,13 +8566,13 @@
         <v>478</v>
       </c>
       <c r="B476" s="2">
-        <v>13.09</v>
+        <v>13.2</v>
       </c>
       <c r="C476" s="2">
-        <v>15779340288</v>
+        <v>15755387904</v>
       </c>
       <c r="D476" s="3">
-        <v>15187</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8571,13 +8580,13 @@
         <v>479</v>
       </c>
       <c r="B477" s="2">
-        <v>32.61</v>
+        <v>32.21</v>
       </c>
       <c r="C477" s="2">
-        <v>34376482816</v>
+        <v>33954813952</v>
       </c>
       <c r="D477" s="3">
-        <v>6096</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8585,13 +8594,13 @@
         <v>480</v>
       </c>
       <c r="B478" s="2">
-        <v>315.08</v>
+        <v>316.65</v>
       </c>
       <c r="C478" s="2">
-        <v>608999178240</v>
+        <v>612771561472</v>
       </c>
       <c r="D478" s="3">
-        <v>630</v>
+        <v>188</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8599,13 +8608,13 @@
         <v>481</v>
       </c>
       <c r="B479" s="2">
-        <v>159.84</v>
+        <v>154.11</v>
       </c>
       <c r="C479" s="2">
-        <v>54381719552</v>
+        <v>52432228352</v>
       </c>
       <c r="D479" s="3">
-        <v>1243</v>
+        <v>387</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8613,13 +8622,13 @@
         <v>482</v>
       </c>
       <c r="B480" s="2">
-        <v>288.13</v>
+        <v>287.05</v>
       </c>
       <c r="C480" s="2">
-        <v>38050738176</v>
+        <v>37908107264</v>
       </c>
       <c r="D480" s="3">
-        <v>689</v>
+        <v>207</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8627,13 +8636,13 @@
         <v>483</v>
       </c>
       <c r="B481" s="2">
-        <v>64.55</v>
+        <v>63.65</v>
       </c>
       <c r="C481" s="2">
-        <v>24746600448</v>
+        <v>24255041536</v>
       </c>
       <c r="D481" s="3">
-        <v>3079</v>
+        <v>937</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8641,13 +8650,13 @@
         <v>484</v>
       </c>
       <c r="B482" s="2">
-        <v>1205.34</v>
+        <v>1193.99</v>
       </c>
       <c r="C482" s="2">
-        <v>58726092800</v>
+        <v>58147553280</v>
       </c>
       <c r="D482" s="3">
-        <v>164</v>
+        <v>49</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8655,13 +8664,13 @@
         <v>485</v>
       </c>
       <c r="B483" s="2">
-        <v>200.62</v>
+        <v>199.78</v>
       </c>
       <c r="C483" s="2">
-        <v>34484572160</v>
+        <v>34340184064</v>
       </c>
       <c r="D483" s="3">
-        <v>990</v>
+        <v>298</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8669,13 +8678,13 @@
         <v>486</v>
       </c>
       <c r="B484" s="2">
-        <v>9.02</v>
+        <v>8.98</v>
       </c>
       <c r="C484" s="2">
-        <v>7833428480</v>
+        <v>7764260352</v>
       </c>
       <c r="D484" s="3">
-        <v>22040</v>
+        <v>6641</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8683,13 +8692,13 @@
         <v>487</v>
       </c>
       <c r="B485" s="2">
-        <v>92.5</v>
+        <v>92.64</v>
       </c>
       <c r="C485" s="2">
-        <v>743538098176</v>
+        <v>744663482368</v>
       </c>
       <c r="D485" s="3">
-        <v>2149</v>
+        <v>643</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8697,13 +8706,13 @@
         <v>488</v>
       </c>
       <c r="B486" s="2">
-        <v>117.47</v>
+        <v>117.16</v>
       </c>
       <c r="C486" s="2">
-        <v>212966064128</v>
+        <v>212169736192</v>
       </c>
       <c r="D486" s="3">
-        <v>1692</v>
+        <v>509</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8711,13 +8720,13 @@
         <v>489</v>
       </c>
       <c r="B487" s="2">
-        <v>10.48</v>
+        <v>10.56</v>
       </c>
       <c r="C487" s="2">
-        <v>25709219840</v>
+        <v>25905475584</v>
       </c>
       <c r="D487" s="3">
-        <v>18970</v>
+        <v>5647</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8725,13 +8734,13 @@
         <v>490</v>
       </c>
       <c r="B488" s="2">
-        <v>228.22</v>
+        <v>225.12</v>
       </c>
       <c r="C488" s="2">
-        <v>91696054272</v>
+        <v>90355515392</v>
       </c>
       <c r="D488" s="3">
-        <v>871</v>
+        <v>264</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8739,13 +8748,13 @@
         <v>491</v>
       </c>
       <c r="B489" s="2">
-        <v>384.72</v>
+        <v>387.1</v>
       </c>
       <c r="C489" s="2">
-        <v>22953050112</v>
+        <v>22984527872</v>
       </c>
       <c r="D489" s="3">
-        <v>516</v>
+        <v>154</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8753,13 +8762,13 @@
         <v>492</v>
       </c>
       <c r="B490" s="2">
-        <v>101.05</v>
+        <v>99.66</v>
       </c>
       <c r="C490" s="2">
-        <v>32211204096</v>
+        <v>31527839744</v>
       </c>
       <c r="D490" s="3">
-        <v>1967</v>
+        <v>598</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8767,13 +8776,13 @@
         <v>493</v>
       </c>
       <c r="B491" s="2">
-        <v>76.17</v>
+        <v>75.28</v>
       </c>
       <c r="C491" s="2">
-        <v>257069924352</v>
+        <v>250644004864</v>
       </c>
       <c r="D491" s="3">
-        <v>2610</v>
+        <v>792</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8781,13 +8790,13 @@
         <v>494</v>
       </c>
       <c r="B492" s="2">
-        <v>138.18</v>
+        <v>134.03</v>
       </c>
       <c r="C492" s="2">
-        <v>86740697088</v>
+        <v>83459137536</v>
       </c>
       <c r="D492" s="3">
-        <v>1438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -8795,13 +8804,13 @@
         <v>495</v>
       </c>
       <c r="B493" s="2">
-        <v>325.68</v>
+        <v>322.65</v>
       </c>
       <c r="C493" s="2">
-        <v>23586527232</v>
+        <v>23367086080</v>
       </c>
       <c r="D493" s="3">
-        <v>610</v>
+        <v>184</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8809,13 +8818,13 @@
         <v>496</v>
       </c>
       <c r="B494" s="2">
-        <v>72.98999999999999</v>
+        <v>73.43000000000001</v>
       </c>
       <c r="C494" s="2">
-        <v>25233225728</v>
+        <v>25385338880</v>
       </c>
       <c r="D494" s="3">
-        <v>2723</v>
+        <v>812</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8823,13 +8832,13 @@
         <v>497</v>
       </c>
       <c r="B495" s="2">
-        <v>32.26</v>
+        <v>31.97</v>
       </c>
       <c r="C495" s="2">
-        <v>23504926720</v>
+        <v>23228825600</v>
       </c>
       <c r="D495" s="3">
-        <v>6162</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8837,13 +8846,13 @@
         <v>498</v>
       </c>
       <c r="B496" s="2">
-        <v>58.52</v>
+        <v>56.45</v>
       </c>
       <c r="C496" s="2">
-        <v>71336468480</v>
+        <v>68813119488</v>
       </c>
       <c r="D496" s="3">
-        <v>3397</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8851,13 +8860,13 @@
         <v>499</v>
       </c>
       <c r="B497" s="2">
-        <v>322</v>
+        <v>320.5</v>
       </c>
       <c r="C497" s="2">
-        <v>32433451008</v>
+        <v>32282361856</v>
       </c>
       <c r="D497" s="3">
-        <v>617</v>
+        <v>186</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8865,13 +8874,13 @@
         <v>500</v>
       </c>
       <c r="B498" s="2">
-        <v>94.38</v>
+        <v>96.16</v>
       </c>
       <c r="C498" s="2">
-        <v>10364339200</v>
+        <v>10559810560</v>
       </c>
       <c r="D498" s="3">
-        <v>2106</v>
+        <v>620</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8879,13 +8888,13 @@
         <v>501</v>
       </c>
       <c r="B499" s="2">
-        <v>72.56</v>
+        <v>71.2</v>
       </c>
       <c r="C499" s="2">
-        <v>41873723392</v>
+        <v>40886026240</v>
       </c>
       <c r="D499" s="3">
-        <v>2739</v>
+        <v>837</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8893,13 +8902,13 @@
         <v>502</v>
       </c>
       <c r="B500" s="2">
-        <v>126.75</v>
+        <v>127.01</v>
       </c>
       <c r="C500" s="2">
-        <v>30793277440</v>
+        <v>30856443904</v>
       </c>
       <c r="D500" s="3">
-        <v>1568</v>
+        <v>469</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8907,13 +8916,13 @@
         <v>503</v>
       </c>
       <c r="B501" s="2">
-        <v>138.94</v>
+        <v>139.03</v>
       </c>
       <c r="C501" s="2">
-        <v>38883053568</v>
+        <v>38799380480</v>
       </c>
       <c r="D501" s="3">
-        <v>1430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8921,13 +8930,13 @@
         <v>504</v>
       </c>
       <c r="B502" s="2">
-        <v>407</v>
+        <v>410.04</v>
       </c>
       <c r="C502" s="2">
-        <v>20993060864</v>
+        <v>21149863936</v>
       </c>
       <c r="D502" s="3">
-        <v>488</v>
+        <v>145</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8935,13 +8944,13 @@
         <v>505</v>
       </c>
       <c r="B503" s="2">
-        <v>112.1</v>
+        <v>110.5</v>
       </c>
       <c r="C503" s="2">
-        <v>22316195840</v>
+        <v>21997676544</v>
       </c>
       <c r="D503" s="3">
-        <v>1773</v>
+        <v>539</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8949,13 +8958,13 @@
         <v>506</v>
       </c>
       <c r="B504" s="2">
-        <v>175.25</v>
+        <v>176.81</v>
       </c>
       <c r="C504" s="2">
-        <v>79738920960</v>
+        <v>79770484736</v>
       </c>
       <c r="D504" s="3">
-        <v>1134</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
